--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A64AC95-5A85-490C-8A79-14A54F64F265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E96271-D617-42DD-B0D5-89DECEFE2F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -3472,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3634,7 +3634,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="32.25" thickBot="1">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="4">
         <v>25</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="32.25" thickBot="1">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
       <c r="A9" s="4">
         <v>37</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="32.25" thickBot="1">
+    <row r="13" spans="1:12" ht="16.5" thickBot="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="32.25" thickBot="1">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
       <c r="A14" s="4">
         <v>38</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="32.25" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="32.25" thickBot="1">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1">
       <c r="A20" s="4">
         <v>29</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="32.25" thickBot="1">
+    <row r="30" spans="1:12" ht="18.75" thickBot="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="32.25" thickBot="1">
+    <row r="31" spans="1:12" ht="16.5" thickBot="1">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="32.25" thickBot="1">
+    <row r="32" spans="1:12" ht="16.5" thickBot="1">
       <c r="A32" s="4">
         <v>24</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="32.25" thickBot="1">
+    <row r="37" spans="1:12" ht="16.5" thickBot="1">
       <c r="A37" s="4">
         <v>18</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="32.25" thickBot="1">
+    <row r="38" spans="1:12" ht="16.5" thickBot="1">
       <c r="A38" s="4">
         <v>19</v>
       </c>
@@ -4977,15 +4977,17 @@
       <c r="H43" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I43" s="10"/>
+      <c r="I43" s="10" t="s">
+        <v>538</v>
+      </c>
       <c r="J43" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B43,",",E43," ",C43)</f>
-        <v>,,W,🇩🇰 Michael Mix</v>
+        <v>DDEDF9,,W,🇩🇰 Michael Mix</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="32.25" thickBot="1">
+    <row r="44" spans="1:12" ht="16.5" thickBot="1">
       <c r="A44" s="4">
         <v>9</v>
       </c>
@@ -5020,7 +5022,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="32.25" thickBot="1">
+    <row r="45" spans="1:12" ht="16.5" thickBot="1">
       <c r="A45" s="4">
         <v>10</v>
       </c>
@@ -5230,7 +5232,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="32.25" thickBot="1">
+    <row r="51" spans="1:12" ht="16.5" thickBot="1">
       <c r="A51" s="4">
         <v>17</v>
       </c>
@@ -5265,7 +5267,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="32.25" thickBot="1">
+    <row r="52" spans="1:12" ht="16.5" thickBot="1">
       <c r="A52" s="4">
         <v>26</v>
       </c>
@@ -5512,7 +5514,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="32.25" thickBot="1">
+    <row r="59" spans="1:12" ht="16.5" thickBot="1">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -5605,12 +5607,10 @@
       <c r="H61" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>538</v>
-      </c>
+      <c r="I61" s="9"/>
       <c r="J61" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B61,",",E61," ",C61)</f>
-        <v>DDEDF9,,KW,🇫🇷 Maximilian SEIS</v>
+        <v>,,KW,🇫🇷 Maximilian SEIS</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -5685,7 +5685,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="32.25" thickBot="1">
+    <row r="64" spans="1:12" ht="16.5" thickBot="1">
       <c r="A64" s="4">
         <v>14</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="32.25" thickBot="1">
+    <row r="65" spans="1:12" ht="16.5" thickBot="1">
       <c r="A65" s="4">
         <v>16</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="32.25" thickBot="1">
+    <row r="73" spans="1:12" ht="16.5" thickBot="1">
       <c r="A73" s="4">
         <v>36</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="32.25" thickBot="1">
+    <row r="76" spans="1:12" ht="16.5" thickBot="1">
       <c r="A76" s="4">
         <v>20</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="32.25" thickBot="1">
+    <row r="77" spans="1:12" ht="16.5" thickBot="1">
       <c r="A77" s="4">
         <v>22</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="32.25" thickBot="1">
+    <row r="80" spans="1:12" ht="16.5" thickBot="1">
       <c r="A80" s="4">
         <v>6</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="32.25" thickBot="1">
+    <row r="86" spans="1:12" ht="16.5" thickBot="1">
       <c r="A86" s="4">
         <v>27</v>
       </c>
@@ -6484,7 +6484,7 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="32.25" thickBot="1">
+    <row r="87" spans="1:12" ht="16.5" thickBot="1">
       <c r="A87" s="4">
         <v>34</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="32.25" thickBot="1">
+    <row r="92" spans="1:12" ht="16.5" thickBot="1">
       <c r="A92" s="4">
         <v>30</v>
       </c>
@@ -6692,7 +6692,7 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="32.25" thickBot="1">
+    <row r="93" spans="1:12" ht="16.5" thickBot="1">
       <c r="A93" s="4">
         <v>35</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" ht="32.25" thickBot="1">
+    <row r="99" spans="1:12" ht="16.5" thickBot="1">
       <c r="A99" s="4">
         <v>2</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" ht="32.25" thickBot="1">
+    <row r="100" spans="1:12" ht="16.5" thickBot="1">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" ht="32.25" thickBot="1">
+    <row r="105" spans="1:12" ht="16.5" thickBot="1">
       <c r="A105" s="4">
         <v>28</v>
       </c>
@@ -7143,7 +7143,7 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" ht="32.25" thickBot="1">
+    <row r="106" spans="1:12" ht="16.5" thickBot="1">
       <c r="A106" s="4">
         <v>32</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" ht="32.25" thickBot="1">
+    <row r="111" spans="1:12" ht="16.5" thickBot="1">
       <c r="A111" s="4">
         <v>4</v>
       </c>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E96271-D617-42DD-B0D5-89DECEFE2F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75402EA1-ACDA-4886-BF78-05C1CDDE3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="780">
   <si>
     <t>ZJ</t>
   </si>
@@ -2372,6 +2372,12 @@
   </si>
   <si>
     <t>LS8 15 Meter</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2488,11 +2494,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2521,6 +2551,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3096,8 +3138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L116" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="A1:L116" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L155" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:L155" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L116">
     <sortCondition ref="E1:E116"/>
   </sortState>
@@ -3470,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7518,611 +7560,904 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
+    <row r="117" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="J117" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B117,",",E117," ",C117)</f>
+        <v>D00CF4,,?, Unknown</v>
+      </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
+    <row r="118" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A118" s="13"/>
+      <c r="B118" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="J118" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B118,",",E118," ",C118)</f>
+        <v>,,?, Unknown</v>
+      </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
+    <row r="119" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A119" s="13"/>
+      <c r="B119" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="7">
+        <v>617239</v>
+      </c>
+      <c r="J119" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B119,",",E119," ",C119)</f>
+        <v>617239,,?, Unknown</v>
+      </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="8"/>
+    <row r="120" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A120" s="13"/>
+      <c r="B120" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="J120" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B120,",",E120," ",C120)</f>
+        <v>D214B1,,?, Unknown</v>
+      </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="8"/>
+    <row r="121" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A121" s="13"/>
+      <c r="B121" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="J121" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B121,",",E121," ",C121)</f>
+        <v>C5AFCC,,?, Unknown</v>
+      </c>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
+    <row r="122" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A122" s="13"/>
+      <c r="B122" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="J122" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B122,",",E122," ",C122)</f>
+        <v>109C4C,,?, Unknown</v>
+      </c>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="8"/>
+    <row r="123" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A123" s="13"/>
+      <c r="B123" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="J123" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B123,",",E123," ",C123)</f>
+        <v>C2A4CE,,?, Unknown</v>
+      </c>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
+    <row r="124" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A124" s="13"/>
+      <c r="B124" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="J124" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B124,",",E124," ",C124)</f>
+        <v>05FF9A,,?, Unknown</v>
+      </c>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
+    <row r="125" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A125" s="13"/>
+      <c r="B125" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14"/>
       <c r="I125" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="J125" s="8"/>
+        <v>561</v>
+      </c>
+      <c r="J125" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B125,",",E125," ",C125)</f>
+        <v>0BF591,,?, Unknown</v>
+      </c>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
+    <row r="126" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A126" s="13"/>
+      <c r="B126" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="J126" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B126,",",E126," ",C126)</f>
+        <v>4A542F,,?, Unknown</v>
+      </c>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="7">
-        <v>617239</v>
-      </c>
-      <c r="J127" s="8"/>
+    <row r="127" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A127" s="13"/>
+      <c r="B127" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="J127" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B127,",",E127," ",C127)</f>
+        <v>462FD9,,?, Unknown</v>
+      </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
+    <row r="128" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A128" s="13"/>
+      <c r="B128" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
       <c r="I128" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="J128" s="8"/>
+        <v>564</v>
+      </c>
+      <c r="J128" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B128,",",E128," ",C128)</f>
+        <v>11954C,,?, Unknown</v>
+      </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
+    <row r="129" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A129" s="13"/>
+      <c r="B129" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14"/>
       <c r="I129" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="J129" s="8"/>
+        <v>565</v>
+      </c>
+      <c r="J129" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B129,",",E129," ",C129)</f>
+        <v>593CC0,,?, Unknown</v>
+      </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
+    <row r="130" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A130" s="13"/>
+      <c r="B130" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="14"/>
       <c r="I130" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="J130" s="8"/>
+        <v>566</v>
+      </c>
+      <c r="J130" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B130,",",E130," ",C130)</f>
+        <v>65723C,,?, Unknown</v>
+      </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
+    <row r="131" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A131" s="13"/>
+      <c r="B131" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
       <c r="I131" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="J131" s="8"/>
+        <v>568</v>
+      </c>
+      <c r="J131" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B131,",",E131," ",C131)</f>
+        <v>0AF490,,?, Unknown</v>
+      </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
+    <row r="132" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A132" s="13"/>
+      <c r="B132" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="14"/>
       <c r="I132" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="J132" s="8"/>
+        <v>569</v>
+      </c>
+      <c r="J132" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B132,",",E132," ",C132)</f>
+        <v>D9B7D1,,?, Unknown</v>
+      </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
+    <row r="133" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A133" s="13"/>
+      <c r="B133" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14"/>
       <c r="I133" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="J133" s="8"/>
+        <v>570</v>
+      </c>
+      <c r="J133" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B133,",",E133," ",C133)</f>
+        <v>DF15BF,,?, Unknown</v>
+      </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
     </row>
-    <row r="134" spans="1:12" ht="15.75">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
+    <row r="134" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A134" s="13"/>
+      <c r="B134" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="14"/>
       <c r="I134" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="J134" s="8"/>
+        <v>571</v>
+      </c>
+      <c r="J134" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B134,",",E134," ",C134)</f>
+        <v>4726D8,,?, Unknown</v>
+      </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
     </row>
-    <row r="135" spans="1:12" ht="15.75">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
+    <row r="135" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A135" s="13"/>
+      <c r="B135" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="14"/>
       <c r="I135" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="J135" s="8"/>
+        <v>572</v>
+      </c>
+      <c r="J135" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B135,",",E135," ",C135)</f>
+        <v>FA44F7,,?, Unknown</v>
+      </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
     </row>
-    <row r="136" spans="1:12" ht="15.75">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+    <row r="136" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A136" s="13"/>
+      <c r="B136" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14"/>
       <c r="I136" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="J136" s="8"/>
+        <v>573</v>
+      </c>
+      <c r="J136" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B136,",",E136," ",C136)</f>
+        <v>01FF9D,,?, Unknown</v>
+      </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
     </row>
-    <row r="137" spans="1:12" ht="15.75">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
+    <row r="137" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A137" s="13"/>
+      <c r="B137" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="14"/>
       <c r="I137" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="J137" s="8"/>
+        <v>574</v>
+      </c>
+      <c r="J137" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B137,",",E137," ",C137)</f>
+        <v>DBBDD7,,?, Unknown</v>
+      </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
     </row>
-    <row r="138" spans="1:12" ht="15.75">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
+    <row r="138" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A138" s="13"/>
+      <c r="B138" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="14"/>
       <c r="I138" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="J138" s="8"/>
+        <v>575</v>
+      </c>
+      <c r="J138" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B138,",",E138," ",C138)</f>
+        <v>1FE585,,?, Unknown</v>
+      </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
     </row>
-    <row r="139" spans="1:12" ht="15.75">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
+    <row r="139" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A139" s="13"/>
+      <c r="B139" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="14"/>
       <c r="I139" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="J139" s="8"/>
+        <v>576</v>
+      </c>
+      <c r="J139" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B139,",",E139," ",C139)</f>
+        <v>00845F,,?, Unknown</v>
+      </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
     </row>
-    <row r="140" spans="1:12" ht="15.75">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
+    <row r="140" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A140" s="13"/>
+      <c r="B140" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="14"/>
       <c r="I140" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="J140" s="8"/>
+        <v>577</v>
+      </c>
+      <c r="J140" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B140,",",E140," ",C140)</f>
+        <v>72692F,,?, Unknown</v>
+      </c>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
     </row>
-    <row r="141" spans="1:12" ht="15.75">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
+    <row r="141" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A141" s="13"/>
+      <c r="B141" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="14"/>
       <c r="I141" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="J141" s="8"/>
+        <v>578</v>
+      </c>
+      <c r="J141" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B141,",",E141," ",C141)</f>
+        <v>1C9442,,?, Unknown</v>
+      </c>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
     </row>
-    <row r="142" spans="1:12" ht="15.75">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
+    <row r="142" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A142" s="13"/>
+      <c r="B142" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="14"/>
       <c r="I142" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="J142" s="8"/>
+        <v>579</v>
+      </c>
+      <c r="J142" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B142,",",E142," ",C142)</f>
+        <v>1AE480,,?, Unknown</v>
+      </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
     </row>
-    <row r="143" spans="1:12" ht="15.75">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
+    <row r="143" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A143" s="13"/>
+      <c r="B143" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="14"/>
       <c r="I143" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="J143" s="8"/>
+        <v>580</v>
+      </c>
+      <c r="J143" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B143,",",E143," ",C143)</f>
+        <v>07875F,,?, Unknown</v>
+      </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
     </row>
-    <row r="144" spans="1:12" ht="15.75">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
+    <row r="144" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A144" s="13"/>
+      <c r="B144" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="14"/>
       <c r="I144" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="J144" s="8"/>
+        <v>581</v>
+      </c>
+      <c r="J144" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B144,",",E144," ",C144)</f>
+        <v>593CC3,,?, Unknown</v>
+      </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
     </row>
-    <row r="145" spans="1:12" ht="15.75">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
+    <row r="145" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A145" s="13"/>
+      <c r="B145" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14"/>
       <c r="I145" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="J145" s="8"/>
+        <v>582</v>
+      </c>
+      <c r="J145" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B145,",",E145," ",C145)</f>
+        <v>4524DD,,?, Unknown</v>
+      </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
     </row>
-    <row r="146" spans="1:12" ht="15.75">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+    <row r="146" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A146" s="13"/>
+      <c r="B146" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="14"/>
       <c r="I146" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="J146" s="8"/>
+        <v>583</v>
+      </c>
+      <c r="J146" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B146,",",E146," ",C146)</f>
+        <v>4A2FD7,,?, Unknown</v>
+      </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
     </row>
-    <row r="147" spans="1:12" ht="15.75">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
+    <row r="147" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A147" s="13"/>
+      <c r="B147" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="14"/>
       <c r="I147" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="J147" s="8"/>
+        <v>584</v>
+      </c>
+      <c r="J147" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B147,",",E147," ",C147)</f>
+        <v>583DC0,,?, Unknown</v>
+      </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
     </row>
-    <row r="148" spans="1:12" ht="15.75">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
+    <row r="148" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A148" s="13"/>
+      <c r="B148" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="14"/>
       <c r="I148" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="J148" s="8"/>
+        <v>585</v>
+      </c>
+      <c r="J148" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B148,",",E148," ",C148)</f>
+        <v>4726D9,,?, Unknown</v>
+      </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
     </row>
-    <row r="149" spans="1:12" ht="15.75">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
+    <row r="149" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A149" s="13"/>
+      <c r="B149" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="14"/>
       <c r="I149" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="J149" s="8"/>
+        <v>586</v>
+      </c>
+      <c r="J149" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B149,",",E149," ",C149)</f>
+        <v>4D5F2E,,?, Unknown</v>
+      </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
     </row>
-    <row r="150" spans="1:12" ht="15.75">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
+    <row r="150" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A150" s="13"/>
+      <c r="B150" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="14"/>
       <c r="I150" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="J150" s="8"/>
+        <v>587</v>
+      </c>
+      <c r="J150" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B150,",",E150," ",C150)</f>
+        <v>0EFC96,,?, Unknown</v>
+      </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
     </row>
-    <row r="151" spans="1:12" ht="15.75">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="J151" s="8"/>
+    <row r="151" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A151" s="13"/>
+      <c r="B151" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="7">
+        <v>524435</v>
+      </c>
+      <c r="J151" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B151,",",E151," ",C151)</f>
+        <v>524435,,?, Unknown</v>
+      </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
     </row>
-    <row r="152" spans="1:12" ht="15.75">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
+    <row r="152" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A152" s="13"/>
+      <c r="B152" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="14"/>
       <c r="I152" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="J152" s="8"/>
+        <v>601</v>
+      </c>
+      <c r="J152" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B152,",",E152," ",C152)</f>
+        <v>D018D8,,?, Unknown</v>
+      </c>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
     </row>
-    <row r="153" spans="1:12" ht="15.75">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
+    <row r="153" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A153" s="13"/>
+      <c r="B153" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="14"/>
       <c r="I153" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J153" s="8"/>
+        <v>609</v>
+      </c>
+      <c r="J153" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B153,",",E153," ",C153)</f>
+        <v>D01CCE,,?, Unknown</v>
+      </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
     </row>
-    <row r="154" spans="1:12" ht="15.75">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
+    <row r="154" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A154" s="13"/>
+      <c r="B154" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="14"/>
       <c r="I154" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="J154" s="8"/>
+        <v>613</v>
+      </c>
+      <c r="J154" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B154,",",E154," ",C154)</f>
+        <v>CDCDCD,,?, Unknown</v>
+      </c>
       <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="1:12" ht="15.75">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
+      <c r="L154" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A155" s="13"/>
+      <c r="B155" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="14"/>
       <c r="I155" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="J155" s="8"/>
+        <v>620</v>
+      </c>
+      <c r="J155" s="10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B155,",",E155," ",C155)</f>
+        <v>DDF0F9,,?, Unknown</v>
+      </c>
       <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
+      <c r="L155" s="8" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="156" spans="1:12" ht="15.75">
       <c r="A156" s="8"/>
@@ -8133,12 +8468,6 @@
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
-      <c r="I156" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
     </row>
     <row r="157" spans="1:12" ht="15.75">
       <c r="A157" s="8"/>
@@ -8149,12 +8478,6 @@
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
-      <c r="I157" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
     </row>
     <row r="158" spans="1:12" ht="15.75">
       <c r="A158" s="8"/>
@@ -8165,12 +8488,6 @@
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
-      <c r="I158" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12" ht="15.75">
       <c r="A159" s="8"/>
@@ -8181,12 +8498,6 @@
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
-      <c r="I159" s="7">
-        <v>524435</v>
-      </c>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12" ht="15.75">
       <c r="A160" s="8"/>
@@ -8197,14 +8508,8 @@
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
-      <c r="I160" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="1:12" ht="15.75">
+    </row>
+    <row r="161" spans="1:8" ht="15.75">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -8213,14 +8518,8 @@
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
-      <c r="I161" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="1:12" ht="15.75">
+    </row>
+    <row r="162" spans="1:8" ht="15.75">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -8229,16 +8528,8 @@
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
-      <c r="I162" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="J162" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="1:12" ht="15.75">
+    </row>
+    <row r="163" spans="1:8" ht="15.75">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -8247,16 +8538,8 @@
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
-      <c r="I163" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="J163" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="1:12" ht="15.75">
+    </row>
+    <row r="164" spans="1:8" ht="15.75">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -8265,12 +8548,8 @@
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="1:12" ht="15.75">
+    </row>
+    <row r="165" spans="1:8" ht="15.75">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -8279,13 +8558,327 @@
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
+    </row>
+    <row r="166" spans="1:8" ht="15.75">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+    </row>
+    <row r="167" spans="1:8" ht="15.75">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.75">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+    </row>
+    <row r="169" spans="1:8" ht="15.75">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+    </row>
+    <row r="170" spans="1:8" ht="15.75">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+    </row>
+    <row r="171" spans="1:8" ht="15.75">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+    </row>
+    <row r="172" spans="1:8" ht="15.75">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+    </row>
+    <row r="173" spans="1:8" ht="15.75">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+    </row>
+    <row r="174" spans="1:8" ht="15.75">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+    </row>
+    <row r="175" spans="1:8" ht="15.75">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+    </row>
+    <row r="176" spans="1:8" ht="15.75">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+    </row>
+    <row r="177" spans="1:8" ht="15.75">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+    </row>
+    <row r="178" spans="1:8" ht="15.75">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+    </row>
+    <row r="179" spans="1:8" ht="15.75">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.75">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+    </row>
+    <row r="181" spans="1:8" ht="15.75">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+    </row>
+    <row r="182" spans="1:8" ht="15.75">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+    </row>
+    <row r="183" spans="1:8" ht="15.75">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+    </row>
+    <row r="184" spans="1:8" ht="15.75">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+    </row>
+    <row r="185" spans="1:8" ht="15.75">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+    </row>
+    <row r="186" spans="1:8" ht="15.75">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+    </row>
+    <row r="187" spans="1:8" ht="15.75">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+    </row>
+    <row r="188" spans="1:8" ht="15.75">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+    </row>
+    <row r="189" spans="1:8" ht="15.75">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+    </row>
+    <row r="190" spans="1:8" ht="15.75">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+    </row>
+    <row r="191" spans="1:8" ht="15.75">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+    </row>
+    <row r="192" spans="1:8" ht="15.75">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+    </row>
+    <row r="193" spans="1:12" ht="15.75">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+    </row>
+    <row r="194" spans="1:12" ht="15.75">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+    </row>
+    <row r="195" spans="1:12" ht="15.75">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="8"/>
+      <c r="L195" s="8"/>
+    </row>
+    <row r="196" spans="1:12" ht="15.75">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="8"/>
+      <c r="L196" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I195:I1048576 I1:I155">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75402EA1-ACDA-4886-BF78-05C1CDDE3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246FAA33-9D51-44DA-A5EE-472E94C85C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="780">
   <si>
     <t>ZJ</t>
   </si>
@@ -2522,7 +2522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2552,16 +2552,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3138,8 +3132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L155" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="A1:L155" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L154" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:L154" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L116">
     <sortCondition ref="E1:E116"/>
   </sortState>
@@ -3512,10 +3506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7561,18 +7555,18 @@
       <c r="L116" s="6"/>
     </row>
     <row r="117" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15" t="s">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="16"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="14"/>
       <c r="I117" s="7" t="s">
         <v>553</v>
       </c>
@@ -7584,880 +7578,869 @@
       <c r="L117" s="8"/>
     </row>
     <row r="118" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A118" s="13"/>
-      <c r="B118" s="15" t="s">
+      <c r="A118" s="4"/>
+      <c r="B118" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="8"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="7">
+        <v>617239</v>
+      </c>
       <c r="J118" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B118,",",E118," ",C118)</f>
-        <v>,,?, Unknown</v>
+        <v>617239,,?, Unknown</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
     </row>
     <row r="119" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A119" s="13"/>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="4"/>
+      <c r="B119" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="7">
-        <v>617239</v>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="J119" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B119,",",E119," ",C119)</f>
-        <v>617239,,?, Unknown</v>
+        <v>D214B1,,?, Unknown</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
     </row>
     <row r="120" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A120" s="13"/>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="4"/>
+      <c r="B120" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="14"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="13"/>
       <c r="I120" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J120" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B120,",",E120," ",C120)</f>
-        <v>D214B1,,?, Unknown</v>
+        <v>C5AFCC,,?, Unknown</v>
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
     </row>
     <row r="121" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A121" s="13"/>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="4"/>
+      <c r="B121" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="14"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="13"/>
       <c r="I121" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J121" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B121,",",E121," ",C121)</f>
-        <v>C5AFCC,,?, Unknown</v>
+        <v>109C4C,,?, Unknown</v>
       </c>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
     </row>
     <row r="122" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A122" s="13"/>
-      <c r="B122" s="15" t="s">
+      <c r="A122" s="4"/>
+      <c r="B122" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="13"/>
       <c r="I122" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J122" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B122,",",E122," ",C122)</f>
-        <v>109C4C,,?, Unknown</v>
+        <v>C2A4CE,,?, Unknown</v>
       </c>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
     </row>
     <row r="123" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A123" s="13"/>
-      <c r="B123" s="15" t="s">
+      <c r="A123" s="4"/>
+      <c r="B123" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="14"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="13"/>
       <c r="I123" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J123" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B123,",",E123," ",C123)</f>
-        <v>C2A4CE,,?, Unknown</v>
+        <v>05FF9A,,?, Unknown</v>
       </c>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
     </row>
     <row r="124" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A124" s="13"/>
-      <c r="B124" s="15" t="s">
+      <c r="A124" s="4"/>
+      <c r="B124" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="14"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="13"/>
       <c r="I124" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J124" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B124,",",E124," ",C124)</f>
-        <v>05FF9A,,?, Unknown</v>
+        <v>0BF591,,?, Unknown</v>
       </c>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
     </row>
     <row r="125" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A125" s="13"/>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="4"/>
+      <c r="B125" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="14"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="13"/>
       <c r="I125" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J125" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B125,",",E125," ",C125)</f>
-        <v>0BF591,,?, Unknown</v>
+        <v>4A542F,,?, Unknown</v>
       </c>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
     </row>
     <row r="126" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A126" s="13"/>
-      <c r="B126" s="15" t="s">
+      <c r="A126" s="4"/>
+      <c r="B126" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="14"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="13"/>
       <c r="I126" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J126" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B126,",",E126," ",C126)</f>
-        <v>4A542F,,?, Unknown</v>
+        <v>462FD9,,?, Unknown</v>
       </c>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
     </row>
     <row r="127" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A127" s="13"/>
-      <c r="B127" s="15" t="s">
+      <c r="A127" s="4"/>
+      <c r="B127" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="14"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="13"/>
       <c r="I127" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J127" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B127,",",E127," ",C127)</f>
-        <v>462FD9,,?, Unknown</v>
+        <v>11954C,,?, Unknown</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
     </row>
     <row r="128" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A128" s="13"/>
-      <c r="B128" s="15" t="s">
+      <c r="A128" s="4"/>
+      <c r="B128" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="14"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="13"/>
       <c r="I128" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J128" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B128,",",E128," ",C128)</f>
-        <v>11954C,,?, Unknown</v>
+        <v>593CC0,,?, Unknown</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
     </row>
     <row r="129" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A129" s="13"/>
-      <c r="B129" s="15" t="s">
+      <c r="A129" s="4"/>
+      <c r="B129" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="14"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="13"/>
       <c r="I129" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J129" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B129,",",E129," ",C129)</f>
-        <v>593CC0,,?, Unknown</v>
+        <v>65723C,,?, Unknown</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
     </row>
     <row r="130" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15" t="s">
+      <c r="A130" s="4"/>
+      <c r="B130" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="14"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="13"/>
       <c r="I130" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J130" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B130,",",E130," ",C130)</f>
-        <v>65723C,,?, Unknown</v>
+        <v>0AF490,,?, Unknown</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
     </row>
     <row r="131" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A131" s="13"/>
-      <c r="B131" s="15" t="s">
+      <c r="A131" s="4"/>
+      <c r="B131" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="14"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="13"/>
       <c r="I131" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J131" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B131,",",E131," ",C131)</f>
-        <v>0AF490,,?, Unknown</v>
+        <v>D9B7D1,,?, Unknown</v>
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
     </row>
     <row r="132" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A132" s="13"/>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="4"/>
+      <c r="B132" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="14"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="13"/>
       <c r="I132" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J132" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B132,",",E132," ",C132)</f>
-        <v>D9B7D1,,?, Unknown</v>
+        <v>DF15BF,,?, Unknown</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
     </row>
     <row r="133" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A133" s="13"/>
-      <c r="B133" s="15" t="s">
+      <c r="A133" s="4"/>
+      <c r="B133" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="14"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="13"/>
       <c r="I133" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J133" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B133,",",E133," ",C133)</f>
-        <v>DF15BF,,?, Unknown</v>
+        <v>4726D8,,?, Unknown</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
     </row>
     <row r="134" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A134" s="13"/>
-      <c r="B134" s="15" t="s">
+      <c r="A134" s="4"/>
+      <c r="B134" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="14"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="13"/>
       <c r="I134" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J134" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B134,",",E134," ",C134)</f>
-        <v>4726D8,,?, Unknown</v>
+        <v>FA44F7,,?, Unknown</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
     </row>
     <row r="135" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A135" s="13"/>
-      <c r="B135" s="15" t="s">
+      <c r="A135" s="4"/>
+      <c r="B135" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="14"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="13"/>
       <c r="I135" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J135" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B135,",",E135," ",C135)</f>
-        <v>FA44F7,,?, Unknown</v>
+        <v>01FF9D,,?, Unknown</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
     </row>
     <row r="136" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A136" s="13"/>
-      <c r="B136" s="15" t="s">
+      <c r="A136" s="4"/>
+      <c r="B136" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="14"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="13"/>
       <c r="I136" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J136" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B136,",",E136," ",C136)</f>
-        <v>01FF9D,,?, Unknown</v>
+        <v>DBBDD7,,?, Unknown</v>
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
     </row>
     <row r="137" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A137" s="13"/>
-      <c r="B137" s="15" t="s">
+      <c r="A137" s="4"/>
+      <c r="B137" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="14"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="13"/>
       <c r="I137" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J137" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B137,",",E137," ",C137)</f>
-        <v>DBBDD7,,?, Unknown</v>
+        <v>1FE585,,?, Unknown</v>
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
     </row>
     <row r="138" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A138" s="13"/>
-      <c r="B138" s="15" t="s">
+      <c r="A138" s="4"/>
+      <c r="B138" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="14"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="13"/>
       <c r="I138" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J138" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B138,",",E138," ",C138)</f>
-        <v>1FE585,,?, Unknown</v>
+        <v>00845F,,?, Unknown</v>
       </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
     </row>
     <row r="139" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A139" s="13"/>
-      <c r="B139" s="15" t="s">
+      <c r="A139" s="4"/>
+      <c r="B139" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="14"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="13"/>
       <c r="I139" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J139" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B139,",",E139," ",C139)</f>
-        <v>00845F,,?, Unknown</v>
+        <v>72692F,,?, Unknown</v>
       </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
     </row>
     <row r="140" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A140" s="13"/>
-      <c r="B140" s="15" t="s">
+      <c r="A140" s="4"/>
+      <c r="B140" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="14"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="13"/>
       <c r="I140" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J140" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B140,",",E140," ",C140)</f>
-        <v>72692F,,?, Unknown</v>
+        <v>1C9442,,?, Unknown</v>
       </c>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
     </row>
     <row r="141" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A141" s="13"/>
-      <c r="B141" s="15" t="s">
+      <c r="A141" s="4"/>
+      <c r="B141" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="14"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="13"/>
       <c r="I141" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J141" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B141,",",E141," ",C141)</f>
-        <v>1C9442,,?, Unknown</v>
+        <v>1AE480,,?, Unknown</v>
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
     </row>
     <row r="142" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A142" s="13"/>
-      <c r="B142" s="15" t="s">
+      <c r="A142" s="4"/>
+      <c r="B142" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="14"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="13"/>
       <c r="I142" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J142" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B142,",",E142," ",C142)</f>
-        <v>1AE480,,?, Unknown</v>
+        <v>07875F,,?, Unknown</v>
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
     </row>
     <row r="143" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A143" s="13"/>
-      <c r="B143" s="15" t="s">
+      <c r="A143" s="4"/>
+      <c r="B143" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="14"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="13"/>
       <c r="I143" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J143" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B143,",",E143," ",C143)</f>
-        <v>07875F,,?, Unknown</v>
+        <v>593CC3,,?, Unknown</v>
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
     </row>
     <row r="144" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A144" s="13"/>
-      <c r="B144" s="15" t="s">
+      <c r="A144" s="4"/>
+      <c r="B144" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="14"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="13"/>
       <c r="I144" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J144" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B144,",",E144," ",C144)</f>
-        <v>593CC3,,?, Unknown</v>
+        <v>4524DD,,?, Unknown</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
     </row>
     <row r="145" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A145" s="13"/>
-      <c r="B145" s="15" t="s">
+      <c r="A145" s="4"/>
+      <c r="B145" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="14"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="13"/>
       <c r="I145" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J145" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B145,",",E145," ",C145)</f>
-        <v>4524DD,,?, Unknown</v>
+        <v>4A2FD7,,?, Unknown</v>
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
     </row>
     <row r="146" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A146" s="13"/>
-      <c r="B146" s="15" t="s">
+      <c r="A146" s="4"/>
+      <c r="B146" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="14"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="13"/>
       <c r="I146" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J146" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B146,",",E146," ",C146)</f>
-        <v>4A2FD7,,?, Unknown</v>
+        <v>583DC0,,?, Unknown</v>
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
     </row>
     <row r="147" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A147" s="13"/>
-      <c r="B147" s="15" t="s">
+      <c r="A147" s="4"/>
+      <c r="B147" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="14"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="13"/>
       <c r="I147" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J147" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B147,",",E147," ",C147)</f>
-        <v>583DC0,,?, Unknown</v>
+        <v>4726D9,,?, Unknown</v>
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
     </row>
     <row r="148" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A148" s="13"/>
-      <c r="B148" s="15" t="s">
+      <c r="A148" s="4"/>
+      <c r="B148" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="14"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="13"/>
       <c r="I148" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J148" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B148,",",E148," ",C148)</f>
-        <v>4726D9,,?, Unknown</v>
+        <v>4D5F2E,,?, Unknown</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
     </row>
     <row r="149" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A149" s="13"/>
-      <c r="B149" s="15" t="s">
+      <c r="A149" s="4"/>
+      <c r="B149" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="14"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="13"/>
       <c r="I149" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J149" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B149,",",E149," ",C149)</f>
-        <v>4D5F2E,,?, Unknown</v>
+        <v>0EFC96,,?, Unknown</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
     </row>
     <row r="150" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A150" s="13"/>
-      <c r="B150" s="15" t="s">
+      <c r="A150" s="4"/>
+      <c r="B150" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="7" t="s">
-        <v>587</v>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="7">
+        <v>524435</v>
       </c>
       <c r="J150" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B150,",",E150," ",C150)</f>
-        <v>0EFC96,,?, Unknown</v>
+        <v>524435,,?, Unknown</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
     </row>
     <row r="151" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A151" s="13"/>
-      <c r="B151" s="15" t="s">
+      <c r="A151" s="4"/>
+      <c r="B151" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="7">
-        <v>524435</v>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="7" t="s">
+        <v>601</v>
       </c>
       <c r="J151" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B151,",",E151," ",C151)</f>
-        <v>524435,,?, Unknown</v>
+        <v>D018D8,,?, Unknown</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
     </row>
     <row r="152" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A152" s="13"/>
-      <c r="B152" s="15" t="s">
+      <c r="A152" s="4"/>
+      <c r="B152" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="14"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="13"/>
       <c r="I152" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="J152" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B152,",",E152," ",C152)</f>
-        <v>D018D8,,?, Unknown</v>
+        <v>D01CCE,,?, Unknown</v>
       </c>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
     </row>
     <row r="153" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A153" s="13"/>
-      <c r="B153" s="15" t="s">
+      <c r="A153" s="4"/>
+      <c r="B153" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="14"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="13"/>
       <c r="I153" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="J153" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B153,",",E153," ",C153)</f>
-        <v>D01CCE,,?, Unknown</v>
+        <v>CDCDCD,,?, Unknown</v>
       </c>
       <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
+      <c r="L153" s="8" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="154" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A154" s="13"/>
-      <c r="B154" s="15" t="s">
+      <c r="A154" s="4"/>
+      <c r="B154" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="14"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="13"/>
       <c r="I154" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="J154" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B154,",",E154," ",C154)</f>
-        <v>CDCDCD,,?, Unknown</v>
+        <v>DDF0F9,,?, Unknown</v>
       </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A155" s="13"/>
-      <c r="B155" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>779</v>
-      </c>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="J155" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B155,",",E155," ",C155)</f>
-        <v>DDF0F9,,?, Unknown</v>
-      </c>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8" t="s">
         <v>621</v>
       </c>
+    </row>
+    <row r="155" spans="1:12" ht="15.75">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156" spans="1:12" ht="15.75">
       <c r="A156" s="8"/>
@@ -8848,6 +8831,10 @@
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="8"/>
     </row>
     <row r="195" spans="1:12" ht="15.75">
       <c r="A195" s="8"/>
@@ -8859,30 +8846,16 @@
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
       <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
+      <c r="J195" s="8"/>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
     </row>
-    <row r="196" spans="1:12" ht="15.75">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I195:I1048576 I1:I155">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="I194:I1048576 I1:I154">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246FAA33-9D51-44DA-A5EE-472E94C85C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC02001-5378-4C84-80EB-B2FD227B1CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="779">
   <si>
     <t>ZJ</t>
   </si>
@@ -1901,9 +1901,6 @@
   </si>
   <si>
     <t>DDF0F9</t>
-  </si>
-  <si>
-    <t>PH-1475 [PLZ], ASH-25 MI</t>
   </si>
   <si>
     <t>D02D23</t>
@@ -2522,7 +2519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2558,6 +2555,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3132,8 +3130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L154" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="A1:L154" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L153" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:L153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L116">
     <sortCondition ref="E1:E116"/>
   </sortState>
@@ -3506,10 +3504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3658,7 +3656,7 @@
         <v>164</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>592</v>
@@ -3693,7 +3691,7 @@
         <v>164</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>455</v>
@@ -3728,7 +3726,7 @@
         <v>356</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>616</v>
@@ -3763,10 +3761,10 @@
         <v>357</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J7" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B7,",",E7," ",C7)</f>
@@ -3798,7 +3796,7 @@
         <v>201</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>590</v>
@@ -3833,7 +3831,7 @@
         <v>164</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I9" s="9">
         <v>440326</v>
@@ -3868,7 +3866,7 @@
         <v>345</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>615</v>
@@ -3969,7 +3967,7 @@
         <v>164</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>591</v>
@@ -4004,7 +4002,7 @@
         <v>158</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>449</v>
@@ -4041,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>619</v>
@@ -4076,10 +4074,10 @@
         <v>380</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J16" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B16,",",E16," ",C16)</f>
@@ -4181,7 +4179,7 @@
         <v>164</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>450</v>
@@ -4216,10 +4214,10 @@
         <v>164</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J20" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B20,",",E20," ",C20)</f>
@@ -4251,7 +4249,7 @@
         <v>364</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>618</v>
@@ -4286,10 +4284,10 @@
         <v>367</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J22" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B22,",",E22," ",C22)</f>
@@ -4321,10 +4319,10 @@
         <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J23" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B23,",",E23," ",C23)</f>
@@ -4338,7 +4336,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
@@ -4356,10 +4354,10 @@
         <v>384</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J24" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B24,",",E24," ",C24)</f>
@@ -4461,7 +4459,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>617</v>
@@ -4562,7 +4560,7 @@
         <v>164</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>437</v>
@@ -4594,10 +4592,10 @@
         <v>328</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="str">
@@ -4630,7 +4628,7 @@
         <v>164</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>461</v>
@@ -4665,10 +4663,10 @@
         <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J33" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B33,",",E33," ",C33)</f>
@@ -4700,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="str">
@@ -4715,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>89</v>
@@ -4750,7 +4748,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>65</v>
@@ -4771,7 +4769,7 @@
         <v>426</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J36" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B36,",",E36," ",C36)</f>
@@ -4785,7 +4783,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>192</v>
@@ -4803,7 +4801,7 @@
         <v>304</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>604</v>
@@ -4820,7 +4818,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>202</v>
@@ -4838,7 +4836,7 @@
         <v>304</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>606</v>
@@ -4855,7 +4853,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>324</v>
@@ -4873,7 +4871,7 @@
         <v>325</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>600</v>
@@ -4890,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>358</v>
@@ -4908,10 +4906,10 @@
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J40" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B40,",",E40," ",C40)</f>
@@ -4925,7 +4923,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
@@ -4943,10 +4941,10 @@
         <v>4</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J41" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B41,",",E41," ",C41)</f>
@@ -5046,7 +5044,7 @@
         <v>164</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>442</v>
@@ -5081,7 +5079,7 @@
         <v>304</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>595</v>
@@ -5118,10 +5116,10 @@
         <v>4</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J46" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B46,",",E46," ",C46)</f>
@@ -5153,10 +5151,10 @@
         <v>52</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J47" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B47,",",E47," ",C47)</f>
@@ -5226,7 +5224,7 @@
         <v>426</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J49" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B49,",",E49," ",C49)</f>
@@ -5291,7 +5289,7 @@
         <v>180</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>453</v>
@@ -5326,7 +5324,7 @@
         <v>332</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>598</v>
@@ -5361,10 +5359,10 @@
         <v>368</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J53" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B53,",",E53," ",C53)</f>
@@ -5396,10 +5394,10 @@
         <v>35</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J54" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B54,",",E54," ",C54)</f>
@@ -5477,7 +5475,7 @@
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="32.25" thickBot="1">
@@ -5538,7 +5536,7 @@
         <v>310</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>476</v>
@@ -5573,7 +5571,7 @@
         <v>158</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>599</v>
@@ -5608,10 +5606,10 @@
         <v>4</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J60" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B60,",",E60," ",C60)</f>
@@ -5641,7 +5639,7 @@
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="10" t="str">
@@ -5744,7 +5742,7 @@
         <v>164</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>531</v>
@@ -5779,7 +5777,7 @@
         <v>158</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>602</v>
@@ -5814,10 +5812,10 @@
         <v>8</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J66" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B66,",",E66," ",C66)</f>
@@ -5849,10 +5847,10 @@
         <v>4</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J67" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B67,",",E67," ",C67)</f>
@@ -5957,7 +5955,7 @@
         <v>426</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J70" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B70,",",E70," ",C70)</f>
@@ -6024,7 +6022,7 @@
         <v>158</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>603</v>
@@ -6059,7 +6057,7 @@
         <v>158</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>479</v>
@@ -6094,7 +6092,7 @@
         <v>15</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10" t="str">
@@ -6127,10 +6125,10 @@
         <v>8</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J75" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B75,",",E75," ",C75)</f>
@@ -6162,7 +6160,7 @@
         <v>164</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>605</v>
@@ -6197,7 +6195,7 @@
         <v>164</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>607</v>
@@ -6302,7 +6300,7 @@
         <v>158</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10" t="str">
@@ -6335,7 +6333,7 @@
         <v>158</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>477</v>
@@ -6370,7 +6368,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10" t="str">
@@ -6403,7 +6401,7 @@
         <v>368</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>534</v>
@@ -6508,7 +6506,7 @@
         <v>164</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>472</v>
@@ -6543,7 +6541,7 @@
         <v>164</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>610</v>
@@ -6578,7 +6576,7 @@
         <v>18</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10" t="str">
@@ -6611,7 +6609,7 @@
         <v>377</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>533</v>
@@ -6716,7 +6714,7 @@
         <v>334</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>611</v>
@@ -6751,7 +6749,7 @@
         <v>340</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>608</v>
@@ -6786,14 +6784,14 @@
         <v>368</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>629</v>
+        <v>775</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>620</v>
       </c>
       <c r="J94" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B94,",",E94," ",C94)</f>
-        <v>D00C86,,MM,🇳🇱 Peter Millenaar</v>
+        <v>DDF0F9,,MM,🇳🇱 Peter Millenaar</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -6821,10 +6819,10 @@
         <v>391</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J95" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B95,",",E95," ",C95)</f>
@@ -6961,7 +6959,7 @@
         <v>304</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10" t="str">
@@ -6994,7 +6992,7 @@
         <v>158</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>612</v>
@@ -7029,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10" t="str">
@@ -7062,7 +7060,7 @@
         <v>394</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I102" s="9">
         <v>101211</v>
@@ -7142,7 +7140,7 @@
         <v>D00C74,,Y2,🇷🇴 Alin Simion</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L104" s="4"/>
     </row>
@@ -7169,7 +7167,7 @@
         <v>158</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10" t="str">
@@ -7202,7 +7200,7 @@
         <v>158</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10" t="str">
@@ -7235,7 +7233,7 @@
         <v>164</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>467</v>
@@ -7369,7 +7367,7 @@
         <v>308</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>438</v>
@@ -7404,7 +7402,7 @@
         <v>352</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="10" t="str">
@@ -7507,10 +7505,10 @@
         <v>4</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J115" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B115,",",E115," ",C115)</f>
@@ -7542,10 +7540,10 @@
         <v>8</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J116" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B116,",",E116," ",C116)</f>
@@ -7557,16 +7555,18 @@
     <row r="117" spans="1:12" ht="16.5" thickBot="1">
       <c r="A117" s="6"/>
       <c r="B117" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
-      <c r="H117" s="14"/>
+      <c r="H117" s="14" t="s">
+        <v>426</v>
+      </c>
       <c r="I117" s="7" t="s">
         <v>553</v>
       </c>
@@ -7580,10 +7580,10 @@
     <row r="118" spans="1:12" ht="16.5" thickBot="1">
       <c r="A118" s="4"/>
       <c r="B118" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -7603,10 +7603,10 @@
     <row r="119" spans="1:12" ht="16.5" thickBot="1">
       <c r="A119" s="4"/>
       <c r="B119" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -7626,10 +7626,10 @@
     <row r="120" spans="1:12" ht="16.5" thickBot="1">
       <c r="A120" s="4"/>
       <c r="B120" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -7649,10 +7649,10 @@
     <row r="121" spans="1:12" ht="16.5" thickBot="1">
       <c r="A121" s="4"/>
       <c r="B121" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -7672,10 +7672,10 @@
     <row r="122" spans="1:12" ht="16.5" thickBot="1">
       <c r="A122" s="4"/>
       <c r="B122" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -7695,10 +7695,10 @@
     <row r="123" spans="1:12" ht="16.5" thickBot="1">
       <c r="A123" s="4"/>
       <c r="B123" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -7718,10 +7718,10 @@
     <row r="124" spans="1:12" ht="16.5" thickBot="1">
       <c r="A124" s="4"/>
       <c r="B124" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -7741,10 +7741,10 @@
     <row r="125" spans="1:12" ht="16.5" thickBot="1">
       <c r="A125" s="4"/>
       <c r="B125" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -7764,10 +7764,10 @@
     <row r="126" spans="1:12" ht="16.5" thickBot="1">
       <c r="A126" s="4"/>
       <c r="B126" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -7787,10 +7787,10 @@
     <row r="127" spans="1:12" ht="16.5" thickBot="1">
       <c r="A127" s="4"/>
       <c r="B127" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -7810,10 +7810,10 @@
     <row r="128" spans="1:12" ht="16.5" thickBot="1">
       <c r="A128" s="4"/>
       <c r="B128" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -7833,10 +7833,10 @@
     <row r="129" spans="1:12" ht="16.5" thickBot="1">
       <c r="A129" s="4"/>
       <c r="B129" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -7856,10 +7856,10 @@
     <row r="130" spans="1:12" ht="16.5" thickBot="1">
       <c r="A130" s="4"/>
       <c r="B130" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -7879,10 +7879,10 @@
     <row r="131" spans="1:12" ht="16.5" thickBot="1">
       <c r="A131" s="4"/>
       <c r="B131" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -7902,10 +7902,10 @@
     <row r="132" spans="1:12" ht="16.5" thickBot="1">
       <c r="A132" s="4"/>
       <c r="B132" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -7925,10 +7925,10 @@
     <row r="133" spans="1:12" ht="16.5" thickBot="1">
       <c r="A133" s="4"/>
       <c r="B133" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -7948,10 +7948,10 @@
     <row r="134" spans="1:12" ht="16.5" thickBot="1">
       <c r="A134" s="4"/>
       <c r="B134" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -7971,10 +7971,10 @@
     <row r="135" spans="1:12" ht="16.5" thickBot="1">
       <c r="A135" s="4"/>
       <c r="B135" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -7994,10 +7994,10 @@
     <row r="136" spans="1:12" ht="16.5" thickBot="1">
       <c r="A136" s="4"/>
       <c r="B136" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -8017,10 +8017,10 @@
     <row r="137" spans="1:12" ht="16.5" thickBot="1">
       <c r="A137" s="4"/>
       <c r="B137" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -8040,10 +8040,10 @@
     <row r="138" spans="1:12" ht="16.5" thickBot="1">
       <c r="A138" s="4"/>
       <c r="B138" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -8063,10 +8063,10 @@
     <row r="139" spans="1:12" ht="16.5" thickBot="1">
       <c r="A139" s="4"/>
       <c r="B139" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -8086,10 +8086,10 @@
     <row r="140" spans="1:12" ht="16.5" thickBot="1">
       <c r="A140" s="4"/>
       <c r="B140" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -8109,10 +8109,10 @@
     <row r="141" spans="1:12" ht="16.5" thickBot="1">
       <c r="A141" s="4"/>
       <c r="B141" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -8132,10 +8132,10 @@
     <row r="142" spans="1:12" ht="16.5" thickBot="1">
       <c r="A142" s="4"/>
       <c r="B142" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -8155,10 +8155,10 @@
     <row r="143" spans="1:12" ht="16.5" thickBot="1">
       <c r="A143" s="4"/>
       <c r="B143" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -8178,10 +8178,10 @@
     <row r="144" spans="1:12" ht="16.5" thickBot="1">
       <c r="A144" s="4"/>
       <c r="B144" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -8201,10 +8201,10 @@
     <row r="145" spans="1:12" ht="16.5" thickBot="1">
       <c r="A145" s="4"/>
       <c r="B145" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -8224,10 +8224,10 @@
     <row r="146" spans="1:12" ht="16.5" thickBot="1">
       <c r="A146" s="4"/>
       <c r="B146" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -8247,10 +8247,10 @@
     <row r="147" spans="1:12" ht="16.5" thickBot="1">
       <c r="A147" s="4"/>
       <c r="B147" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -8270,10 +8270,10 @@
     <row r="148" spans="1:12" ht="16.5" thickBot="1">
       <c r="A148" s="4"/>
       <c r="B148" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -8293,10 +8293,10 @@
     <row r="149" spans="1:12" ht="16.5" thickBot="1">
       <c r="A149" s="4"/>
       <c r="B149" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -8316,10 +8316,10 @@
     <row r="150" spans="1:12" ht="16.5" thickBot="1">
       <c r="A150" s="4"/>
       <c r="B150" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -8339,16 +8339,18 @@
     <row r="151" spans="1:12" ht="16.5" thickBot="1">
       <c r="A151" s="4"/>
       <c r="B151" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="13"/>
+      <c r="H151" s="13" t="s">
+        <v>774</v>
+      </c>
       <c r="I151" s="7" t="s">
         <v>601</v>
       </c>
@@ -8362,16 +8364,18 @@
     <row r="152" spans="1:12" ht="16.5" thickBot="1">
       <c r="A152" s="4"/>
       <c r="B152" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="13"/>
+      <c r="H152" s="13" t="s">
+        <v>774</v>
+      </c>
       <c r="I152" s="7" t="s">
         <v>609</v>
       </c>
@@ -8385,10 +8389,10 @@
     <row r="153" spans="1:12" ht="16.5" thickBot="1">
       <c r="A153" s="4"/>
       <c r="B153" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -8407,30 +8411,15 @@
         <v>614</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A154" s="4"/>
-      <c r="B154" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="J154" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B154,",",E154," ",C154)</f>
-        <v>DDF0F9,,?, Unknown</v>
-      </c>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8" t="s">
-        <v>621</v>
-      </c>
+    <row r="154" spans="1:12" ht="15.75">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="1:12" ht="15.75">
       <c r="A155" s="8"/>
@@ -8821,6 +8810,10 @@
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="8"/>
+      <c r="L193" s="8"/>
     </row>
     <row r="194" spans="1:12" ht="15.75">
       <c r="A194" s="8"/>
@@ -8832,29 +8825,15 @@
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
       <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
+      <c r="J194" s="8"/>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
-    </row>
-    <row r="195" spans="1:12" ht="15.75">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="8"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I69">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I194:I1048576 I1:I154">
+  <conditionalFormatting sqref="I193:I1048576 I1:I153">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9692,7 +9671,7 @@
         <v>525</v>
       </c>
       <c r="B36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E36" t="s">
         <v>426</v>
@@ -9704,7 +9683,7 @@
         <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="0"/>
@@ -9725,10 +9704,10 @@
         <v>401</v>
       </c>
       <c r="G37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="0"/>
@@ -9740,19 +9719,19 @@
         <v>525</v>
       </c>
       <c r="B38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E38" t="s">
         <v>426</v>
       </c>
       <c r="F38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G38" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
@@ -9797,7 +9776,7 @@
         <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H40" t="s">
         <v>540</v>
@@ -9812,7 +9791,7 @@
         <v>525</v>
       </c>
       <c r="B41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E41" t="s">
         <v>426</v>
@@ -9821,10 +9800,10 @@
         <v>414</v>
       </c>
       <c r="G41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="0"/>
@@ -9845,10 +9824,10 @@
         <v>398</v>
       </c>
       <c r="G42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="0"/>
@@ -9872,7 +9851,7 @@
         <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="0"/>
@@ -9893,10 +9872,10 @@
         <v>411</v>
       </c>
       <c r="G44" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H44" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" ref="U44:U49" si="1">LEFT(P44,2)</f>
@@ -9908,7 +9887,7 @@
         <v>525</v>
       </c>
       <c r="B45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E45" t="s">
         <v>426</v>
@@ -9917,10 +9896,10 @@
         <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="1"/>
@@ -9944,7 +9923,7 @@
         <v>194</v>
       </c>
       <c r="H46" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="1"/>
@@ -9965,10 +9944,10 @@
         <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="1"/>
@@ -10004,7 +9983,7 @@
         <v>525</v>
       </c>
       <c r="B49" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E49" t="s">
         <v>426</v>
@@ -10016,7 +9995,7 @@
         <v>248</v>
       </c>
       <c r="H49" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="1"/>
@@ -10037,10 +10016,10 @@
         <v>403</v>
       </c>
       <c r="G50" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H50" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -10080,7 +10059,7 @@
         <v>262</v>
       </c>
       <c r="H52" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -10088,7 +10067,7 @@
         <v>525</v>
       </c>
       <c r="B53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E53" t="s">
         <v>426</v>
@@ -10097,10 +10076,10 @@
         <v>406</v>
       </c>
       <c r="G53" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -10108,7 +10087,7 @@
         <v>525</v>
       </c>
       <c r="B54" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E54" t="s">
         <v>426</v>
@@ -10117,10 +10096,10 @@
         <v>411</v>
       </c>
       <c r="G54" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H54" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -10128,7 +10107,7 @@
         <v>525</v>
       </c>
       <c r="B55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E55" t="s">
         <v>426</v>
@@ -10137,10 +10116,10 @@
         <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H55" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -10168,7 +10147,7 @@
         <v>525</v>
       </c>
       <c r="B57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E57" t="s">
         <v>426</v>
@@ -10177,10 +10156,10 @@
         <v>409</v>
       </c>
       <c r="G57" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H57" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -10188,19 +10167,19 @@
         <v>525</v>
       </c>
       <c r="B58" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E58" t="s">
         <v>426</v>
       </c>
       <c r="F58" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G58" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -10237,10 +10216,10 @@
         <v>419</v>
       </c>
       <c r="G60" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H60" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -10257,7 +10236,7 @@
         <v>412</v>
       </c>
       <c r="G61" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H61" t="s">
         <v>532</v>
@@ -10268,7 +10247,7 @@
         <v>525</v>
       </c>
       <c r="B62" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E62" t="s">
         <v>426</v>
@@ -10277,10 +10256,10 @@
         <v>419</v>
       </c>
       <c r="G62" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H62" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -10300,7 +10279,7 @@
         <v>216</v>
       </c>
       <c r="H63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -10308,19 +10287,19 @@
         <v>525</v>
       </c>
       <c r="B64" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E64" t="s">
         <v>426</v>
       </c>
       <c r="F64" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G64" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H64" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -10357,10 +10336,10 @@
         <v>408</v>
       </c>
       <c r="G66" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H66" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -10377,7 +10356,7 @@
         <v>407</v>
       </c>
       <c r="G67" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H67" t="s">
         <v>550</v>
@@ -10397,10 +10376,10 @@
         <v>408</v>
       </c>
       <c r="G68" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H68" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -10420,7 +10399,7 @@
         <v>104</v>
       </c>
       <c r="H69" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -10428,7 +10407,7 @@
         <v>525</v>
       </c>
       <c r="B70" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E70" t="s">
         <v>426</v>
@@ -10440,7 +10419,7 @@
         <v>34</v>
       </c>
       <c r="H70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -10457,10 +10436,10 @@
         <v>402</v>
       </c>
       <c r="G71" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H71" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -10477,7 +10456,7 @@
         <v>396</v>
       </c>
       <c r="G72" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H72" t="s">
         <v>548</v>
@@ -10500,7 +10479,7 @@
         <v>112</v>
       </c>
       <c r="H73" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -10517,7 +10496,7 @@
         <v>404</v>
       </c>
       <c r="G74" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H74" t="s">
         <v>537</v>
@@ -10540,7 +10519,7 @@
         <v>301</v>
       </c>
       <c r="H75" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -10548,10 +10527,10 @@
         <v>525</v>
       </c>
       <c r="B76" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E76" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F76" t="s">
         <v>417</v>
@@ -10560,7 +10539,7 @@
         <v>63</v>
       </c>
       <c r="H76" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -10571,7 +10550,7 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F77" t="s">
         <v>398</v>
@@ -10580,7 +10559,7 @@
         <v>79</v>
       </c>
       <c r="H77" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -10588,10 +10567,10 @@
         <v>525</v>
       </c>
       <c r="B78" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F78" t="s">
         <v>399</v>
@@ -10600,7 +10579,7 @@
         <v>187</v>
       </c>
       <c r="H78" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -10608,19 +10587,19 @@
         <v>525</v>
       </c>
       <c r="B79" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E79" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F79" t="s">
         <v>419</v>
       </c>
       <c r="G79" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H79" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -10628,19 +10607,19 @@
         <v>525</v>
       </c>
       <c r="B80" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E80" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F80" t="s">
         <v>407</v>
       </c>
       <c r="G80" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H80" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -10648,19 +10627,19 @@
         <v>525</v>
       </c>
       <c r="B81" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E81" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F81" t="s">
         <v>401</v>
       </c>
       <c r="G81" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H81" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -10671,7 +10650,7 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F82" t="s">
         <v>411</v>
@@ -10680,7 +10659,7 @@
         <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -10688,19 +10667,19 @@
         <v>525</v>
       </c>
       <c r="B83" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E83" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F83" t="s">
         <v>399</v>
       </c>
       <c r="G83" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H83" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -10708,19 +10687,19 @@
         <v>525</v>
       </c>
       <c r="B84" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E84" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F84" t="s">
         <v>401</v>
       </c>
       <c r="G84" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -10731,7 +10710,7 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F85" t="s">
         <v>395</v>
@@ -10751,16 +10730,16 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F86" t="s">
         <v>414</v>
       </c>
       <c r="G86" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H86" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -10768,19 +10747,19 @@
         <v>525</v>
       </c>
       <c r="B87" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E87" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F87" t="s">
         <v>413</v>
       </c>
       <c r="G87" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H87" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -10791,7 +10770,7 @@
         <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F88" t="s">
         <v>402</v>
@@ -10808,19 +10787,19 @@
         <v>525</v>
       </c>
       <c r="B89" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E89" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F89" t="s">
         <v>408</v>
       </c>
       <c r="G89" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -10828,19 +10807,19 @@
         <v>525</v>
       </c>
       <c r="B90" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E90" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F90" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G90" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H90" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -10851,16 +10830,16 @@
         <v>77</v>
       </c>
       <c r="E91" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F91" t="s">
         <v>403</v>
       </c>
       <c r="G91" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H91" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -10871,13 +10850,13 @@
         <v>85</v>
       </c>
       <c r="E92" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F92" t="s">
         <v>403</v>
       </c>
       <c r="G92" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H92">
         <v>405763</v>
@@ -10891,7 +10870,7 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F93" t="s">
         <v>406</v>
@@ -10900,7 +10879,7 @@
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -10911,7 +10890,7 @@
         <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F94" t="s">
         <v>420</v>
@@ -10920,7 +10899,7 @@
         <v>44</v>
       </c>
       <c r="H94" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -10931,7 +10910,7 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F95" t="s">
         <v>408</v>
@@ -10940,7 +10919,7 @@
         <v>373</v>
       </c>
       <c r="H95" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -10948,19 +10927,19 @@
         <v>525</v>
       </c>
       <c r="B96" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E96" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F96" t="s">
         <v>398</v>
       </c>
       <c r="G96" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H96" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -10971,7 +10950,7 @@
         <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F97" t="s">
         <v>406</v>
@@ -10980,7 +10959,7 @@
         <v>376</v>
       </c>
       <c r="H97" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -10988,19 +10967,19 @@
         <v>525</v>
       </c>
       <c r="B98" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E98" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F98" t="s">
         <v>409</v>
       </c>
       <c r="G98" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H98" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -11011,16 +10990,16 @@
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F99" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G99" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H99" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -11028,19 +11007,19 @@
         <v>525</v>
       </c>
       <c r="B100" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E100" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F100" t="s">
         <v>402</v>
       </c>
       <c r="G100" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H100" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -11051,7 +11030,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F101" t="s">
         <v>407</v>
@@ -11060,7 +11039,7 @@
         <v>389</v>
       </c>
       <c r="H101" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -11071,16 +11050,16 @@
         <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F102" t="s">
         <v>414</v>
       </c>
       <c r="G102" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H102" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -11088,10 +11067,10 @@
         <v>525</v>
       </c>
       <c r="B103" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E103" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F103" t="s">
         <v>409</v>
@@ -11100,7 +11079,7 @@
         <v>65</v>
       </c>
       <c r="H103" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -11111,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F104" t="s">
         <v>395</v>
@@ -11339,12 +11318,12 @@
     </row>
     <row r="150" spans="8:8" ht="15.75">
       <c r="H150" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151" spans="8:8" ht="15.75">
       <c r="H151" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC02001-5378-4C84-80EB-B2FD227B1CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B190E57-960D-4AF6-B0AB-B2B54CDFC94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
@@ -1933,27 +1933,6 @@
     <t>DDEFD0</t>
   </si>
   <si>
-    <t>🇩🇪SF</t>
-  </si>
-  <si>
-    <t>🇩🇪SN</t>
-  </si>
-  <si>
-    <t>🇩🇪JK</t>
-  </si>
-  <si>
-    <t>🇩🇪GP</t>
-  </si>
-  <si>
-    <t>🇩🇪AR</t>
-  </si>
-  <si>
-    <t>🇩🇪SG</t>
-  </si>
-  <si>
-    <t>🇩🇪L7</t>
-  </si>
-  <si>
     <t>D02953</t>
   </si>
   <si>
@@ -2375,6 +2354,27 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>L7</t>
   </si>
 </sst>
 </file>
@@ -2594,6 +2594,28 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2737,28 +2759,6 @@
           <color rgb="FFDDDDDD"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3145,11 +3145,11 @@
     <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="10"/>
     <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{5F3416CE-966A-4795-9BCA-AA3BD52BEE88}" name="String" dataDxfId="8">
-      <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B2,",",E2," ",C2)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{5F3416CE-966A-4795-9BCA-AA3BD52BEE88}" name="String" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E2," ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{879AB136-C038-4E43-A902-D3E0CE40C33D}" name="Alternative IDs" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{0B702CF2-0F7A-438C-A56F-83AAF71D7A09}" name="Remarks" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{879AB136-C038-4E43-A902-D3E0CE40C33D}" name="Alternative IDs" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{0B702CF2-0F7A-438C-A56F-83AAF71D7A09}" name="Remarks" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3179,9 +3179,9 @@
     <tableColumn id="1" xr3:uid="{2C93214C-6D39-48BD-AAF6-A27D6B9C4E71}" name="Lookup">
       <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3506,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3591,9 +3591,9 @@
       <c r="I2" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="J2" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B2,",",E2," ",C2)</f>
-        <v>D02CE8,,6L,🇦🇷 Javier Gaude</v>
+      <c r="J2" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E2," ",C2)</f>
+        <v>#REF!</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -3626,9 +3626,9 @@
       <c r="I3" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="J3" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B3,",",E3," ",C3)</f>
-        <v>D00158,,IX,🇦🇷 Felipe Girado</v>
+      <c r="J3" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E3," ",C3)</f>
+        <v>#REF!</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3656,14 +3656,14 @@
         <v>164</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="J4" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B4,",",E4," ",C4)</f>
-        <v>D02B97,,W8,🇦🇷 Dino Ghioni</v>
+      <c r="J4" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E4," ",C4)</f>
+        <v>#REF!</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3691,14 +3691,14 @@
         <v>164</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="J5" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B5,",",E5," ",C5)</f>
-        <v>D028C8,,AU,🇦🇷 Bruno Andres Quinteros</v>
+      <c r="J5" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E5," ",C5)</f>
+        <v>#REF!</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3726,14 +3726,14 @@
         <v>356</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="J6" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B6,",",E6," ",C6)</f>
-        <v>D02A46,,FE,🇦🇷 Damian Goldenzweig</v>
+      <c r="J6" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E6," ",C6)</f>
+        <v>#REF!</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3761,14 +3761,14 @@
         <v>357</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B7,",",E7," ",C7)</f>
-        <v>D02953,,EY,🇦🇷 Lucas Goldenzweig</v>
+        <v>631</v>
+      </c>
+      <c r="J7" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E7," ",C7)</f>
+        <v>#REF!</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3796,14 +3796,14 @@
         <v>201</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="J8" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B8,",",E8," ",C8)</f>
-        <v>3E6294,,KN,🇦🇹 Friedrich Hofinger</v>
+      <c r="J8" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E8," ",C8)</f>
+        <v>#REF!</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -3831,14 +3831,14 @@
         <v>164</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I9" s="9">
         <v>440326</v>
       </c>
-      <c r="J9" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B9,",",E9," ",C9)</f>
-        <v>440326,,ZL,🇦🇹 Philipp Wittwer</v>
+      <c r="J9" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E9," ",C9)</f>
+        <v>#REF!</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -3866,14 +3866,14 @@
         <v>345</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="J10" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B10,",",E10," ",C10)</f>
-        <v>DF0EC9,,XK,🇦🇹 Paul Bernhard</v>
+      <c r="J10" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E10," ",C10)</f>
+        <v>#REF!</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -3904,9 +3904,9 @@
         <v>426</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B11,",",E11," ",C11)</f>
-        <v>,,1A,🇦🇺 James Nugent</v>
+      <c r="J11" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E11," ",C11)</f>
+        <v>#REF!</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -3937,9 +3937,9 @@
         <v>426</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B12,",",E12," ",C12)</f>
-        <v>,,RZ,🇦🇺 Daniel Summers</v>
+      <c r="J12" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E12," ",C12)</f>
+        <v>#REF!</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -3967,14 +3967,14 @@
         <v>164</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="J13" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B13,",",E13," ",C13)</f>
-        <v>DDDE35,,SE,🇦🇺 Allan Barnes</v>
+      <c r="J13" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E13," ",C13)</f>
+        <v>#REF!</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -4002,14 +4002,14 @@
         <v>158</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="J14" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B14,",",E14," ",C14)</f>
-        <v>D0016B,,GX,🇦🇺 Adam Woolley</v>
+      <c r="J14" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E14," ",C14)</f>
+        <v>#REF!</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>593</v>
@@ -4039,14 +4039,14 @@
         <v>59</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="J15" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B15,",",E15," ",C15)</f>
-        <v>45ACB8,,EK,🇦🇺 David Jansen</v>
+      <c r="J15" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E15," ",C15)</f>
+        <v>#REF!</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -4074,14 +4074,14 @@
         <v>380</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="J16" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B16,",",E16," ",C16)</f>
-        <v>D021CA,,WX,🇦🇺 Matthew Scutter</v>
+        <v>632</v>
+      </c>
+      <c r="J16" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E16," ",C16)</f>
+        <v>#REF!</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -4114,9 +4114,9 @@
       <c r="I17" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="J17" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B17,",",E17," ",C17)</f>
-        <v>DDAECB,,B4,🇧🇪 Thomas De Bruyn</v>
+      <c r="J17" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E17," ",C17)</f>
+        <v>#REF!</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -4149,9 +4149,9 @@
       <c r="I18" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="J18" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B18,",",E18," ",C18)</f>
-        <v>D02A1A,,FY,🇧🇪 Alexandre Mélot</v>
+      <c r="J18" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E18," ",C18)</f>
+        <v>#REF!</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4179,14 +4179,14 @@
         <v>164</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="J19" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B19,",",E19," ",C19)</f>
-        <v>DDEA4B,,LT,🇧🇪 Jeroen Jennen</v>
+      <c r="J19" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E19," ",C19)</f>
+        <v>#REF!</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -4214,14 +4214,14 @@
         <v>164</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="J20" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B20,",",E20," ",C20)</f>
-        <v>DDDF5F,,5F,🇧🇪 Robin Selfslagh</v>
+        <v>633</v>
+      </c>
+      <c r="J20" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E20," ",C20)</f>
+        <v>#REF!</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -4249,14 +4249,14 @@
         <v>364</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="J21" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B21,",",E21," ",C21)</f>
-        <v>DDEBBE,,LX,🇧🇪 Thomas Leduc</v>
+      <c r="J21" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E21," ",C21)</f>
+        <v>#REF!</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -4284,14 +4284,14 @@
         <v>367</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="J22" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B22,",",E22," ",C22)</f>
-        <v>D00C86,,MMI,🇧🇪 André-Emmanuel Litt</v>
+      <c r="J22" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E22," ",C22)</f>
+        <v>#REF!</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -4319,14 +4319,14 @@
         <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="J23" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B23,",",E23," ",C23)</f>
-        <v>D009BF,,VV,🇧🇷 Henrique Navarro</v>
+        <v>634</v>
+      </c>
+      <c r="J23" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E23," ",C23)</f>
+        <v>#REF!</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -4336,7 +4336,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
@@ -4354,14 +4354,14 @@
         <v>384</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="J24" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B24,",",E24," ",C24)</f>
-        <v>D02D23,,EMI,🇧🇷 Gustavo Shigueno</v>
+      <c r="J24" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E24," ",C24)</f>
+        <v>#REF!</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -4394,9 +4394,9 @@
       <c r="I25" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="J25" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B25,",",E25," ",C25)</f>
-        <v>4B4BD2,,MN,🇨🇭 Simon Gantner</v>
+      <c r="J25" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E25," ",C25)</f>
+        <v>#REF!</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -4429,9 +4429,9 @@
       <c r="I26" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="J26" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B26,",",E26," ",C26)</f>
-        <v>4B5067,,CRN,🇨🇭 Yves Müller</v>
+      <c r="J26" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E26," ",C26)</f>
+        <v>#REF!</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -4459,14 +4459,14 @@
         <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="J27" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B27,",",E27," ",C27)</f>
-        <v>4B4E94,,LR,🇨🇭 Yves Gerster</v>
+      <c r="J27" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E27," ",C27)</f>
+        <v>#REF!</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -4497,9 +4497,9 @@
         <v>426</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B28,",",E28," ",C28)</f>
-        <v>,,A3,🇨🇿 Ivan Harašta</v>
+      <c r="J28" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E28," ",C28)</f>
+        <v>#REF!</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -4530,9 +4530,9 @@
         <v>426</v>
       </c>
       <c r="I29" s="10"/>
-      <c r="J29" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B29,",",E29," ",C29)</f>
-        <v>,,CX,🇨🇿 Tomas Suchanek</v>
+      <c r="J29" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E29," ",C29)</f>
+        <v>#REF!</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -4560,14 +4560,14 @@
         <v>164</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="J30" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B30,",",E30," ",C30)</f>
-        <v>D01CEF,,JB,🇨🇿 Miloslav Cink</v>
+      <c r="J30" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E30," ",C30)</f>
+        <v>#REF!</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -4592,15 +4592,15 @@
         <v>328</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I31" s="10"/>
-      <c r="J31" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B31,",",E31," ",C31)</f>
-        <v>,,EU,🇨🇿 Barbora Moravcová</v>
+      <c r="J31" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E31," ",C31)</f>
+        <v>#REF!</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -4628,14 +4628,14 @@
         <v>164</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="J32" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B32,",",E32," ",C32)</f>
-        <v>D02AE6,,FX,🇨🇿 Jan Pavlík</v>
+      <c r="J32" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E32," ",C32)</f>
+        <v>#REF!</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -4663,14 +4663,14 @@
         <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="J33" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B33,",",E33," ",C33)</f>
-        <v>DDEFB9,,AX,🇨🇿 Karel Novák</v>
+      <c r="J33" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E33," ",C33)</f>
+        <v>#REF!</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -4698,12 +4698,12 @@
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I34" s="10"/>
-      <c r="J34" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B34,",",E34," ",C34)</f>
-        <v>,,ZE,🇨🇿 Pavel Trybenekr</v>
+      <c r="J34" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E34," ",C34)</f>
+        <v>#REF!</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -4713,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>631</v>
+        <v>772</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>89</v>
@@ -4736,9 +4736,9 @@
       <c r="I35" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="J35" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B35,",",E35," ",C35)</f>
-        <v>DF2044,,🇩🇪SF,🇩🇪 Stefan Langer</v>
+      <c r="J35" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E35," ",C35)</f>
+        <v>#REF!</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -4748,7 +4748,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>632</v>
+        <v>773</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>65</v>
@@ -4769,11 +4769,11 @@
         <v>426</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="J36" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B36,",",E36," ",C36)</f>
-        <v>3EEB98,,🇩🇪SN,🇩🇪 Uwe Wahlig</v>
+        <v>766</v>
+      </c>
+      <c r="J36" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E36," ",C36)</f>
+        <v>#REF!</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -4783,7 +4783,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>633</v>
+        <v>774</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>192</v>
@@ -4801,14 +4801,14 @@
         <v>304</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="J37" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B37,",",E37," ",C37)</f>
-        <v>D004BF,,🇩🇪JK,🇩🇪 Jan Kretzschmar</v>
+      <c r="J37" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E37," ",C37)</f>
+        <v>#REF!</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -4818,7 +4818,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>634</v>
+        <v>775</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>202</v>
@@ -4836,14 +4836,14 @@
         <v>304</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="J38" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B38,",",E38," ",C38)</f>
-        <v>DDFA01,,🇩🇪GP,🇩🇪 Philipp Lauer</v>
+      <c r="J38" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E38," ",C38)</f>
+        <v>#REF!</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -4853,7 +4853,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>635</v>
+        <v>776</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>324</v>
@@ -4871,14 +4871,14 @@
         <v>325</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="J39" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B39,",",E39," ",C39)</f>
-        <v>DD8750,,🇩🇪AR,🇩🇪 Max Maslak</v>
+      <c r="J39" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E39," ",C39)</f>
+        <v>#REF!</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -4888,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>636</v>
+        <v>777</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>358</v>
@@ -4906,14 +4906,14 @@
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="J40" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B40,",",E40," ",C40)</f>
-        <v>DF14A3,,🇩🇪SG,🇩🇪 Steffen Göttler</v>
+      <c r="J40" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E40," ",C40)</f>
+        <v>#REF!</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -4923,7 +4923,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>637</v>
+        <v>778</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
@@ -4941,14 +4941,14 @@
         <v>4</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="J41" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B41,",",E41," ",C41)</f>
-        <v>D0103C,,🇩🇪L7,🇩🇪 Steffen Schwarzer</v>
+        <v>636</v>
+      </c>
+      <c r="J41" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E41," ",C41)</f>
+        <v>#REF!</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -4979,9 +4979,9 @@
         <v>426</v>
       </c>
       <c r="I42" s="10"/>
-      <c r="J42" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B42,",",E42," ",C42)</f>
-        <v>,,YC,🇩🇰 Filip Bojanowski</v>
+      <c r="J42" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E42," ",C42)</f>
+        <v>#REF!</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5014,9 +5014,9 @@
       <c r="I43" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J43" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B43,",",E43," ",C43)</f>
-        <v>DDEDF9,,W,🇩🇰 Michael Mix</v>
+      <c r="J43" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E43," ",C43)</f>
+        <v>#REF!</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5044,14 +5044,14 @@
         <v>164</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="J44" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B44,",",E44," ",C44)</f>
-        <v>D025E0,,EC,🇩🇰 Uffe Edslev</v>
+      <c r="J44" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E44," ",C44)</f>
+        <v>#REF!</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5079,14 +5079,14 @@
         <v>304</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="J45" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B45,",",E45," ",C45)</f>
-        <v>D02C3E,,CE,🇩🇰 Lasse Edslev</v>
+      <c r="J45" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E45," ",C45)</f>
+        <v>#REF!</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
@@ -5116,14 +5116,14 @@
         <v>4</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="J46" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B46,",",E46," ",C46)</f>
-        <v>D009CF,,14,🇩🇰 Henrik Breidahl</v>
+        <v>637</v>
+      </c>
+      <c r="J46" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E46," ",C46)</f>
+        <v>#REF!</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5151,14 +5151,14 @@
         <v>52</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="J47" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B47,",",E47," ",C47)</f>
-        <v>45A308,,RJ,🇩🇰 Jonathan Bülow-Olsen</v>
+        <v>638</v>
+      </c>
+      <c r="J47" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E47," ",C47)</f>
+        <v>#REF!</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -5191,9 +5191,9 @@
       <c r="I48" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="J48" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B48,",",E48," ",C48)</f>
-        <v>DF1882,,44,🇪🇸 Jaume Prats</v>
+      <c r="J48" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E48," ",C48)</f>
+        <v>#REF!</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -5224,11 +5224,11 @@
         <v>426</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="J49" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B49,",",E49," ",C49)</f>
-        <v>DDA659,,KT,🇫🇮 Kim Toppari</v>
+        <v>639</v>
+      </c>
+      <c r="J49" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E49," ",C49)</f>
+        <v>#REF!</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -5259,9 +5259,9 @@
         <v>426</v>
       </c>
       <c r="I50" s="10"/>
-      <c r="J50" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B50,",",E50," ",C50)</f>
-        <v>,,GE,🇫🇮 Mikko Ylihärsilä</v>
+      <c r="J50" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E50," ",C50)</f>
+        <v>#REF!</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -5289,14 +5289,14 @@
         <v>180</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="J51" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B51,",",E51," ",C51)</f>
-        <v>D00CB7,,JS,🇫🇮 Antti Koskiniemi</v>
+      <c r="J51" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E51," ",C51)</f>
+        <v>#REF!</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -5324,14 +5324,14 @@
         <v>332</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="J52" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B52,",",E52," ",C52)</f>
-        <v>D00413,,AA,🇫🇮 Kristian Roine</v>
+      <c r="J52" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E52," ",C52)</f>
+        <v>#REF!</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -5359,14 +5359,14 @@
         <v>368</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="J53" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B53,",",E53," ",C53)</f>
-        <v>D01387,,3J,🇫🇮 Sami Rissanen</v>
+      <c r="J53" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E53," ",C53)</f>
+        <v>#REF!</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -5394,14 +5394,14 @@
         <v>35</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="J54" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B54,",",E54," ",C54)</f>
-        <v>D01CE6,,3F,🇫🇮 Tapio Tourula</v>
+      <c r="J54" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E54," ",C54)</f>
+        <v>#REF!</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -5434,9 +5434,9 @@
       <c r="I55" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="J55" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B55,",",E55," ",C55)</f>
-        <v>D012D5,,HG,🇫🇷 Hugo Corbillé</v>
+      <c r="J55" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E55," ",C55)</f>
+        <v>#REF!</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -5469,13 +5469,13 @@
       <c r="I56" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="J56" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B56,",",E56," ",C56)</f>
-        <v>D02720,,AG,🇫🇷 Alexandre Fierain</v>
+      <c r="J56" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E56," ",C56)</f>
+        <v>#REF!</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="10" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="32.25" thickBot="1">
@@ -5506,9 +5506,9 @@
       <c r="I57" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="J57" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B57,",",E57," ",C57)</f>
-        <v>D02B30,,XI,🇫🇷 Louise Rodriguez</v>
+      <c r="J57" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E57," ",C57)</f>
+        <v>#REF!</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -5536,14 +5536,14 @@
         <v>310</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="J58" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B58,",",E58," ",C58)</f>
-        <v>DDF12C,,ET,🇫🇷 Louis Bouderlique</v>
+      <c r="J58" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E58," ",C58)</f>
+        <v>#REF!</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -5571,14 +5571,14 @@
         <v>158</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="J59" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B59,",",E59," ",C59)</f>
-        <v>D02C3D,,JPA,🇫🇷 Julien Duboc</v>
+      <c r="J59" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E59," ",C59)</f>
+        <v>#REF!</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -5606,14 +5606,14 @@
         <v>4</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="J60" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B60,",",E60," ",C60)</f>
-        <v>D00900,,LB,🇫🇷 Jean-Denis Barrois</v>
+      <c r="J60" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E60," ",C60)</f>
+        <v>#REF!</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -5639,12 +5639,12 @@
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I61" s="9"/>
-      <c r="J61" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B61,",",E61," ",C61)</f>
-        <v>,,KW,🇫🇷 Maximilian SEIS</v>
+      <c r="J61" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E61," ",C61)</f>
+        <v>#REF!</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -5677,9 +5677,9 @@
       <c r="I62" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="J62" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B62,",",E62," ",C62)</f>
-        <v>D01063,,194,🇬🇧 Timothy Fletcher</v>
+      <c r="J62" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E62," ",C62)</f>
+        <v>#REF!</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -5712,9 +5712,9 @@
       <c r="I63" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="J63" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B63,",",E63," ",C63)</f>
-        <v>4055BE,,NW,🇬🇧 George White</v>
+      <c r="J63" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E63," ",C63)</f>
+        <v>#REF!</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -5742,14 +5742,14 @@
         <v>164</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="J64" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B64,",",E64," ",C64)</f>
-        <v>7C7235,,352,🇬🇧 Jez Hood</v>
+      <c r="J64" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E64," ",C64)</f>
+        <v>#REF!</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -5777,14 +5777,14 @@
         <v>158</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="J65" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B65,",",E65," ",C65)</f>
-        <v>D0049F,,6,🇬🇧 Howard Jones</v>
+      <c r="J65" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E65," ",C65)</f>
+        <v>#REF!</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -5812,14 +5812,14 @@
         <v>8</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="J66" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B66,",",E66," ",C66)</f>
-        <v>D009DF,,DW,🇬🇧 Tom Arscott</v>
+      <c r="J66" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E66," ",C66)</f>
+        <v>#REF!</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -5847,14 +5847,14 @@
         <v>4</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="J67" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B67,",",E67," ",C67)</f>
-        <v>D00CA4,,LE,🇬🇧 Leigh Wells</v>
+        <v>640</v>
+      </c>
+      <c r="J67" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E67," ",C67)</f>
+        <v>#REF!</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -5887,9 +5887,9 @@
       <c r="I68" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="J68" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B68,",",E68," ",C68)</f>
-        <v>D01854,,HR3,🇭🇷 Frane Franić</v>
+      <c r="J68" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E68," ",C68)</f>
+        <v>#REF!</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -5922,9 +5922,9 @@
       <c r="I69" t="s">
         <v>456</v>
       </c>
-      <c r="J69" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B69,",",E69," ",C69)</f>
-        <v>D01354,,GM,🇭🇷 Grozdan Meglaj</v>
+      <c r="J69" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E69," ",C69)</f>
+        <v>#REF!</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -5955,11 +5955,11 @@
         <v>426</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="J70" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B70,",",E70," ",C70)</f>
-        <v>D017E9,,AD,🇭🇺 György Gulyás</v>
+        <v>641</v>
+      </c>
+      <c r="J70" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E70," ",C70)</f>
+        <v>#REF!</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -5992,9 +5992,9 @@
       <c r="I71" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="J71" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B71,",",E71," ",C71)</f>
-        <v>DF2125,,XW,🇭🇺 Ferenc TAMÁS</v>
+      <c r="J71" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E71," ",C71)</f>
+        <v>#REF!</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6022,14 +6022,14 @@
         <v>158</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="J72" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B72,",",E72," ",C72)</f>
-        <v>D02B5E,,WD,🇭🇺 Balázs Endrődi</v>
+      <c r="J72" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E72," ",C72)</f>
+        <v>#REF!</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -6057,14 +6057,14 @@
         <v>158</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="J73" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B73,",",E73," ",C73)</f>
-        <v>D00165,,🇭🇺,🇭🇺 Szabolcs Veigli</v>
+      <c r="J73" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E73," ",C73)</f>
+        <v>#REF!</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -6092,12 +6092,12 @@
         <v>15</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I74" s="10"/>
-      <c r="J74" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B74,",",E74," ",C74)</f>
-        <v>,,HAB,🇭🇺 Kornél Negro</v>
+      <c r="J74" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E74," ",C74)</f>
+        <v>#REF!</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -6125,14 +6125,14 @@
         <v>8</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="J75" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B75,",",E75," ",C75)</f>
-        <v>D001C4,,V8,🇭🇺 Tamás Vámosi</v>
+        <v>642</v>
+      </c>
+      <c r="J75" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E75," ",C75)</f>
+        <v>#REF!</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -6160,14 +6160,14 @@
         <v>164</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="J76" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B76,",",E76," ",C76)</f>
-        <v>DDECE7,,TC,🇮🇱 Raphael Luski</v>
+      <c r="J76" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E76," ",C76)</f>
+        <v>#REF!</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -6195,14 +6195,14 @@
         <v>164</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="J77" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B77,",",E77," ",C77)</f>
-        <v>D0271F,,BE,🇮🇱 Anton Minskii</v>
+      <c r="J77" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E77," ",C77)</f>
+        <v>#REF!</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -6235,9 +6235,9 @@
       <c r="I78" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="J78" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B78,",",E78," ",C78)</f>
-        <v>D026A3,,LAB,🇮🇹 Lapo Alessandro Busi</v>
+      <c r="J78" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E78," ",C78)</f>
+        <v>#REF!</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6270,9 +6270,9 @@
       <c r="I79" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="J79" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B79,",",E79," ",C79)</f>
-        <v>0D8014,,B6,🇮🇹 Giacomo Dall'Olio</v>
+      <c r="J79" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E79," ",C79)</f>
+        <v>#REF!</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -6300,12 +6300,12 @@
         <v>158</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I80" s="10"/>
-      <c r="J80" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B80,",",E80," ",C80)</f>
-        <v>,,RB,🇮🇹 Riccardo Brigliadori</v>
+      <c r="J80" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E80," ",C80)</f>
+        <v>#REF!</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -6333,14 +6333,14 @@
         <v>158</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="J81" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B81,",",E81," ",C81)</f>
-        <v>DD893C,,LR,🇮🇹 Luca Urbani</v>
+      <c r="J81" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E81," ",C81)</f>
+        <v>#REF!</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6368,12 +6368,12 @@
         <v>4</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I82" s="10"/>
-      <c r="J82" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B82,",",E82," ",C82)</f>
-        <v>,,AI,🇮🇹 Lucio Bordin</v>
+      <c r="J82" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E82," ",C82)</f>
+        <v>#REF!</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -6401,14 +6401,14 @@
         <v>368</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="J83" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B83,",",E83," ",C83)</f>
-        <v>D00C04,,RY,🇮🇹 Roberto Pinato</v>
+      <c r="J83" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E83," ",C83)</f>
+        <v>#REF!</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -6441,9 +6441,9 @@
       <c r="I84" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="J84" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B84,",",E84," ",C84)</f>
-        <v>D0105A,,FL,🇱🇹 Darius Gudziunas</v>
+      <c r="J84" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E84," ",C84)</f>
+        <v>#REF!</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -6476,9 +6476,9 @@
       <c r="I85" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="J85" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B85,",",E85," ",C85)</f>
-        <v>28455E,,AM,🇱🇹 Karolis Mikalauskas</v>
+      <c r="J85" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E85," ",C85)</f>
+        <v>#REF!</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -6506,14 +6506,14 @@
         <v>164</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="J86" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B86,",",E86," ",C86)</f>
-        <v>DDEFEB,,H8,🇱🇹 Gvidas Sabeckis</v>
+      <c r="J86" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E86," ",C86)</f>
+        <v>#REF!</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -6541,14 +6541,14 @@
         <v>164</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="J87" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B87,",",E87," ",C87)</f>
-        <v>D01DCA,,MG,🇱🇹 Joris Vainius</v>
+      <c r="J87" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E87," ",C87)</f>
+        <v>#REF!</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -6576,12 +6576,12 @@
         <v>18</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I88" s="10"/>
-      <c r="J88" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B88,",",E88," ",C88)</f>
-        <v>,,M7,🇱🇹 Vladas Motuza</v>
+      <c r="J88" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E88," ",C88)</f>
+        <v>#REF!</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -6609,14 +6609,14 @@
         <v>377</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="J89" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B89,",",E89," ",C89)</f>
-        <v>D02B81,,BB,🇱🇹 Marius Pluščauskas</v>
+      <c r="J89" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E89," ",C89)</f>
+        <v>#REF!</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -6649,9 +6649,9 @@
       <c r="I90" s="9">
         <v>484977</v>
       </c>
-      <c r="J90" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B90,",",E90," ",C90)</f>
-        <v>484977,,RSM,🇳🇱 Robin Smit</v>
+      <c r="J90" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E90," ",C90)</f>
+        <v>#REF!</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -6684,9 +6684,9 @@
       <c r="I91" s="9">
         <v>485222</v>
       </c>
-      <c r="J91" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B91,",",E91," ",C91)</f>
-        <v>485222,,KM,🇳🇱 Jeroen van Dijk</v>
+      <c r="J91" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E91," ",C91)</f>
+        <v>#REF!</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -6714,14 +6714,14 @@
         <v>334</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="J92" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B92,",",E92," ",C92)</f>
-        <v>D01F20,,CM,🇳🇱 Robbie Seton</v>
+      <c r="J92" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E92," ",C92)</f>
+        <v>#REF!</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -6749,14 +6749,14 @@
         <v>340</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="J93" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B93,",",E93," ",C93)</f>
-        <v>484C82,,SX,🇳🇱 Hadriaan van Nes</v>
+      <c r="J93" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E93," ",C93)</f>
+        <v>#REF!</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -6784,14 +6784,14 @@
         <v>368</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I94" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="J94" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B94,",",E94," ",C94)</f>
-        <v>DDF0F9,,MM,🇳🇱 Peter Millenaar</v>
+      <c r="J94" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E94," ",C94)</f>
+        <v>#REF!</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -6819,14 +6819,14 @@
         <v>391</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="J95" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B95,",",E95," ",C95)</f>
-        <v>3E7D9A,,JV,🇳🇱 Jeroen Verkuijl</v>
+        <v>643</v>
+      </c>
+      <c r="J95" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E95," ",C95)</f>
+        <v>#REF!</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -6859,9 +6859,9 @@
       <c r="I96" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="J96" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B96,",",E96," ",C96)</f>
-        <v>4404BE,,T5,🇳🇿 Michael Strathern</v>
+      <c r="J96" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E96," ",C96)</f>
+        <v>#REF!</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -6894,9 +6894,9 @@
       <c r="I97" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="J97" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B97,",",E97," ",C97)</f>
-        <v>D01CB6,,FLS,🇵🇱 Jacek Flis</v>
+      <c r="J97" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E97," ",C97)</f>
+        <v>#REF!</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -6929,9 +6929,9 @@
       <c r="I98" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="J98" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B98,",",E98," ",C98)</f>
-        <v>D03425,,PP,🇵🇱 Mikołaj Zdun</v>
+      <c r="J98" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E98," ",C98)</f>
+        <v>#REF!</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -6959,12 +6959,12 @@
         <v>304</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I99" s="10"/>
-      <c r="J99" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B99,",",E99," ",C99)</f>
-        <v>,,LOT,🇵🇱 Jakub Barszcz</v>
+      <c r="J99" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E99," ",C99)</f>
+        <v>#REF!</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -6992,14 +6992,14 @@
         <v>158</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="J100" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B100,",",E100," ",C100)</f>
-        <v>DDEE69,,I,🇵🇱 Łukasz Błaszczyk</v>
+      <c r="J100" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E100," ",C100)</f>
+        <v>#REF!</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -7027,12 +7027,12 @@
         <v>1</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I101" s="10"/>
-      <c r="J101" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B101,",",E101," ",C101)</f>
-        <v>,,RP,🇵🇱 Łukasz Grabowski</v>
+      <c r="J101" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E101," ",C101)</f>
+        <v>#REF!</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -7060,14 +7060,14 @@
         <v>394</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I102" s="9">
         <v>101211</v>
       </c>
-      <c r="J102" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B102,",",E102," ",C102)</f>
-        <v>101211,,ZJ,🇵🇱 Paweł Wojciechowski</v>
+      <c r="J102" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E102," ",C102)</f>
+        <v>#REF!</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -7100,9 +7100,9 @@
       <c r="I103" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="J103" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B103,",",E103," ",C103)</f>
-        <v>DDF0BD,,Y3,🇷🇴 Tudor Bajenaru</v>
+      <c r="J103" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E103," ",C103)</f>
+        <v>#REF!</v>
       </c>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -7135,12 +7135,12 @@
       <c r="I104" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="J104" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B104,",",E104," ",C104)</f>
-        <v>D00C74,,Y2,🇷🇴 Alin Simion</v>
+      <c r="J104" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E104," ",C104)</f>
+        <v>#REF!</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="L104" s="4"/>
     </row>
@@ -7167,12 +7167,12 @@
         <v>158</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I105" s="10"/>
-      <c r="J105" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B105,",",E105," ",C105)</f>
-        <v>,,YB,🇷🇴 Norbert Scarlat</v>
+      <c r="J105" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E105," ",C105)</f>
+        <v>#REF!</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -7200,12 +7200,12 @@
         <v>158</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I106" s="10"/>
-      <c r="J106" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B106,",",E106," ",C106)</f>
-        <v>,,YA,🇷🇴 Ionut Tudor</v>
+      <c r="J106" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E106," ",C106)</f>
+        <v>#REF!</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -7233,14 +7233,14 @@
         <v>164</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="J107" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B107,",",E107," ",C107)</f>
-        <v>D00EBA,,1,🇸🇪 Elias Severholt Fourati</v>
+      <c r="J107" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E107," ",C107)</f>
+        <v>#REF!</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -7271,9 +7271,9 @@
         <v>426</v>
       </c>
       <c r="I108" s="10"/>
-      <c r="J108" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B108,",",E108," ",C108)</f>
-        <v>,,CP,🇸🇮 Viktor Becan</v>
+      <c r="J108" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E108," ",C108)</f>
+        <v>#REF!</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7304,9 +7304,9 @@
         <v>426</v>
       </c>
       <c r="I109" s="10"/>
-      <c r="J109" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B109,",",E109," ",C109)</f>
-        <v>,,CF,🇸🇮 Mark Travner</v>
+      <c r="J109" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E109," ",C109)</f>
+        <v>#REF!</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7337,9 +7337,9 @@
         <v>426</v>
       </c>
       <c r="I110" s="10"/>
-      <c r="J110" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B110,",",E110," ",C110)</f>
-        <v>,,ZS,🇸🇰 Edmund Schuller</v>
+      <c r="J110" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E110," ",C110)</f>
+        <v>#REF!</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -7367,14 +7367,14 @@
         <v>308</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="J111" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B111,",",E111," ",C111)</f>
-        <v>D003CD,,SI,🇸🇰 Tomáš Bobok</v>
+      <c r="J111" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E111," ",C111)</f>
+        <v>#REF!</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -7402,12 +7402,12 @@
         <v>352</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I112" s="10"/>
-      <c r="J112" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B112,",",E112," ",C112)</f>
-        <v>,,3,🇸🇰 Vladimir Foltin</v>
+      <c r="J112" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E112," ",C112)</f>
+        <v>#REF!</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -7440,9 +7440,9 @@
       <c r="I113" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="J113" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B113,",",E113," ",C113)</f>
-        <v>485A0B,,S5,🇺🇸 Tony Condon</v>
+      <c r="J113" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E113," ",C113)</f>
+        <v>#REF!</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -7475,9 +7475,9 @@
       <c r="I114" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="J114" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B114,",",E114," ",C114)</f>
-        <v>DF2858,,FP,🇺🇸 Sylvia Grandstaff</v>
+      <c r="J114" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E114," ",C114)</f>
+        <v>#REF!</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -7505,14 +7505,14 @@
         <v>4</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I115" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="J115" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B115,",",E115," ",C115)</f>
-        <v>D00DE8,,73,🇺🇸 Jared Granzow</v>
+      <c r="J115" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E115," ",C115)</f>
+        <v>#REF!</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -7540,14 +7540,14 @@
         <v>8</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="J116" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B116,",",E116," ",C116)</f>
-        <v>DDEFD0,,AF,🇺🇸 Mike Sorenson</v>
+      <c r="J116" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E116," ",C116)</f>
+        <v>#REF!</v>
       </c>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
@@ -7555,10 +7555,10 @@
     <row r="117" spans="1:12" ht="16.5" thickBot="1">
       <c r="A117" s="6"/>
       <c r="B117" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
@@ -7570,9 +7570,9 @@
       <c r="I117" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="J117" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B117,",",E117," ",C117)</f>
-        <v>D00CF4,,?, Unknown</v>
+      <c r="J117" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E117," ",C117)</f>
+        <v>#REF!</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -7580,10 +7580,10 @@
     <row r="118" spans="1:12" ht="16.5" thickBot="1">
       <c r="A118" s="4"/>
       <c r="B118" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -7593,9 +7593,9 @@
       <c r="I118" s="7">
         <v>617239</v>
       </c>
-      <c r="J118" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B118,",",E118," ",C118)</f>
-        <v>617239,,?, Unknown</v>
+      <c r="J118" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E118," ",C118)</f>
+        <v>#REF!</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -7603,10 +7603,10 @@
     <row r="119" spans="1:12" ht="16.5" thickBot="1">
       <c r="A119" s="4"/>
       <c r="B119" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -7616,9 +7616,9 @@
       <c r="I119" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="J119" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B119,",",E119," ",C119)</f>
-        <v>D214B1,,?, Unknown</v>
+      <c r="J119" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E119," ",C119)</f>
+        <v>#REF!</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -7626,10 +7626,10 @@
     <row r="120" spans="1:12" ht="16.5" thickBot="1">
       <c r="A120" s="4"/>
       <c r="B120" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -7639,9 +7639,9 @@
       <c r="I120" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="J120" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B120,",",E120," ",C120)</f>
-        <v>C5AFCC,,?, Unknown</v>
+      <c r="J120" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E120," ",C120)</f>
+        <v>#REF!</v>
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
@@ -7649,10 +7649,10 @@
     <row r="121" spans="1:12" ht="16.5" thickBot="1">
       <c r="A121" s="4"/>
       <c r="B121" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -7662,9 +7662,9 @@
       <c r="I121" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="J121" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B121,",",E121," ",C121)</f>
-        <v>109C4C,,?, Unknown</v>
+      <c r="J121" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E121," ",C121)</f>
+        <v>#REF!</v>
       </c>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
@@ -7672,10 +7672,10 @@
     <row r="122" spans="1:12" ht="16.5" thickBot="1">
       <c r="A122" s="4"/>
       <c r="B122" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -7685,9 +7685,9 @@
       <c r="I122" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="J122" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B122,",",E122," ",C122)</f>
-        <v>C2A4CE,,?, Unknown</v>
+      <c r="J122" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E122," ",C122)</f>
+        <v>#REF!</v>
       </c>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
@@ -7695,10 +7695,10 @@
     <row r="123" spans="1:12" ht="16.5" thickBot="1">
       <c r="A123" s="4"/>
       <c r="B123" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -7708,9 +7708,9 @@
       <c r="I123" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="J123" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B123,",",E123," ",C123)</f>
-        <v>05FF9A,,?, Unknown</v>
+      <c r="J123" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E123," ",C123)</f>
+        <v>#REF!</v>
       </c>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
@@ -7718,10 +7718,10 @@
     <row r="124" spans="1:12" ht="16.5" thickBot="1">
       <c r="A124" s="4"/>
       <c r="B124" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -7731,9 +7731,9 @@
       <c r="I124" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="J124" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B124,",",E124," ",C124)</f>
-        <v>0BF591,,?, Unknown</v>
+      <c r="J124" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E124," ",C124)</f>
+        <v>#REF!</v>
       </c>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
@@ -7741,10 +7741,10 @@
     <row r="125" spans="1:12" ht="16.5" thickBot="1">
       <c r="A125" s="4"/>
       <c r="B125" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -7754,9 +7754,9 @@
       <c r="I125" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="J125" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B125,",",E125," ",C125)</f>
-        <v>4A542F,,?, Unknown</v>
+      <c r="J125" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E125," ",C125)</f>
+        <v>#REF!</v>
       </c>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
@@ -7764,10 +7764,10 @@
     <row r="126" spans="1:12" ht="16.5" thickBot="1">
       <c r="A126" s="4"/>
       <c r="B126" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -7777,9 +7777,9 @@
       <c r="I126" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="J126" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B126,",",E126," ",C126)</f>
-        <v>462FD9,,?, Unknown</v>
+      <c r="J126" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E126," ",C126)</f>
+        <v>#REF!</v>
       </c>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -7787,10 +7787,10 @@
     <row r="127" spans="1:12" ht="16.5" thickBot="1">
       <c r="A127" s="4"/>
       <c r="B127" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -7800,9 +7800,9 @@
       <c r="I127" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="J127" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B127,",",E127," ",C127)</f>
-        <v>11954C,,?, Unknown</v>
+      <c r="J127" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E127," ",C127)</f>
+        <v>#REF!</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -7810,10 +7810,10 @@
     <row r="128" spans="1:12" ht="16.5" thickBot="1">
       <c r="A128" s="4"/>
       <c r="B128" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -7823,9 +7823,9 @@
       <c r="I128" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="J128" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B128,",",E128," ",C128)</f>
-        <v>593CC0,,?, Unknown</v>
+      <c r="J128" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E128," ",C128)</f>
+        <v>#REF!</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -7833,10 +7833,10 @@
     <row r="129" spans="1:12" ht="16.5" thickBot="1">
       <c r="A129" s="4"/>
       <c r="B129" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -7846,9 +7846,9 @@
       <c r="I129" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="J129" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B129,",",E129," ",C129)</f>
-        <v>65723C,,?, Unknown</v>
+      <c r="J129" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E129," ",C129)</f>
+        <v>#REF!</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
@@ -7856,10 +7856,10 @@
     <row r="130" spans="1:12" ht="16.5" thickBot="1">
       <c r="A130" s="4"/>
       <c r="B130" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -7869,9 +7869,9 @@
       <c r="I130" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="J130" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B130,",",E130," ",C130)</f>
-        <v>0AF490,,?, Unknown</v>
+      <c r="J130" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E130," ",C130)</f>
+        <v>#REF!</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
@@ -7879,10 +7879,10 @@
     <row r="131" spans="1:12" ht="16.5" thickBot="1">
       <c r="A131" s="4"/>
       <c r="B131" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -7892,9 +7892,9 @@
       <c r="I131" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="J131" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B131,",",E131," ",C131)</f>
-        <v>D9B7D1,,?, Unknown</v>
+      <c r="J131" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E131," ",C131)</f>
+        <v>#REF!</v>
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -7902,10 +7902,10 @@
     <row r="132" spans="1:12" ht="16.5" thickBot="1">
       <c r="A132" s="4"/>
       <c r="B132" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -7915,9 +7915,9 @@
       <c r="I132" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="J132" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B132,",",E132," ",C132)</f>
-        <v>DF15BF,,?, Unknown</v>
+      <c r="J132" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E132," ",C132)</f>
+        <v>#REF!</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -7925,10 +7925,10 @@
     <row r="133" spans="1:12" ht="16.5" thickBot="1">
       <c r="A133" s="4"/>
       <c r="B133" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -7938,9 +7938,9 @@
       <c r="I133" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="J133" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B133,",",E133," ",C133)</f>
-        <v>4726D8,,?, Unknown</v>
+      <c r="J133" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E133," ",C133)</f>
+        <v>#REF!</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -7948,10 +7948,10 @@
     <row r="134" spans="1:12" ht="16.5" thickBot="1">
       <c r="A134" s="4"/>
       <c r="B134" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -7961,9 +7961,9 @@
       <c r="I134" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="J134" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B134,",",E134," ",C134)</f>
-        <v>FA44F7,,?, Unknown</v>
+      <c r="J134" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E134," ",C134)</f>
+        <v>#REF!</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -7971,10 +7971,10 @@
     <row r="135" spans="1:12" ht="16.5" thickBot="1">
       <c r="A135" s="4"/>
       <c r="B135" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -7984,9 +7984,9 @@
       <c r="I135" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="J135" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B135,",",E135," ",C135)</f>
-        <v>01FF9D,,?, Unknown</v>
+      <c r="J135" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E135," ",C135)</f>
+        <v>#REF!</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -7994,10 +7994,10 @@
     <row r="136" spans="1:12" ht="16.5" thickBot="1">
       <c r="A136" s="4"/>
       <c r="B136" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -8007,9 +8007,9 @@
       <c r="I136" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="J136" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B136,",",E136," ",C136)</f>
-        <v>DBBDD7,,?, Unknown</v>
+      <c r="J136" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E136," ",C136)</f>
+        <v>#REF!</v>
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
@@ -8017,10 +8017,10 @@
     <row r="137" spans="1:12" ht="16.5" thickBot="1">
       <c r="A137" s="4"/>
       <c r="B137" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -8030,9 +8030,9 @@
       <c r="I137" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="J137" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B137,",",E137," ",C137)</f>
-        <v>1FE585,,?, Unknown</v>
+      <c r="J137" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E137," ",C137)</f>
+        <v>#REF!</v>
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
@@ -8040,10 +8040,10 @@
     <row r="138" spans="1:12" ht="16.5" thickBot="1">
       <c r="A138" s="4"/>
       <c r="B138" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -8053,9 +8053,9 @@
       <c r="I138" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="J138" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B138,",",E138," ",C138)</f>
-        <v>00845F,,?, Unknown</v>
+      <c r="J138" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E138," ",C138)</f>
+        <v>#REF!</v>
       </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
@@ -8063,10 +8063,10 @@
     <row r="139" spans="1:12" ht="16.5" thickBot="1">
       <c r="A139" s="4"/>
       <c r="B139" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -8076,9 +8076,9 @@
       <c r="I139" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="J139" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B139,",",E139," ",C139)</f>
-        <v>72692F,,?, Unknown</v>
+      <c r="J139" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E139," ",C139)</f>
+        <v>#REF!</v>
       </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
@@ -8086,10 +8086,10 @@
     <row r="140" spans="1:12" ht="16.5" thickBot="1">
       <c r="A140" s="4"/>
       <c r="B140" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -8099,9 +8099,9 @@
       <c r="I140" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="J140" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B140,",",E140," ",C140)</f>
-        <v>1C9442,,?, Unknown</v>
+      <c r="J140" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E140," ",C140)</f>
+        <v>#REF!</v>
       </c>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
@@ -8109,10 +8109,10 @@
     <row r="141" spans="1:12" ht="16.5" thickBot="1">
       <c r="A141" s="4"/>
       <c r="B141" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -8122,9 +8122,9 @@
       <c r="I141" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="J141" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B141,",",E141," ",C141)</f>
-        <v>1AE480,,?, Unknown</v>
+      <c r="J141" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E141," ",C141)</f>
+        <v>#REF!</v>
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
@@ -8132,10 +8132,10 @@
     <row r="142" spans="1:12" ht="16.5" thickBot="1">
       <c r="A142" s="4"/>
       <c r="B142" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -8145,9 +8145,9 @@
       <c r="I142" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="J142" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B142,",",E142," ",C142)</f>
-        <v>07875F,,?, Unknown</v>
+      <c r="J142" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E142," ",C142)</f>
+        <v>#REF!</v>
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
@@ -8155,10 +8155,10 @@
     <row r="143" spans="1:12" ht="16.5" thickBot="1">
       <c r="A143" s="4"/>
       <c r="B143" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -8168,9 +8168,9 @@
       <c r="I143" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="J143" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B143,",",E143," ",C143)</f>
-        <v>593CC3,,?, Unknown</v>
+      <c r="J143" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E143," ",C143)</f>
+        <v>#REF!</v>
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -8178,10 +8178,10 @@
     <row r="144" spans="1:12" ht="16.5" thickBot="1">
       <c r="A144" s="4"/>
       <c r="B144" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -8191,9 +8191,9 @@
       <c r="I144" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="J144" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B144,",",E144," ",C144)</f>
-        <v>4524DD,,?, Unknown</v>
+      <c r="J144" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E144," ",C144)</f>
+        <v>#REF!</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -8201,10 +8201,10 @@
     <row r="145" spans="1:12" ht="16.5" thickBot="1">
       <c r="A145" s="4"/>
       <c r="B145" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -8214,9 +8214,9 @@
       <c r="I145" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="J145" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B145,",",E145," ",C145)</f>
-        <v>4A2FD7,,?, Unknown</v>
+      <c r="J145" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E145," ",C145)</f>
+        <v>#REF!</v>
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
@@ -8224,10 +8224,10 @@
     <row r="146" spans="1:12" ht="16.5" thickBot="1">
       <c r="A146" s="4"/>
       <c r="B146" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -8237,9 +8237,9 @@
       <c r="I146" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="J146" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B146,",",E146," ",C146)</f>
-        <v>583DC0,,?, Unknown</v>
+      <c r="J146" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E146," ",C146)</f>
+        <v>#REF!</v>
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
@@ -8247,10 +8247,10 @@
     <row r="147" spans="1:12" ht="16.5" thickBot="1">
       <c r="A147" s="4"/>
       <c r="B147" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -8260,9 +8260,9 @@
       <c r="I147" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="J147" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B147,",",E147," ",C147)</f>
-        <v>4726D9,,?, Unknown</v>
+      <c r="J147" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E147," ",C147)</f>
+        <v>#REF!</v>
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
@@ -8270,10 +8270,10 @@
     <row r="148" spans="1:12" ht="16.5" thickBot="1">
       <c r="A148" s="4"/>
       <c r="B148" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -8283,9 +8283,9 @@
       <c r="I148" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="J148" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B148,",",E148," ",C148)</f>
-        <v>4D5F2E,,?, Unknown</v>
+      <c r="J148" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E148," ",C148)</f>
+        <v>#REF!</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -8293,10 +8293,10 @@
     <row r="149" spans="1:12" ht="16.5" thickBot="1">
       <c r="A149" s="4"/>
       <c r="B149" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -8306,9 +8306,9 @@
       <c r="I149" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="J149" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B149,",",E149," ",C149)</f>
-        <v>0EFC96,,?, Unknown</v>
+      <c r="J149" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E149," ",C149)</f>
+        <v>#REF!</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -8316,10 +8316,10 @@
     <row r="150" spans="1:12" ht="16.5" thickBot="1">
       <c r="A150" s="4"/>
       <c r="B150" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -8329,9 +8329,9 @@
       <c r="I150" s="7">
         <v>524435</v>
       </c>
-      <c r="J150" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B150,",",E150," ",C150)</f>
-        <v>524435,,?, Unknown</v>
+      <c r="J150" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E150," ",C150)</f>
+        <v>#REF!</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -8339,24 +8339,24 @@
     <row r="151" spans="1:12" ht="16.5" thickBot="1">
       <c r="A151" s="4"/>
       <c r="B151" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="13" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I151" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="J151" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B151,",",E151," ",C151)</f>
-        <v>D018D8,,?, Unknown</v>
+      <c r="J151" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E151," ",C151)</f>
+        <v>#REF!</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -8364,24 +8364,24 @@
     <row r="152" spans="1:12" ht="16.5" thickBot="1">
       <c r="A152" s="4"/>
       <c r="B152" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="13" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="J152" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B152,",",E152," ",C152)</f>
-        <v>D01CCE,,?, Unknown</v>
+      <c r="J152" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E152," ",C152)</f>
+        <v>#REF!</v>
       </c>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
@@ -8389,10 +8389,10 @@
     <row r="153" spans="1:12" ht="16.5" thickBot="1">
       <c r="A153" s="4"/>
       <c r="B153" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -8402,9 +8402,9 @@
       <c r="I153" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="J153" s="10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B153,",",E153," ",C153)</f>
-        <v>CDCDCD,,?, Unknown</v>
+      <c r="J153" s="10" t="e">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E153," ",C153)</f>
+        <v>#REF!</v>
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8" t="s">
@@ -9671,7 +9671,7 @@
         <v>525</v>
       </c>
       <c r="B36" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E36" t="s">
         <v>426</v>
@@ -9683,7 +9683,7 @@
         <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="0"/>
@@ -9704,10 +9704,10 @@
         <v>401</v>
       </c>
       <c r="G37" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H37" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="0"/>
@@ -9719,19 +9719,19 @@
         <v>525</v>
       </c>
       <c r="B38" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E38" t="s">
         <v>426</v>
       </c>
       <c r="F38" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="G38" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="H38" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
@@ -9776,7 +9776,7 @@
         <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H40" t="s">
         <v>540</v>
@@ -9791,7 +9791,7 @@
         <v>525</v>
       </c>
       <c r="B41" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E41" t="s">
         <v>426</v>
@@ -9800,10 +9800,10 @@
         <v>414</v>
       </c>
       <c r="G41" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="H41" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="0"/>
@@ -9824,10 +9824,10 @@
         <v>398</v>
       </c>
       <c r="G42" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="H42" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="0"/>
@@ -9851,7 +9851,7 @@
         <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="0"/>
@@ -9872,10 +9872,10 @@
         <v>411</v>
       </c>
       <c r="G44" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="H44" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" ref="U44:U49" si="1">LEFT(P44,2)</f>
@@ -9887,7 +9887,7 @@
         <v>525</v>
       </c>
       <c r="B45" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E45" t="s">
         <v>426</v>
@@ -9896,10 +9896,10 @@
         <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="H45" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="1"/>
@@ -9923,7 +9923,7 @@
         <v>194</v>
       </c>
       <c r="H46" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="1"/>
@@ -9944,10 +9944,10 @@
         <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="H47" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="1"/>
@@ -9983,7 +9983,7 @@
         <v>525</v>
       </c>
       <c r="B49" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E49" t="s">
         <v>426</v>
@@ -9995,7 +9995,7 @@
         <v>248</v>
       </c>
       <c r="H49" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="1"/>
@@ -10016,10 +10016,10 @@
         <v>403</v>
       </c>
       <c r="G50" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="H50" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -10059,7 +10059,7 @@
         <v>262</v>
       </c>
       <c r="H52" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -10067,7 +10067,7 @@
         <v>525</v>
       </c>
       <c r="B53" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E53" t="s">
         <v>426</v>
@@ -10076,10 +10076,10 @@
         <v>406</v>
       </c>
       <c r="G53" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H53" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -10087,7 +10087,7 @@
         <v>525</v>
       </c>
       <c r="B54" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E54" t="s">
         <v>426</v>
@@ -10096,10 +10096,10 @@
         <v>411</v>
       </c>
       <c r="G54" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="H54" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -10107,7 +10107,7 @@
         <v>525</v>
       </c>
       <c r="B55" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E55" t="s">
         <v>426</v>
@@ -10116,10 +10116,10 @@
         <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="H55" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -10147,7 +10147,7 @@
         <v>525</v>
       </c>
       <c r="B57" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E57" t="s">
         <v>426</v>
@@ -10156,10 +10156,10 @@
         <v>409</v>
       </c>
       <c r="G57" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="H57" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -10167,19 +10167,19 @@
         <v>525</v>
       </c>
       <c r="B58" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E58" t="s">
         <v>426</v>
       </c>
       <c r="F58" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="G58" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="H58" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -10216,10 +10216,10 @@
         <v>419</v>
       </c>
       <c r="G60" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H60" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -10236,7 +10236,7 @@
         <v>412</v>
       </c>
       <c r="G61" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="H61" t="s">
         <v>532</v>
@@ -10247,7 +10247,7 @@
         <v>525</v>
       </c>
       <c r="B62" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E62" t="s">
         <v>426</v>
@@ -10256,10 +10256,10 @@
         <v>419</v>
       </c>
       <c r="G62" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="H62" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -10279,7 +10279,7 @@
         <v>216</v>
       </c>
       <c r="H63" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -10287,19 +10287,19 @@
         <v>525</v>
       </c>
       <c r="B64" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E64" t="s">
         <v>426</v>
       </c>
       <c r="F64" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G64" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="H64" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -10336,10 +10336,10 @@
         <v>408</v>
       </c>
       <c r="G66" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="H66" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -10356,7 +10356,7 @@
         <v>407</v>
       </c>
       <c r="G67" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="H67" t="s">
         <v>550</v>
@@ -10376,10 +10376,10 @@
         <v>408</v>
       </c>
       <c r="G68" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="H68" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -10399,7 +10399,7 @@
         <v>104</v>
       </c>
       <c r="H69" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -10407,7 +10407,7 @@
         <v>525</v>
       </c>
       <c r="B70" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E70" t="s">
         <v>426</v>
@@ -10419,7 +10419,7 @@
         <v>34</v>
       </c>
       <c r="H70" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -10436,10 +10436,10 @@
         <v>402</v>
       </c>
       <c r="G71" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H71" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -10456,7 +10456,7 @@
         <v>396</v>
       </c>
       <c r="G72" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="H72" t="s">
         <v>548</v>
@@ -10479,7 +10479,7 @@
         <v>112</v>
       </c>
       <c r="H73" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -10496,7 +10496,7 @@
         <v>404</v>
       </c>
       <c r="G74" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="H74" t="s">
         <v>537</v>
@@ -10519,7 +10519,7 @@
         <v>301</v>
       </c>
       <c r="H75" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -10527,10 +10527,10 @@
         <v>525</v>
       </c>
       <c r="B76" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E76" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F76" t="s">
         <v>417</v>
@@ -10539,7 +10539,7 @@
         <v>63</v>
       </c>
       <c r="H76" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -10550,7 +10550,7 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F77" t="s">
         <v>398</v>
@@ -10559,7 +10559,7 @@
         <v>79</v>
       </c>
       <c r="H77" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -10567,10 +10567,10 @@
         <v>525</v>
       </c>
       <c r="B78" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E78" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F78" t="s">
         <v>399</v>
@@ -10579,7 +10579,7 @@
         <v>187</v>
       </c>
       <c r="H78" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -10587,19 +10587,19 @@
         <v>525</v>
       </c>
       <c r="B79" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E79" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F79" t="s">
         <v>419</v>
       </c>
       <c r="G79" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="H79" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -10607,19 +10607,19 @@
         <v>525</v>
       </c>
       <c r="B80" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E80" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F80" t="s">
         <v>407</v>
       </c>
       <c r="G80" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="H80" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -10627,19 +10627,19 @@
         <v>525</v>
       </c>
       <c r="B81" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E81" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F81" t="s">
         <v>401</v>
       </c>
       <c r="G81" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H81" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -10650,7 +10650,7 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F82" t="s">
         <v>411</v>
@@ -10659,7 +10659,7 @@
         <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -10667,19 +10667,19 @@
         <v>525</v>
       </c>
       <c r="B83" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E83" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F83" t="s">
         <v>399</v>
       </c>
       <c r="G83" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H83" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -10687,19 +10687,19 @@
         <v>525</v>
       </c>
       <c r="B84" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E84" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F84" t="s">
         <v>401</v>
       </c>
       <c r="G84" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -10710,7 +10710,7 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F85" t="s">
         <v>395</v>
@@ -10730,16 +10730,16 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F86" t="s">
         <v>414</v>
       </c>
       <c r="G86" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="H86" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -10747,19 +10747,19 @@
         <v>525</v>
       </c>
       <c r="B87" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E87" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F87" t="s">
         <v>413</v>
       </c>
       <c r="G87" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="H87" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -10770,7 +10770,7 @@
         <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F88" t="s">
         <v>402</v>
@@ -10787,19 +10787,19 @@
         <v>525</v>
       </c>
       <c r="B89" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E89" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F89" t="s">
         <v>408</v>
       </c>
       <c r="G89" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="H89" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -10807,19 +10807,19 @@
         <v>525</v>
       </c>
       <c r="B90" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E90" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F90" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G90" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="H90" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -10830,16 +10830,16 @@
         <v>77</v>
       </c>
       <c r="E91" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F91" t="s">
         <v>403</v>
       </c>
       <c r="G91" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="H91" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -10850,13 +10850,13 @@
         <v>85</v>
       </c>
       <c r="E92" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F92" t="s">
         <v>403</v>
       </c>
       <c r="G92" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="H92">
         <v>405763</v>
@@ -10870,7 +10870,7 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F93" t="s">
         <v>406</v>
@@ -10879,7 +10879,7 @@
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -10890,7 +10890,7 @@
         <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F94" t="s">
         <v>420</v>
@@ -10899,7 +10899,7 @@
         <v>44</v>
       </c>
       <c r="H94" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -10910,7 +10910,7 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F95" t="s">
         <v>408</v>
@@ -10927,19 +10927,19 @@
         <v>525</v>
       </c>
       <c r="B96" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E96" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F96" t="s">
         <v>398</v>
       </c>
       <c r="G96" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="H96" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -10950,7 +10950,7 @@
         <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F97" t="s">
         <v>406</v>
@@ -10959,7 +10959,7 @@
         <v>376</v>
       </c>
       <c r="H97" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -10967,19 +10967,19 @@
         <v>525</v>
       </c>
       <c r="B98" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E98" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F98" t="s">
         <v>409</v>
       </c>
       <c r="G98" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="H98" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -10990,16 +10990,16 @@
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F99" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G99" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="H99" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -11007,19 +11007,19 @@
         <v>525</v>
       </c>
       <c r="B100" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E100" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F100" t="s">
         <v>402</v>
       </c>
       <c r="G100" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H100" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -11030,7 +11030,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F101" t="s">
         <v>407</v>
@@ -11039,7 +11039,7 @@
         <v>389</v>
       </c>
       <c r="H101" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -11050,16 +11050,16 @@
         <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F102" t="s">
         <v>414</v>
       </c>
       <c r="G102" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="H102" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -11067,10 +11067,10 @@
         <v>525</v>
       </c>
       <c r="B103" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E103" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F103" t="s">
         <v>409</v>
@@ -11079,7 +11079,7 @@
         <v>65</v>
       </c>
       <c r="H103" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F104" t="s">
         <v>395</v>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B190E57-960D-4AF6-B0AB-B2B54CDFC94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3FB49A-3EC6-48DA-BAEC-42C8F24C5443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="772">
   <si>
     <t>ZJ</t>
   </si>
@@ -1330,9 +1330,6 @@
     <t>FlarmID</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>CALL</t>
   </si>
   <si>
@@ -1819,21 +1816,9 @@
     <t>D02B97</t>
   </si>
   <si>
-    <t>7C718B ("G1 Flarm, V3T")</t>
-  </si>
-  <si>
-    <t>Alternative IDs</t>
-  </si>
-  <si>
     <t>D02C3E</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Current ID: OY-LXE (LE)</t>
-  </si>
-  <si>
     <t>D00413</t>
   </si>
   <si>
@@ -1882,9 +1867,6 @@
     <t>CDCDCD</t>
   </si>
   <si>
-    <t>DCD</t>
-  </si>
-  <si>
     <t>DF0EC9</t>
   </si>
   <si>
@@ -1972,9 +1954,6 @@
     <t>3E7D9A</t>
   </si>
   <si>
-    <t>Current flarm from French ASW-20, F-CFFV</t>
-  </si>
-  <si>
     <t>D015EE</t>
   </si>
   <si>
@@ -2335,9 +2314,6 @@
     <t>15m</t>
   </si>
   <si>
-    <t>D00CF4 (Database)</t>
-  </si>
-  <si>
     <t>3EEB98</t>
   </si>
   <si>
@@ -2375,6 +2351,9 @@
   </si>
   <si>
     <t>L7</t>
+  </si>
+  <si>
+    <t>D02AAE</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2460,19 +2439,6 @@
       <top style="medium">
         <color rgb="FFDDDDDD"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
@@ -2519,7 +2485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2530,9 +2496,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2549,10 +2512,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2560,7 +2523,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2590,28 +2553,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2684,81 +2625,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFDDDDDD"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFDDDDDD"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFDDDDDD"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFDDDDDD"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFDDDDDD"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFDDDDDD"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFDDDDDD"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFDDDDDD"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3130,26 +2996,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L153" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="A1:L153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:I153" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="A1:I153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I116">
     <sortCondition ref="E1:E116"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{5F3416CE-966A-4795-9BCA-AA3BD52BEE88}" name="String" dataDxfId="3">
-      <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E2," ",C2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{879AB136-C038-4E43-A902-D3E0CE40C33D}" name="Alternative IDs" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{0B702CF2-0F7A-438C-A56F-83AAF71D7A09}" name="Remarks" dataDxfId="7"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3179,9 +3040,9 @@
     <tableColumn id="1" xr3:uid="{2C93214C-6D39-48BD-AAF6-A27D6B9C4E71}" name="Lookup">
       <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3504,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3520,12 +3381,9 @@
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
-    <col min="12" max="12" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>421</v>
       </c>
@@ -3553,17 +3411,8 @@
       <c r="I1" t="s">
         <v>429</v>
       </c>
-      <c r="J1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K1" t="s">
-        <v>594</v>
-      </c>
-      <c r="L1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="32.25" thickBot="1">
+    </row>
+    <row r="2" spans="1:9" ht="32.25" thickBot="1">
       <c r="A2" s="4">
         <v>14</v>
       </c>
@@ -3588,17 +3437,11 @@
       <c r="H2" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="J2" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E2," ",C2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I2" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="4">
         <v>15</v>
       </c>
@@ -3623,17 +3466,11 @@
       <c r="H3" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="J3" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E3," ",C3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="32.25" thickBot="1">
+      <c r="I3" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" thickBot="1">
       <c r="A4" s="4">
         <v>12</v>
       </c>
@@ -3656,19 +3493,13 @@
         <v>164</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="J4" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E4," ",C4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1">
       <c r="A5" s="4">
         <v>25</v>
       </c>
@@ -3691,19 +3522,13 @@
         <v>164</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="J5" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E5," ",C5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="32.25" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" thickBot="1">
       <c r="A6" s="4">
         <v>9</v>
       </c>
@@ -3726,19 +3551,13 @@
         <v>356</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="J6" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E6," ",C6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" thickBot="1">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -3761,19 +3580,13 @@
         <v>357</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="J7" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E7," ",C7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" thickBot="1">
       <c r="A8" s="4">
         <v>13</v>
       </c>
@@ -3796,19 +3609,13 @@
         <v>201</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="J8" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E8," ",C8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1">
       <c r="A9" s="4">
         <v>37</v>
       </c>
@@ -3831,19 +3638,13 @@
         <v>164</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I9" s="9">
+        <v>759</v>
+      </c>
+      <c r="I9" s="8">
         <v>440326</v>
       </c>
-      <c r="J9" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E9," ",C9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -3866,19 +3667,13 @@
         <v>345</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="J10" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E10," ",C10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1">
       <c r="A11" s="4">
         <v>26</v>
       </c>
@@ -3903,15 +3698,9 @@
       <c r="H11" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E11," ",C11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1">
       <c r="A12" s="4">
         <v>34</v>
       </c>
@@ -3936,15 +3725,9 @@
       <c r="H12" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E12," ",C12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -3967,19 +3750,13 @@
         <v>164</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="J13" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E13," ",C13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1">
       <c r="A14" s="4">
         <v>38</v>
       </c>
@@ -4002,21 +3779,13 @@
         <v>158</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="J14" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E14," ",C14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4039,19 +3808,13 @@
         <v>59</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="J15" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E15," ",C15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1">
       <c r="A16" s="4">
         <v>26</v>
       </c>
@@ -4074,19 +3837,13 @@
         <v>380</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="J16" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E16," ",C16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" thickBot="1">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -4111,17 +3868,11 @@
       <c r="H17" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="J17" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E17," ",C17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="32.25" thickBot="1">
+      <c r="I17" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32.25" thickBot="1">
       <c r="A18" s="4">
         <v>22</v>
       </c>
@@ -4146,17 +3897,11 @@
       <c r="H18" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="J18" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E18," ",C18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I18" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -4179,19 +3924,13 @@
         <v>164</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="J19" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E19," ",C19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1">
       <c r="A20" s="4">
         <v>29</v>
       </c>
@@ -4214,19 +3953,13 @@
         <v>164</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="J20" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E20," ",C20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="32.25" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32.25" thickBot="1">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -4249,19 +3982,13 @@
         <v>364</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="J21" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E21," ",C21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -4284,19 +4011,13 @@
         <v>367</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="J22" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E22," ",C22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -4319,24 +4040,18 @@
         <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="J23" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E23," ",C23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickBot="1">
       <c r="A24" s="4">
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
@@ -4354,19 +4069,13 @@
         <v>384</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="J24" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E24," ",C24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickBot="1">
       <c r="A25" s="4">
         <v>13</v>
       </c>
@@ -4391,17 +4100,11 @@
       <c r="H25" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="J25" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E25," ",C25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I25" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4426,17 +4129,11 @@
       <c r="H26" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="J26" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E26," ",C26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I26" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -4459,19 +4156,13 @@
         <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="J27" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E27," ",C27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -4496,15 +4187,9 @@
       <c r="H28" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E28," ",C28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1">
       <c r="A29" s="4">
         <v>33</v>
       </c>
@@ -4529,15 +4214,9 @@
       <c r="H29" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E29," ",C29)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" thickBot="1">
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" thickBot="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -4560,19 +4239,13 @@
         <v>164</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="J30" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E30," ",C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" thickBot="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -4592,20 +4265,14 @@
         <v>328</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E31," ",C31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1">
       <c r="A32" s="4">
         <v>24</v>
       </c>
@@ -4628,19 +4295,13 @@
         <v>164</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="J32" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E32," ",C32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1">
       <c r="A33" s="4">
         <v>21</v>
       </c>
@@ -4663,19 +4324,13 @@
         <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="J33" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E33," ",C33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -4698,22 +4353,16 @@
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E34," ",C34)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="32.25" thickBot="1">
       <c r="A35" s="4">
         <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>89</v>
@@ -4733,22 +4382,16 @@
       <c r="H35" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="J35" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E35," ",C35)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" ht="18.75" thickBot="1">
+      <c r="I35" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" thickBot="1">
       <c r="A36" s="4">
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>65</v>
@@ -4769,21 +4412,15 @@
         <v>426</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="J36" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E36," ",C36)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" ht="16.5" thickBot="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1">
       <c r="A37" s="4">
         <v>18</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>192</v>
@@ -4801,24 +4438,18 @@
         <v>304</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="J37" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E37," ",C37)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1">
       <c r="A38" s="4">
         <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>202</v>
@@ -4836,24 +4467,18 @@
         <v>304</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="J38" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E38," ",C38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" ht="32.25" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="32.25" thickBot="1">
       <c r="A39" s="4">
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>324</v>
@@ -4871,24 +4496,18 @@
         <v>325</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="J39" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E39," ",C39)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1">
       <c r="A40" s="4">
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>358</v>
@@ -4906,24 +4525,18 @@
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="J40" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E40," ",C40)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1">
       <c r="A41" s="4">
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
@@ -4941,19 +4554,13 @@
         <v>4</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="J41" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E41," ",C41)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -4978,15 +4585,9 @@
       <c r="H42" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E42," ",C42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" ht="32.25" thickBot="1">
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" ht="32.25" thickBot="1">
       <c r="A43" s="4">
         <v>24</v>
       </c>
@@ -5011,17 +4612,11 @@
       <c r="H43" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="J43" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E43," ",C43)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I43" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1">
       <c r="A44" s="4">
         <v>9</v>
       </c>
@@ -5044,19 +4639,13 @@
         <v>164</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J44" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E44," ",C44)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1">
       <c r="A45" s="4">
         <v>10</v>
       </c>
@@ -5079,21 +4668,13 @@
         <v>304</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="J45" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E45," ",C45)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -5116,19 +4697,13 @@
         <v>4</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="J46" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E46," ",C46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1">
       <c r="A47" s="4">
         <v>6</v>
       </c>
@@ -5151,19 +4726,13 @@
         <v>52</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="J47" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E47," ",C47)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1">
       <c r="A48" s="4">
         <v>27</v>
       </c>
@@ -5188,17 +4757,11 @@
       <c r="H48" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="J48" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E48," ",C48)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I48" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" thickBot="1">
       <c r="A49" s="4">
         <v>36</v>
       </c>
@@ -5223,17 +4786,11 @@
       <c r="H49" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="J49" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E49," ",C49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I49" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" thickBot="1">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -5258,15 +4815,9 @@
       <c r="H50" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E50," ",C50)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickBot="1">
       <c r="A51" s="4">
         <v>17</v>
       </c>
@@ -5289,19 +4840,13 @@
         <v>180</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="J51" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E51," ",C51)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1">
       <c r="A52" s="4">
         <v>26</v>
       </c>
@@ -5324,19 +4869,13 @@
         <v>332</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="J52" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E52," ",C52)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickBot="1">
       <c r="A53" s="4">
         <v>24</v>
       </c>
@@ -5359,19 +4898,13 @@
         <v>368</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="J53" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E53," ",C53)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="32.25" thickBot="1">
       <c r="A54" s="4">
         <v>30</v>
       </c>
@@ -5394,19 +4927,13 @@
         <v>35</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="J54" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E54," ",C54)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickBot="1">
       <c r="A55" s="4">
         <v>6</v>
       </c>
@@ -5431,17 +4958,11 @@
       <c r="H55" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="J55" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E55," ",C55)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I55" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1">
       <c r="A56" s="4">
         <v>9</v>
       </c>
@@ -5466,19 +4987,11 @@
       <c r="H56" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I56" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="J56" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E56," ",C56)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="10" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="32.25" thickBot="1">
+      <c r="I56" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="32.25" thickBot="1">
       <c r="A57" s="4">
         <v>28</v>
       </c>
@@ -5503,17 +5016,11 @@
       <c r="H57" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="J57" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E57," ",C57)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12" ht="32.25" thickBot="1">
+      <c r="I57" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="32.25" thickBot="1">
       <c r="A58" s="4">
         <v>5</v>
       </c>
@@ -5536,19 +5043,13 @@
         <v>310</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="J58" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E58," ",C58)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -5571,19 +5072,13 @@
         <v>158</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="J59" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E59," ",C59)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -5606,19 +5101,13 @@
         <v>4</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="J60" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E60," ",C60)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="32.25" thickBot="1">
       <c r="A61" s="4">
         <v>27</v>
       </c>
@@ -5639,17 +5128,11 @@
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E61," ",C61)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" ht="32.25" thickBot="1">
       <c r="A62" s="4">
         <v>10</v>
       </c>
@@ -5674,17 +5157,11 @@
       <c r="H62" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="J62" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E62," ",C62)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I62" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1">
       <c r="A63" s="4">
         <v>40</v>
       </c>
@@ -5709,17 +5186,11 @@
       <c r="H63" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="J63" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E63," ",C63)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I63" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1">
       <c r="A64" s="4">
         <v>14</v>
       </c>
@@ -5742,19 +5213,13 @@
         <v>164</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="J64" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E64," ",C64)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" thickBot="1">
       <c r="A65" s="4">
         <v>16</v>
       </c>
@@ -5777,19 +5242,13 @@
         <v>158</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="J65" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E65," ",C65)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -5812,19 +5271,13 @@
         <v>8</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="J66" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E66," ",C66)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" thickBot="1">
       <c r="A67" s="4">
         <v>34</v>
       </c>
@@ -5847,19 +5300,13 @@
         <v>4</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="J67" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E67," ",C67)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="32.25" thickBot="1">
       <c r="A68" s="4">
         <v>12</v>
       </c>
@@ -5884,17 +5331,11 @@
       <c r="H68" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="J68" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E68," ",C68)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I68" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1">
       <c r="A69" s="4">
         <v>21</v>
       </c>
@@ -5920,16 +5361,10 @@
         <v>426</v>
       </c>
       <c r="I69" t="s">
-        <v>456</v>
-      </c>
-      <c r="J69" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E69," ",C69)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" ht="16.5" thickBot="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" thickBot="1">
       <c r="A70" s="4">
         <v>18</v>
       </c>
@@ -5954,17 +5389,11 @@
       <c r="H70" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="J70" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E70," ",C70)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I70" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1">
       <c r="A71" s="4">
         <v>35</v>
       </c>
@@ -5989,17 +5418,11 @@
       <c r="H71" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="J71" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E71," ",C71)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" ht="32.25" thickBot="1">
+      <c r="I71" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="32.25" thickBot="1">
       <c r="A72" s="4">
         <v>11</v>
       </c>
@@ -6022,19 +5445,13 @@
         <v>158</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J72" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E72," ",C72)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" thickBot="1">
       <c r="A73" s="4">
         <v>36</v>
       </c>
@@ -6057,19 +5474,13 @@
         <v>158</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="J73" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E73," ",C73)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" thickBot="1">
       <c r="A74" s="4">
         <v>20</v>
       </c>
@@ -6092,17 +5503,11 @@
         <v>15</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E74," ",C74)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1">
       <c r="A75" s="4">
         <v>32</v>
       </c>
@@ -6125,19 +5530,13 @@
         <v>8</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="J75" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E75," ",C75)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" thickBot="1">
       <c r="A76" s="4">
         <v>20</v>
       </c>
@@ -6160,19 +5559,13 @@
         <v>164</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="J76" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E76," ",C76)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" thickBot="1">
       <c r="A77" s="4">
         <v>22</v>
       </c>
@@ -6195,19 +5588,13 @@
         <v>164</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="J77" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E77," ",C77)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="1:12" ht="32.25" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="32.25" thickBot="1">
       <c r="A78" s="4">
         <v>4</v>
       </c>
@@ -6232,17 +5619,11 @@
       <c r="H78" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="J78" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E78," ",C78)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I78" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" thickBot="1">
       <c r="A79" s="4">
         <v>7</v>
       </c>
@@ -6267,17 +5648,11 @@
       <c r="H79" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I79" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="J79" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E79," ",C79)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I79" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" thickBot="1">
       <c r="A80" s="4">
         <v>6</v>
       </c>
@@ -6300,17 +5675,11 @@
         <v>158</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E80," ",C80)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:12" ht="32.25" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" ht="32.25" thickBot="1">
       <c r="A81" s="4">
         <v>33</v>
       </c>
@@ -6333,19 +5702,13 @@
         <v>158</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="J81" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E81," ",C81)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" thickBot="1">
       <c r="A82" s="4">
         <v>4</v>
       </c>
@@ -6368,17 +5731,11 @@
         <v>4</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E82," ",C82)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickBot="1">
       <c r="A83" s="4">
         <v>22</v>
       </c>
@@ -6401,19 +5758,13 @@
         <v>368</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="J83" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E83," ",C83)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" thickBot="1">
       <c r="A84" s="4">
         <v>17</v>
       </c>
@@ -6438,17 +5789,11 @@
       <c r="H84" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="J84" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E84," ",C84)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I84" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" thickBot="1">
       <c r="A85" s="4">
         <v>23</v>
       </c>
@@ -6473,17 +5818,11 @@
       <c r="H85" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="J85" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E85," ",C85)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I85" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" thickBot="1">
       <c r="A86" s="4">
         <v>27</v>
       </c>
@@ -6506,19 +5845,13 @@
         <v>164</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="J86" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E86," ",C86)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" thickBot="1">
       <c r="A87" s="4">
         <v>34</v>
       </c>
@@ -6541,19 +5874,13 @@
         <v>164</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="J87" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E87," ",C87)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" thickBot="1">
       <c r="A88" s="4">
         <v>18</v>
       </c>
@@ -6576,17 +5903,11 @@
         <v>18</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E88," ",C88)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" thickBot="1">
       <c r="A89" s="4">
         <v>23</v>
       </c>
@@ -6609,19 +5930,13 @@
         <v>377</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="J89" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E89," ",C89)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" thickBot="1">
       <c r="A90" s="4">
         <v>31</v>
       </c>
@@ -6646,17 +5961,11 @@
       <c r="H90" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="8">
         <v>484977</v>
       </c>
-      <c r="J90" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E90," ",C90)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="1:12" ht="32.25" thickBot="1">
+    </row>
+    <row r="91" spans="1:9" ht="32.25" thickBot="1">
       <c r="A91" s="4">
         <v>38</v>
       </c>
@@ -6681,17 +5990,11 @@
       <c r="H91" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="8">
         <v>485222</v>
       </c>
-      <c r="J91" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E91," ",C91)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12" ht="16.5" thickBot="1">
+    </row>
+    <row r="92" spans="1:9" ht="16.5" thickBot="1">
       <c r="A92" s="4">
         <v>30</v>
       </c>
@@ -6714,19 +6017,13 @@
         <v>334</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="J92" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E92," ",C92)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" thickBot="1">
       <c r="A93" s="4">
         <v>35</v>
       </c>
@@ -6749,19 +6046,13 @@
         <v>340</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="J93" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E93," ",C93)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" thickBot="1">
       <c r="A94" s="4">
         <v>17</v>
       </c>
@@ -6784,19 +6075,13 @@
         <v>368</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I94" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="J94" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E94," ",C94)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" thickBot="1">
       <c r="A95" s="4">
         <v>33</v>
       </c>
@@ -6819,19 +6104,13 @@
         <v>391</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="J95" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E95," ",C95)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="32.25" thickBot="1">
       <c r="A96" s="4">
         <v>32</v>
       </c>
@@ -6856,17 +6135,11 @@
       <c r="H96" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="J96" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E96," ",C96)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="1:12" ht="32.25" thickBot="1">
+      <c r="I96" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="32.25" thickBot="1">
       <c r="A97" s="4">
         <v>11</v>
       </c>
@@ -6891,17 +6164,11 @@
       <c r="H97" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I97" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="J97" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E97," ",C97)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I97" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" thickBot="1">
       <c r="A98" s="4">
         <v>42</v>
       </c>
@@ -6926,17 +6193,11 @@
       <c r="H98" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I98" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="J98" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E98," ",C98)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I98" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18.75" thickBot="1">
       <c r="A99" s="4">
         <v>2</v>
       </c>
@@ -6959,17 +6220,13 @@
         <v>304</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E99," ",C99)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" thickBot="1">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -6992,19 +6249,13 @@
         <v>158</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="J100" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E100," ",C100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" thickBot="1">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -7027,17 +6278,11 @@
         <v>1</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E101," ",C101)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="1:12" ht="16.5" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" thickBot="1">
       <c r="A102" s="4">
         <v>35</v>
       </c>
@@ -7060,19 +6305,13 @@
         <v>394</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I102" s="9">
+        <v>760</v>
+      </c>
+      <c r="I102" s="8">
         <v>101211</v>
       </c>
-      <c r="J102" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E102," ",C102)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="1:12" ht="16.5" thickBot="1">
+    </row>
+    <row r="103" spans="1:9" ht="16.5" thickBot="1">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -7097,17 +6336,11 @@
       <c r="H103" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I103" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="J103" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E103," ",C103)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I103" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" thickBot="1">
       <c r="A104" s="4">
         <v>30</v>
       </c>
@@ -7132,19 +6365,11 @@
       <c r="H104" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I104" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="J104" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E104," ",C104)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I104" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" thickBot="1">
       <c r="A105" s="4">
         <v>28</v>
       </c>
@@ -7167,17 +6392,11 @@
         <v>158</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E105," ",C105)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I105" s="9"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" thickBot="1">
       <c r="A106" s="4">
         <v>32</v>
       </c>
@@ -7200,17 +6419,11 @@
         <v>158</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E106," ",C106)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="1:12" ht="32.25" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" spans="1:9" ht="32.25" thickBot="1">
       <c r="A107" s="4">
         <v>31</v>
       </c>
@@ -7233,19 +6446,13 @@
         <v>164</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="J107" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E107," ",C107)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" thickBot="1">
       <c r="A108" s="4">
         <v>2</v>
       </c>
@@ -7270,15 +6477,9 @@
       <c r="H108" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E108," ",C108)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I108" s="9"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" thickBot="1">
       <c r="A109" s="4">
         <v>37</v>
       </c>
@@ -7303,15 +6504,9 @@
       <c r="H109" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E109," ",C109)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" thickBot="1">
       <c r="A110" s="4">
         <v>29</v>
       </c>
@@ -7336,15 +6531,9 @@
       <c r="H110" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E110," ",C110)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" thickBot="1">
       <c r="A111" s="4">
         <v>4</v>
       </c>
@@ -7367,19 +6556,13 @@
         <v>308</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="J111" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E111," ",C111)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="1:12" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" thickBot="1">
       <c r="A112" s="4">
         <v>7</v>
       </c>
@@ -7402,17 +6585,11 @@
         <v>352</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E112," ",C112)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="1:9" ht="32.25" thickBot="1">
       <c r="A113" s="4">
         <v>5</v>
       </c>
@@ -7437,17 +6614,11 @@
       <c r="H113" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I113" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="J113" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E113," ",C113)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I113" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" thickBot="1">
       <c r="A114" s="4">
         <v>16</v>
       </c>
@@ -7472,17 +6643,11 @@
       <c r="H114" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I114" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="J114" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E114," ",C114)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I114" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" thickBot="1">
       <c r="A115" s="4">
         <v>13</v>
       </c>
@@ -7505,19 +6670,13 @@
         <v>4</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="J115" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E115," ",C115)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="1:12" ht="32.25" thickBot="1">
+        <v>760</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="32.25" thickBot="1">
       <c r="A116" s="4">
         <v>29</v>
       </c>
@@ -7540,1300 +6699,1064 @@
         <v>8</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="J116" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E116," ",C116)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-    </row>
-    <row r="117" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="I117" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="J117" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E117," ",C117)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="1:12" ht="16.5" thickBot="1">
+      <c r="I117" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" thickBot="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>771</v>
+      <c r="B118" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="7">
+      <c r="H118" s="12"/>
+      <c r="I118" s="6">
         <v>617239</v>
       </c>
-      <c r="J118" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E118," ",C118)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="1:12" ht="16.5" thickBot="1">
+    </row>
+    <row r="119" spans="1:9" ht="16.5" thickBot="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>771</v>
+      <c r="B119" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="J119" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E119," ",C119)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H119" s="12"/>
+      <c r="I119" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" thickBot="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>771</v>
+      <c r="B120" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="J120" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E120," ",C120)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H120" s="12"/>
+      <c r="I120" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" thickBot="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>771</v>
+      <c r="B121" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="J121" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E121," ",C121)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H121" s="12"/>
+      <c r="I121" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" thickBot="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>771</v>
+      <c r="B122" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="J122" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E122," ",C122)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H122" s="12"/>
+      <c r="I122" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" thickBot="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>771</v>
+      <c r="B123" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="J123" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E123," ",C123)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H123" s="12"/>
+      <c r="I123" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" thickBot="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>771</v>
+      <c r="B124" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="J124" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E124," ",C124)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H124" s="12"/>
+      <c r="I124" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" thickBot="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>771</v>
+      <c r="B125" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="J125" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E125," ",C125)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H125" s="12"/>
+      <c r="I125" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" thickBot="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>771</v>
+      <c r="B126" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="J126" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E126," ",C126)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H126" s="12"/>
+      <c r="I126" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" thickBot="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>771</v>
+      <c r="B127" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="J127" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E127," ",C127)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H127" s="12"/>
+      <c r="I127" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" thickBot="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>771</v>
+      <c r="B128" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="J128" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E128," ",C128)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H128" s="12"/>
+      <c r="I128" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" thickBot="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>771</v>
+      <c r="B129" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="J129" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E129," ",C129)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H129" s="12"/>
+      <c r="I129" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" thickBot="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>771</v>
+      <c r="B130" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="J130" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E130," ",C130)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H130" s="12"/>
+      <c r="I130" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" thickBot="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>771</v>
+      <c r="B131" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="J131" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E131," ",C131)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H131" s="12"/>
+      <c r="I131" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" thickBot="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>771</v>
+      <c r="B132" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="J132" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E132," ",C132)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H132" s="12"/>
+      <c r="I132" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" thickBot="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>771</v>
+      <c r="B133" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="J133" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E133," ",C133)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H133" s="12"/>
+      <c r="I133" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" thickBot="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>771</v>
+      <c r="B134" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="J134" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E134," ",C134)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H134" s="12"/>
+      <c r="I134" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" thickBot="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>771</v>
+      <c r="B135" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="J135" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E135," ",C135)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H135" s="12"/>
+      <c r="I135" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" thickBot="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>771</v>
+      <c r="B136" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="J136" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E136," ",C136)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H136" s="12"/>
+      <c r="I136" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" thickBot="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>771</v>
+      <c r="B137" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="J137" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E137," ",C137)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H137" s="12"/>
+      <c r="I137" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" thickBot="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>771</v>
+      <c r="B138" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="J138" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E138," ",C138)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H138" s="12"/>
+      <c r="I138" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" thickBot="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>771</v>
+      <c r="B139" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="J139" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E139," ",C139)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H139" s="12"/>
+      <c r="I139" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" thickBot="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>771</v>
+      <c r="B140" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="J140" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E140," ",C140)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H140" s="12"/>
+      <c r="I140" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" thickBot="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>771</v>
+      <c r="B141" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="J141" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E141," ",C141)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H141" s="12"/>
+      <c r="I141" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" thickBot="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>771</v>
+      <c r="B142" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="J142" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E142," ",C142)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H142" s="12"/>
+      <c r="I142" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" thickBot="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>771</v>
+      <c r="B143" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="J143" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E143," ",C143)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H143" s="12"/>
+      <c r="I143" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" thickBot="1">
       <c r="A144" s="4"/>
-      <c r="B144" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>771</v>
+      <c r="B144" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J144" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E144," ",C144)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H144" s="12"/>
+      <c r="I144" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" thickBot="1">
       <c r="A145" s="4"/>
-      <c r="B145" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>771</v>
+      <c r="B145" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="J145" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E145," ",C145)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H145" s="12"/>
+      <c r="I145" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" thickBot="1">
       <c r="A146" s="4"/>
-      <c r="B146" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>771</v>
+      <c r="B146" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="J146" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E146," ",C146)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H146" s="12"/>
+      <c r="I146" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" thickBot="1">
       <c r="A147" s="4"/>
-      <c r="B147" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>771</v>
+      <c r="B147" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="J147" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E147," ",C147)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H147" s="12"/>
+      <c r="I147" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" thickBot="1">
       <c r="A148" s="4"/>
-      <c r="B148" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>771</v>
+      <c r="B148" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="J148" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E148," ",C148)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H148" s="12"/>
+      <c r="I148" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" thickBot="1">
       <c r="A149" s="4"/>
-      <c r="B149" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>771</v>
+      <c r="B149" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="J149" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E149," ",C149)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H149" s="12"/>
+      <c r="I149" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" thickBot="1">
       <c r="A150" s="4"/>
-      <c r="B150" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>771</v>
+      <c r="B150" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="7">
+      <c r="H150" s="12"/>
+      <c r="I150" s="6">
         <v>524435</v>
       </c>
-      <c r="J150" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E150," ",C150)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K150" s="8"/>
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="1:12" ht="16.5" thickBot="1">
+    </row>
+    <row r="151" spans="1:9" ht="16.5" thickBot="1">
       <c r="A151" s="4"/>
-      <c r="B151" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>771</v>
+      <c r="B151" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="J151" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E151," ",C151)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H151" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" thickBot="1">
       <c r="A152" s="4"/>
-      <c r="B152" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>771</v>
+      <c r="B152" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="J152" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E152," ",C152)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="1:12" ht="16.5" thickBot="1">
+      <c r="H152" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" thickBot="1">
       <c r="A153" s="4"/>
-      <c r="B153" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>771</v>
+      <c r="B153" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="J153" s="10" t="e">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",#REF!,",",E153," ",C153)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="15.75">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" spans="1:12" ht="15.75">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-    </row>
-    <row r="156" spans="1:12" ht="15.75">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" spans="1:12" ht="15.75">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-    </row>
-    <row r="158" spans="1:12" ht="15.75">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-    </row>
-    <row r="159" spans="1:12" ht="15.75">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-    </row>
-    <row r="160" spans="1:12" ht="15.75">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15.75">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:9" ht="15.75">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="1:9" ht="15.75">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.75">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" spans="1:9" ht="15.75">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="1:9" ht="15.75">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8" ht="15.75">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8" ht="15.75">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8" ht="15.75">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8" ht="15.75">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8" ht="15.75">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8" ht="15.75">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" ht="15.75">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8" ht="15.75">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8" ht="15.75">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8" ht="15.75">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8" ht="15.75">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8" ht="15.75">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8" ht="15.75">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8" ht="15.75">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8" ht="15.75">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8" ht="15.75">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
     </row>
     <row r="177" spans="1:8" ht="15.75">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
     </row>
     <row r="178" spans="1:8" ht="15.75">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
     </row>
     <row r="179" spans="1:8" ht="15.75">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
     </row>
     <row r="180" spans="1:8" ht="15.75">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
     </row>
     <row r="181" spans="1:8" ht="15.75">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
     </row>
     <row r="182" spans="1:8" ht="15.75">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
     </row>
     <row r="183" spans="1:8" ht="15.75">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
     </row>
     <row r="184" spans="1:8" ht="15.75">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
     </row>
     <row r="185" spans="1:8" ht="15.75">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
     </row>
     <row r="186" spans="1:8" ht="15.75">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
     </row>
     <row r="187" spans="1:8" ht="15.75">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
     </row>
     <row r="188" spans="1:8" ht="15.75">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
     </row>
     <row r="189" spans="1:8" ht="15.75">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
     </row>
     <row r="190" spans="1:8" ht="15.75">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
     </row>
     <row r="191" spans="1:8" ht="15.75">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
     </row>
     <row r="192" spans="1:8" ht="15.75">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-    </row>
-    <row r="193" spans="1:12" ht="15.75">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
-      <c r="K193" s="8"/>
-      <c r="L193" s="8"/>
-    </row>
-    <row r="194" spans="1:12" ht="15.75">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="8"/>
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+    </row>
+    <row r="193" spans="1:9" ht="15.75">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" ht="15.75">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I69">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I193:I1048576 I1:I153">
+  <conditionalFormatting sqref="I193:I1048576 I1:I98 I100:I153">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8863,10 +7786,10 @@
         <v>422</v>
       </c>
       <c r="B1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D1" t="s">
         <v>427</v>
@@ -8878,7 +7801,7 @@
         <v>425</v>
       </c>
       <c r="G1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1" t="s">
         <v>429</v>
@@ -8886,13 +7809,13 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s">
         <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
         <v>395</v>
@@ -8901,38 +7824,38 @@
         <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
         <v>409</v>
       </c>
       <c r="G3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B4" t="s">
         <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F4" t="s">
         <v>408</v>
@@ -8941,58 +7864,58 @@
         <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F5" t="s">
         <v>411</v>
       </c>
       <c r="G5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F6" t="s">
         <v>398</v>
       </c>
       <c r="G6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B7" t="s">
         <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F7" t="s">
         <v>401</v>
@@ -9001,18 +7924,18 @@
         <v>196</v>
       </c>
       <c r="H7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B8" t="s">
         <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F8" t="s">
         <v>398</v>
@@ -9021,47 +7944,47 @@
         <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F9" t="s">
         <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F10" t="s">
         <v>413</v>
       </c>
       <c r="G10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U10" t="str">
         <f>LEFT(P10,2)</f>
@@ -9070,22 +7993,22 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F11" t="s">
         <v>414</v>
       </c>
       <c r="G11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" ref="U11:U43" si="0">LEFT(P11,2)</f>
@@ -9094,19 +8017,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B12">
         <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F12" t="s">
         <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H12">
         <v>405841</v>
@@ -9118,22 +8041,22 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
         <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F13" t="s">
         <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="0"/>
@@ -9142,22 +8065,22 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B14" t="s">
         <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F14" t="s">
         <v>402</v>
       </c>
       <c r="G14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="0"/>
@@ -9166,13 +8089,13 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F15" t="s">
         <v>402</v>
@@ -9181,7 +8104,7 @@
         <v>208</v>
       </c>
       <c r="H15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="0"/>
@@ -9190,13 +8113,13 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B16" t="s">
         <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F16" t="s">
         <v>416</v>
@@ -9205,7 +8128,7 @@
         <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="0"/>
@@ -9214,19 +8137,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F17" t="s">
         <v>395</v>
       </c>
       <c r="G17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="0"/>
@@ -9235,22 +8158,22 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F18" t="s">
         <v>408</v>
       </c>
       <c r="G18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L18" s="3"/>
       <c r="U18" t="str">
@@ -9260,7 +8183,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -9275,7 +8198,7 @@
         <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="0"/>
@@ -9284,22 +8207,22 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F20" t="s">
         <v>399</v>
       </c>
       <c r="G20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="0"/>
@@ -9308,22 +8231,22 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F21" t="s">
         <v>419</v>
       </c>
       <c r="G21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="0"/>
@@ -9332,13 +8255,13 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B22" t="s">
         <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
         <v>408</v>
@@ -9347,7 +8270,7 @@
         <v>329</v>
       </c>
       <c r="H22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="0"/>
@@ -9356,13 +8279,13 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F23" t="s">
         <v>416</v>
@@ -9371,7 +8294,7 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="0"/>
@@ -9380,13 +8303,13 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B24" t="s">
         <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F24" t="s">
         <v>396</v>
@@ -9395,7 +8318,7 @@
         <v>214</v>
       </c>
       <c r="H24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
@@ -9404,13 +8327,13 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F25" t="s">
         <v>411</v>
@@ -9419,7 +8342,7 @@
         <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="0"/>
@@ -9428,22 +8351,22 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F26" t="s">
         <v>419</v>
       </c>
       <c r="G26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="0"/>
@@ -9452,22 +8375,22 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F27" t="s">
         <v>409</v>
       </c>
       <c r="G27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="0"/>
@@ -9476,13 +8399,13 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F28" t="s">
         <v>414</v>
@@ -9491,7 +8414,7 @@
         <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
@@ -9500,22 +8423,22 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B29" t="s">
         <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F29" t="s">
         <v>406</v>
       </c>
       <c r="G29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="0"/>
@@ -9524,22 +8447,22 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F30" t="s">
         <v>407</v>
       </c>
       <c r="G30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="0"/>
@@ -9548,13 +8471,13 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B31" t="s">
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F31" t="s">
         <v>396</v>
@@ -9563,7 +8486,7 @@
         <v>162</v>
       </c>
       <c r="H31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="0"/>
@@ -9572,22 +8495,22 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B32" t="s">
         <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F32" t="s">
         <v>401</v>
       </c>
       <c r="G32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="0"/>
@@ -9596,13 +8519,13 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B33" t="s">
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F33" t="s">
         <v>399</v>
@@ -9611,7 +8534,7 @@
         <v>160</v>
       </c>
       <c r="H33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="0"/>
@@ -9620,13 +8543,13 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B34" t="s">
         <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F34" t="s">
         <v>406</v>
@@ -9635,7 +8558,7 @@
         <v>204</v>
       </c>
       <c r="H34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="0"/>
@@ -9644,13 +8567,13 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B35" t="s">
         <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F35" t="s">
         <v>407</v>
@@ -9659,7 +8582,7 @@
         <v>157</v>
       </c>
       <c r="H35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="0"/>
@@ -9668,10 +8591,10 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B36" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E36" t="s">
         <v>426</v>
@@ -9683,7 +8606,7 @@
         <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="0"/>
@@ -9692,7 +8615,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B37" t="s">
         <v>145</v>
@@ -9704,10 +8627,10 @@
         <v>401</v>
       </c>
       <c r="G37" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H37" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="0"/>
@@ -9716,22 +8639,22 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B38" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E38" t="s">
         <v>426</v>
       </c>
       <c r="F38" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G38" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H38" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
@@ -9740,7 +8663,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B39" t="s">
         <v>98</v>
@@ -9755,7 +8678,7 @@
         <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="0"/>
@@ -9764,7 +8687,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B40" t="s">
         <v>109</v>
@@ -9776,10 +8699,10 @@
         <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="H40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="0"/>
@@ -9788,10 +8711,10 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B41" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E41" t="s">
         <v>426</v>
@@ -9800,10 +8723,10 @@
         <v>414</v>
       </c>
       <c r="G41" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="H41" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="0"/>
@@ -9812,7 +8735,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
@@ -9824,10 +8747,10 @@
         <v>398</v>
       </c>
       <c r="G42" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="H42" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="0"/>
@@ -9836,7 +8759,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B43" t="s">
         <v>105</v>
@@ -9851,7 +8774,7 @@
         <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="0"/>
@@ -9860,7 +8783,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B44">
         <v>311</v>
@@ -9872,10 +8795,10 @@
         <v>411</v>
       </c>
       <c r="G44" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="H44" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" ref="U44:U49" si="1">LEFT(P44,2)</f>
@@ -9884,10 +8807,10 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B45" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E45" t="s">
         <v>426</v>
@@ -9896,10 +8819,10 @@
         <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="H45" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="1"/>
@@ -9908,7 +8831,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -9923,7 +8846,7 @@
         <v>194</v>
       </c>
       <c r="H46" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="1"/>
@@ -9932,7 +8855,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B47">
         <v>364</v>
@@ -9944,10 +8867,10 @@
         <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H47" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="1"/>
@@ -9956,7 +8879,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B48" t="s">
         <v>123</v>
@@ -9971,7 +8894,7 @@
         <v>124</v>
       </c>
       <c r="H48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="1"/>
@@ -9980,10 +8903,10 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B49" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E49" t="s">
         <v>426</v>
@@ -9995,7 +8918,7 @@
         <v>248</v>
       </c>
       <c r="H49" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="1"/>
@@ -10004,7 +8927,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B50">
         <v>212</v>
@@ -10016,15 +8939,15 @@
         <v>403</v>
       </c>
       <c r="G50" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="H50" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B51" t="s">
         <v>96</v>
@@ -10039,12 +8962,12 @@
         <v>97</v>
       </c>
       <c r="H51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B52" t="s">
         <v>140</v>
@@ -10059,15 +8982,15 @@
         <v>262</v>
       </c>
       <c r="H52" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B53" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E53" t="s">
         <v>426</v>
@@ -10076,18 +8999,18 @@
         <v>406</v>
       </c>
       <c r="G53" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H53" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B54" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E54" t="s">
         <v>426</v>
@@ -10096,18 +9019,18 @@
         <v>411</v>
       </c>
       <c r="G54" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="H54" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B55" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E55" t="s">
         <v>426</v>
@@ -10116,15 +9039,15 @@
         <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="H55" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B56" t="s">
         <v>115</v>
@@ -10139,15 +9062,15 @@
         <v>116</v>
       </c>
       <c r="H56" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B57" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E57" t="s">
         <v>426</v>
@@ -10156,35 +9079,35 @@
         <v>409</v>
       </c>
       <c r="G57" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="H57" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B58" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E58" t="s">
         <v>426</v>
       </c>
       <c r="F58" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G58" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="H58" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B59" t="s">
         <v>134</v>
@@ -10199,12 +9122,12 @@
         <v>135</v>
       </c>
       <c r="H59" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B60" t="s">
         <v>152</v>
@@ -10216,15 +9139,15 @@
         <v>419</v>
       </c>
       <c r="G60" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="H60" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B61">
         <v>44</v>
@@ -10236,18 +9159,18 @@
         <v>412</v>
       </c>
       <c r="G61" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="H61" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B62" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E62" t="s">
         <v>426</v>
@@ -10256,15 +9179,15 @@
         <v>419</v>
       </c>
       <c r="G62" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H62" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -10279,32 +9202,32 @@
         <v>216</v>
       </c>
       <c r="H63" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B64" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E64" t="s">
         <v>426</v>
       </c>
       <c r="F64" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G64" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="H64" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
@@ -10319,12 +9242,12 @@
         <v>285</v>
       </c>
       <c r="H65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B66" t="s">
         <v>113</v>
@@ -10336,15 +9259,15 @@
         <v>408</v>
       </c>
       <c r="G66" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="H66" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
@@ -10356,15 +9279,15 @@
         <v>407</v>
       </c>
       <c r="G67" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="H67" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B68" t="s">
         <v>139</v>
@@ -10376,15 +9299,15 @@
         <v>408</v>
       </c>
       <c r="G68" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="H68" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B69" t="s">
         <v>103</v>
@@ -10399,15 +9322,15 @@
         <v>104</v>
       </c>
       <c r="H69" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B70" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E70" t="s">
         <v>426</v>
@@ -10419,12 +9342,12 @@
         <v>34</v>
       </c>
       <c r="H70" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B71">
         <v>24</v>
@@ -10436,15 +9359,15 @@
         <v>402</v>
       </c>
       <c r="G71" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H71" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
@@ -10456,15 +9379,15 @@
         <v>396</v>
       </c>
       <c r="G72" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="H72" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B73" t="s">
         <v>111</v>
@@ -10479,12 +9402,12 @@
         <v>112</v>
       </c>
       <c r="H73" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
@@ -10496,15 +9419,15 @@
         <v>404</v>
       </c>
       <c r="G74" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="H74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B75" t="s">
         <v>92</v>
@@ -10519,18 +9442,18 @@
         <v>301</v>
       </c>
       <c r="H75" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E76" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F76" t="s">
         <v>417</v>
@@ -10539,18 +9462,18 @@
         <v>63</v>
       </c>
       <c r="H76" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B77">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F77" t="s">
         <v>398</v>
@@ -10559,18 +9482,18 @@
         <v>79</v>
       </c>
       <c r="H77" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E78" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F78" t="s">
         <v>399</v>
@@ -10579,78 +9502,78 @@
         <v>187</v>
       </c>
       <c r="H78" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E79" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F79" t="s">
         <v>419</v>
       </c>
       <c r="G79" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="H79" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E80" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F80" t="s">
         <v>407</v>
       </c>
       <c r="G80" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="H80" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E81" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F81" t="s">
         <v>401</v>
       </c>
       <c r="G81" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="H81" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F82" t="s">
         <v>411</v>
@@ -10659,58 +9582,58 @@
         <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B83" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E83" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F83" t="s">
         <v>399</v>
       </c>
       <c r="G83" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="H83" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B84" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E84" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F84" t="s">
         <v>401</v>
       </c>
       <c r="G84" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F85" t="s">
         <v>395</v>
@@ -10724,53 +9647,53 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F86" t="s">
         <v>414</v>
       </c>
       <c r="G86" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="H86" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B87" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E87" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F87" t="s">
         <v>413</v>
       </c>
       <c r="G87" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="H87" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F88" t="s">
         <v>402</v>
@@ -10779,84 +9702,84 @@
         <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B89" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E89" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F89" t="s">
         <v>408</v>
       </c>
       <c r="G89" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="H89" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B90" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E90" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F90" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G90" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="H90" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B91">
         <v>77</v>
       </c>
       <c r="E91" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F91" t="s">
         <v>403</v>
       </c>
       <c r="G91" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H91" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B92">
         <v>85</v>
       </c>
       <c r="E92" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F92" t="s">
         <v>403</v>
       </c>
       <c r="G92" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H92">
         <v>405763</v>
@@ -10864,13 +9787,13 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F93" t="s">
         <v>406</v>
@@ -10879,18 +9802,18 @@
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F94" t="s">
         <v>420</v>
@@ -10899,18 +9822,18 @@
         <v>44</v>
       </c>
       <c r="H94" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F95" t="s">
         <v>408</v>
@@ -10919,38 +9842,38 @@
         <v>373</v>
       </c>
       <c r="H95" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B96" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="E96" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F96" t="s">
         <v>398</v>
       </c>
       <c r="G96" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="H96" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F97" t="s">
         <v>406</v>
@@ -10959,78 +9882,78 @@
         <v>376</v>
       </c>
       <c r="H97" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B98" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E98" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F98" t="s">
         <v>409</v>
       </c>
       <c r="G98" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="H98" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B99" t="s">
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F99" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G99" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="H99" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E100" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F100" t="s">
         <v>402</v>
       </c>
       <c r="G100" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="H100" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F101" t="s">
         <v>407</v>
@@ -11039,38 +9962,38 @@
         <v>389</v>
       </c>
       <c r="H101" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B102">
         <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F102" t="s">
         <v>414</v>
       </c>
       <c r="G102" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="H102" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B103" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E103" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F103" t="s">
         <v>409</v>
@@ -11079,18 +10002,18 @@
         <v>65</v>
       </c>
       <c r="H103" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F104" t="s">
         <v>395</v>
@@ -11103,227 +10026,227 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
-      <c r="H106" s="7" t="s">
-        <v>456</v>
+      <c r="H106" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
-      <c r="H107" s="7" t="s">
-        <v>531</v>
+      <c r="H107" s="6" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
-      <c r="H108" s="8"/>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8" ht="15.75">
-      <c r="H109" s="7" t="s">
-        <v>539</v>
+      <c r="H109" s="6" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
-      <c r="H110" s="8"/>
+      <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8" ht="15.75">
-      <c r="H111" s="7" t="s">
-        <v>553</v>
+      <c r="H111" s="6" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
-      <c r="H112" s="8"/>
+      <c r="H112" s="7"/>
     </row>
     <row r="113" spans="8:8" ht="15.75">
-      <c r="H113" s="7">
+      <c r="H113" s="6">
         <v>617239</v>
       </c>
     </row>
     <row r="114" spans="8:8" ht="15.75">
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8" ht="15.75">
+      <c r="H115" s="6" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="115" spans="8:8" ht="15.75">
-      <c r="H115" s="7" t="s">
+    <row r="116" spans="8:8" ht="15.75">
+      <c r="H116" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="116" spans="8:8" ht="15.75">
-      <c r="H116" s="7" t="s">
+    <row r="117" spans="8:8" ht="15.75">
+      <c r="H117" s="6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="117" spans="8:8" ht="15.75">
-      <c r="H117" s="7" t="s">
+    <row r="118" spans="8:8" ht="15.75">
+      <c r="H118" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="118" spans="8:8" ht="15.75">
-      <c r="H118" s="7" t="s">
+    <row r="119" spans="8:8" ht="15.75">
+      <c r="H119" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="119" spans="8:8" ht="15.75">
-      <c r="H119" s="7" t="s">
+    <row r="120" spans="8:8" ht="15.75">
+      <c r="H120" s="6" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="120" spans="8:8" ht="15.75">
-      <c r="H120" s="7" t="s">
+    <row r="121" spans="8:8" ht="15.75">
+      <c r="H121" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="8:8" ht="15.75">
-      <c r="H121" s="7" t="s">
+    <row r="122" spans="8:8" ht="15.75">
+      <c r="H122" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="122" spans="8:8" ht="15.75">
-      <c r="H122" s="7" t="s">
+    <row r="123" spans="8:8" ht="15.75">
+      <c r="H123" s="6" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="123" spans="8:8" ht="15.75">
-      <c r="H123" s="7" t="s">
+    <row r="124" spans="8:8" ht="15.75">
+      <c r="H124" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="124" spans="8:8" ht="15.75">
-      <c r="H124" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
     <row r="125" spans="8:8" ht="15.75">
-      <c r="H125" s="7" t="s">
+      <c r="H125" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8" ht="15.75">
+      <c r="H126" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="126" spans="8:8" ht="15.75">
-      <c r="H126" s="7" t="s">
+    <row r="127" spans="8:8" ht="15.75">
+      <c r="H127" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="127" spans="8:8" ht="15.75">
-      <c r="H127" s="7" t="s">
+    <row r="128" spans="8:8" ht="15.75">
+      <c r="H128" s="6" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="128" spans="8:8" ht="15.75">
-      <c r="H128" s="7" t="s">
+    <row r="129" spans="8:8" ht="15.75">
+      <c r="H129" s="6" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="129" spans="8:8" ht="15.75">
-      <c r="H129" s="7" t="s">
+    <row r="130" spans="8:8" ht="15.75">
+      <c r="H130" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="130" spans="8:8" ht="15.75">
-      <c r="H130" s="7" t="s">
+    <row r="131" spans="8:8" ht="15.75">
+      <c r="H131" s="6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="131" spans="8:8" ht="15.75">
-      <c r="H131" s="7" t="s">
+    <row r="132" spans="8:8" ht="15.75">
+      <c r="H132" s="6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="132" spans="8:8" ht="15.75">
-      <c r="H132" s="7" t="s">
+    <row r="133" spans="8:8" ht="15.75">
+      <c r="H133" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="133" spans="8:8" ht="15.75">
-      <c r="H133" s="7" t="s">
+    <row r="134" spans="8:8" ht="15.75">
+      <c r="H134" s="6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="134" spans="8:8" ht="15.75">
-      <c r="H134" s="7" t="s">
+    <row r="135" spans="8:8" ht="15.75">
+      <c r="H135" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="135" spans="8:8" ht="15.75">
-      <c r="H135" s="7" t="s">
+    <row r="136" spans="8:8" ht="15.75">
+      <c r="H136" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="136" spans="8:8" ht="15.75">
-      <c r="H136" s="7" t="s">
+    <row r="137" spans="8:8" ht="15.75">
+      <c r="H137" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="137" spans="8:8" ht="15.75">
-      <c r="H137" s="7" t="s">
+    <row r="138" spans="8:8" ht="15.75">
+      <c r="H138" s="6" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="138" spans="8:8" ht="15.75">
-      <c r="H138" s="7" t="s">
+    <row r="139" spans="8:8" ht="15.75">
+      <c r="H139" s="6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="8:8" ht="15.75">
-      <c r="H139" s="7" t="s">
+    <row r="140" spans="8:8" ht="15.75">
+      <c r="H140" s="6" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="140" spans="8:8" ht="15.75">
-      <c r="H140" s="7" t="s">
+    <row r="141" spans="8:8" ht="15.75">
+      <c r="H141" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="141" spans="8:8" ht="15.75">
-      <c r="H141" s="7" t="s">
+    <row r="142" spans="8:8" ht="15.75">
+      <c r="H142" s="6" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="142" spans="8:8" ht="15.75">
-      <c r="H142" s="7" t="s">
+    <row r="143" spans="8:8" ht="15.75">
+      <c r="H143" s="6" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="143" spans="8:8" ht="15.75">
-      <c r="H143" s="7" t="s">
+    <row r="144" spans="8:8" ht="15.75">
+      <c r="H144" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="144" spans="8:8" ht="15.75">
-      <c r="H144" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
     <row r="145" spans="8:8" ht="15.75">
-      <c r="H145" s="7">
+      <c r="H145" s="6">
         <v>524435</v>
       </c>
     </row>
     <row r="146" spans="8:8" ht="15.75">
-      <c r="H146" s="7" t="s">
-        <v>601</v>
+      <c r="H146" s="6" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="147" spans="8:8" ht="15.75">
-      <c r="H147" s="7" t="s">
-        <v>609</v>
+      <c r="H147" s="6" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="8:8" ht="15.75">
-      <c r="H148" s="7" t="s">
-        <v>613</v>
+      <c r="H148" s="6" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="149" spans="8:8" ht="15.75">
-      <c r="H149" s="7" t="s">
+      <c r="H149" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="150" spans="8:8" ht="15.75">
+      <c r="H150" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="151" spans="8:8" ht="15.75">
+      <c r="H151" s="6" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="150" spans="8:8" ht="15.75">
-      <c r="H150" s="7" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="151" spans="8:8" ht="15.75">
-      <c r="H151" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -11353,13 +10276,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" t="s">
         <v>526</v>
       </c>
-      <c r="B1" t="s">
-        <v>527</v>
-      </c>
       <c r="C1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D1" t="s">
         <v>425</v>
@@ -11371,7 +10294,7 @@
         <v>RomaniaROM🇷🇴</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>224</v>
@@ -11386,7 +10309,7 @@
         <v>SloveniaSLO🇸🇮</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>226</v>
@@ -11401,7 +10324,7 @@
         <v>DenmarkDEN🇩🇰</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>229</v>
@@ -11416,7 +10339,7 @@
         <v>ItalyITA🇮🇹</v>
       </c>
       <c r="B5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>231</v>
@@ -11431,7 +10354,7 @@
         <v>United StatesUSA🇺🇸</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>233</v>
@@ -11446,7 +10369,7 @@
         <v>FranceFRA🇫🇷</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>236</v>
@@ -11461,7 +10384,7 @@
         <v>BelgiumBEL🇧🇪</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>241</v>
@@ -11476,7 +10399,7 @@
         <v>Great BritainGBR🇬🇧</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>244</v>
@@ -11491,7 +10414,7 @@
         <v>PolandPOL🇵🇱</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>246</v>
@@ -11506,7 +10429,7 @@
         <v>CroatiaCRO🇭🇷</v>
       </c>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>249</v>
@@ -11521,7 +10444,7 @@
         <v>SwizerlandSUI🇨🇭</v>
       </c>
       <c r="B12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>251</v>
@@ -11536,7 +10459,7 @@
         <v>ArgentiniaARG🇦🇷</v>
       </c>
       <c r="B13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>254</v>
@@ -11551,7 +10474,7 @@
         <v>LithuaniaLTU🇱🇹</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>259</v>
@@ -11566,7 +10489,7 @@
         <v>HungaryHUN🇭🇺</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>156</v>
@@ -11581,7 +10504,7 @@
         <v>Czech RepublicCZE🇨🇿</v>
       </c>
       <c r="B16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>266</v>
@@ -11596,7 +10519,7 @@
         <v>GermanyGER🇩🇪</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>268</v>
@@ -11626,7 +10549,7 @@
         <v>SpainESP🇪🇸</v>
       </c>
       <c r="B19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>279</v>
@@ -11641,7 +10564,7 @@
         <v>SlovakiaSVK🇸🇰</v>
       </c>
       <c r="B20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>282</v>
@@ -11656,7 +10579,7 @@
         <v>NetherlandsNED🇳🇱</v>
       </c>
       <c r="B21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>287</v>
@@ -11671,7 +10594,7 @@
         <v>New ZealandNZL🇳🇿</v>
       </c>
       <c r="B22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>290</v>
@@ -11686,7 +10609,7 @@
         <v>FinnlandFIN🇫🇮</v>
       </c>
       <c r="B23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>296</v>
@@ -11701,7 +10624,7 @@
         <v>AustriaAUT🇦🇹</v>
       </c>
       <c r="B24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>317</v>
@@ -11716,7 +10639,7 @@
         <v>IsraelISR🇮🇱</v>
       </c>
       <c r="B25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>322</v>
@@ -11731,7 +10654,7 @@
         <v>SwedenSWE🇸🇪</v>
       </c>
       <c r="B26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>335</v>
@@ -11746,7 +10669,7 @@
         <v>BrasilBRA🇧🇷</v>
       </c>
       <c r="B27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>369</v>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3FB49A-3EC6-48DA-BAEC-42C8F24C5443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE93A0-9DB0-4E1B-9E22-DED2313BB919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="28680" yWindow="-10095" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="778">
   <si>
     <t>ZJ</t>
   </si>
@@ -82,9 +82,6 @@
     <t>LSR Aalen</t>
   </si>
   <si>
-    <t>HAB</t>
-  </si>
-  <si>
     <t>JS-MD3</t>
   </si>
   <si>
@@ -2354,6 +2351,27 @@
   </si>
   <si>
     <t>D02AAE</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>D012AC</t>
+  </si>
+  <si>
+    <t>D0018B</t>
+  </si>
+  <si>
+    <t>D00E2E</t>
+  </si>
+  <si>
+    <t>D00E16</t>
+  </si>
+  <si>
+    <t>D00081</t>
+  </si>
+  <si>
+    <t>DDDD0F</t>
   </si>
 </sst>
 </file>
@@ -2997,7 +3015,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:I153" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A1:I153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+  <autoFilter ref="A1:I153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I116">
     <sortCondition ref="E1:E116"/>
   </sortState>
@@ -3368,7 +3390,7 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3385,292 +3407,292 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
         <v>421</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>422</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>423</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>424</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>425</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>426</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>427</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>428</v>
       </c>
-      <c r="I1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="32.25" thickBot="1">
+    </row>
+    <row r="2" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A2" s="4">
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A3" s="4">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32.25" thickBot="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A4" s="4">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A5" s="4">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" thickBot="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A6" s="4">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" thickBot="1">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A7" s="4">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" thickBot="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A8" s="4">
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A9" s="4">
         <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I9" s="8">
         <v>440326</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
@@ -3678,25 +3700,25 @@
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I11" s="9"/>
     </row>
@@ -3705,116 +3727,116 @@
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A14" s="4">
         <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A16" s="4">
         <v>26</v>
       </c>
@@ -3825,341 +3847,341 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="32.25" thickBot="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A17" s="4">
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="32.25" thickBot="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A18" s="4">
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A20" s="4">
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="32.25" thickBot="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A21" s="4">
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A22" s="4">
         <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A23" s="4">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D23" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A24" s="4">
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>384</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A25" s="4">
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
@@ -4167,167 +4189,171 @@
         <v>19</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1">
+    <row r="29" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A29" s="4">
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" thickBot="1">
+        <v>425</v>
+      </c>
+      <c r="I29" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" hidden="1" thickBot="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A31" s="4">
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1">
+        <v>758</v>
+      </c>
+      <c r="I31" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A32" s="4">
         <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A33" s="4">
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
@@ -4335,217 +4361,217 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" ht="32.25" thickBot="1">
+    <row r="35" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A35" s="4">
         <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" thickBot="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" hidden="1" thickBot="1">
       <c r="A36" s="4">
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A37" s="4">
         <v>18</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A38" s="4">
         <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="32.25" thickBot="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A39" s="4">
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A40" s="4">
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A41" s="4">
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4554,10 +4580,10 @@
         <v>4</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
@@ -4565,116 +4591,116 @@
         <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="H42" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" ht="32.25" thickBot="1">
+    <row r="43" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A43" s="4">
         <v>24</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A44" s="4">
         <v>9</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A45" s="4">
         <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="G45" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -4682,57 +4708,57 @@
         <v>14</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A47" s="4">
         <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="H47" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A48" s="4">
         <v>27</v>
       </c>
@@ -4740,399 +4766,405 @@
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A49" s="4">
         <v>36</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D49" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A50" s="4">
         <v>41</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1">
+        <v>425</v>
+      </c>
+      <c r="I50" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A51" s="4">
         <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="H51" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A52" s="4">
         <v>26</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="G52" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A53" s="4">
         <v>24</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="32.25" thickBot="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A54" s="4">
         <v>30</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H54" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A55" s="4">
         <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D55" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H55" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A56" s="4">
         <v>9</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="G56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="32.25" thickBot="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A57" s="4">
         <v>28</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="32.25" thickBot="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A58" s="4">
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A59" s="4">
         <v>8</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A60" s="4">
         <v>2</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D60" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="32.25" thickBot="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A61" s="4">
         <v>27</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="H61" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" ht="32.25" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I61" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A62" s="4">
         <v>10</v>
       </c>
@@ -5140,57 +5172,57 @@
         <v>194</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A63" s="4">
         <v>40</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A64" s="4">
         <v>14</v>
       </c>
@@ -5198,28 +5230,28 @@
         <v>352</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A65" s="4">
         <v>16</v>
       </c>
@@ -5227,57 +5259,57 @@
         <v>6</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A66" s="4">
         <v>1</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" thickBot="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A67" s="4">
         <v>34</v>
       </c>
@@ -5288,226 +5320,228 @@
         <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="32.25" thickBot="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A68" s="4">
         <v>12</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="H68" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A69" s="4">
         <v>21</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="H69" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I69" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A70" s="4">
         <v>18</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="H70" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A71" s="4">
         <v>35</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="G71" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="32.25" thickBot="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A72" s="4">
         <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="G72" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" thickBot="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A73" s="4">
         <v>36</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="H73" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A74" s="4">
         <v>20</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H74" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A75" s="4">
         <v>32</v>
       </c>
@@ -5515,141 +5549,141 @@
         <v>7</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="16.5" thickBot="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A76" s="4">
         <v>20</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="D76" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="G76" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" thickBot="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A77" s="4">
         <v>22</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="32.25" thickBot="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A78" s="4">
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D78" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="G78" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" thickBot="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A79" s="4">
         <v>7</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="H79" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
@@ -5657,431 +5691,435 @@
         <v>6</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" ht="32.25" thickBot="1">
+    <row r="81" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A81" s="4">
         <v>33</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" thickBot="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A82" s="4">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I82" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A83" s="4">
         <v>22</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" thickBot="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A84" s="4">
         <v>17</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D84" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="H84" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" thickBot="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A85" s="4">
         <v>23</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D85" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="G85" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" thickBot="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A86" s="4">
         <v>27</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="D86" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="G86" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A87" s="4">
         <v>34</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" thickBot="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A88" s="4">
         <v>18</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I88" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A89" s="4">
         <v>23</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" thickBot="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A90" s="4">
         <v>31</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D90" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="H90" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I90" s="8">
         <v>484977</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="32.25" thickBot="1">
+    <row r="91" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A91" s="4">
         <v>38</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I91" s="8">
         <v>485222</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" thickBot="1">
+    <row r="92" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A92" s="4">
         <v>30</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="H92" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" thickBot="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A93" s="4">
         <v>35</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F93" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="H93" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" thickBot="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A94" s="4">
         <v>17</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="D94" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G94" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" thickBot="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A95" s="4">
         <v>33</v>
       </c>
@@ -6092,167 +6130,167 @@
         <v>6</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="32.25" thickBot="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A96" s="4">
         <v>32</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="D96" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="G96" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="H96" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="32.25" thickBot="1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A97" s="4">
         <v>11</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="H97" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" thickBot="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A98" s="4">
         <v>42</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="H98" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" thickBot="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18.75" hidden="1" thickBot="1">
       <c r="A99" s="4">
         <v>2</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F99" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="H99" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" thickBot="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A100" s="4">
         <v>3</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="G100" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
@@ -6260,29 +6298,29 @@
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="1:9" ht="16.5" thickBot="1">
+    <row r="102" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A102" s="4">
         <v>35</v>
       </c>
@@ -6290,83 +6328,83 @@
         <v>0</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="H102" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I102" s="8">
         <v>101211</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5" thickBot="1">
+    <row r="103" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A103" s="4">
         <v>1</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="D103" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="G103" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="H103" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" thickBot="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A104" s="4">
         <v>30</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="H104" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" thickBot="1">
@@ -6374,56 +6412,58 @@
         <v>28</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="1:9" ht="16.5" thickBot="1">
+    <row r="106" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A106" s="4">
         <v>32</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D106" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="I106" s="9"/>
-    </row>
-    <row r="107" spans="1:9" ht="32.25" thickBot="1">
+        <v>758</v>
+      </c>
+      <c r="I106" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A107" s="4">
         <v>31</v>
       </c>
@@ -6431,138 +6471,144 @@
         <v>1</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="H107" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" thickBot="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A108" s="4">
         <v>2</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D108" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F108" s="4" t="s">
+      <c r="G108" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="H108" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" thickBot="1">
+        <v>425</v>
+      </c>
+      <c r="I108" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A109" s="4">
         <v>37</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="D109" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="G109" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I109" s="9"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" thickBot="1">
+        <v>425</v>
+      </c>
+      <c r="I109" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A110" s="4">
         <v>29</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D110" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F110" s="4" t="s">
+      <c r="G110" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="H110" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I110" s="9"/>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" thickBot="1">
+        <v>425</v>
+      </c>
+      <c r="I110" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A111" s="4">
         <v>4</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="G111" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="H111" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" thickBot="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A112" s="4">
         <v>7</v>
       </c>
@@ -6570,84 +6616,86 @@
         <v>3</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F112" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="H112" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="I112" s="9"/>
-    </row>
-    <row r="113" spans="1:9" ht="32.25" thickBot="1">
+        <v>759</v>
+      </c>
+      <c r="I112" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A113" s="4">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D113" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F113" s="4" t="s">
+      <c r="G113" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H113" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" thickBot="1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A114" s="4">
         <v>16</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D114" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="16.5" thickBot="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A115" s="4">
         <v>13</v>
       </c>
@@ -6655,82 +6703,82 @@
         <v>73</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="32.25" thickBot="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="32.25" hidden="1" thickBot="1">
       <c r="A116" s="4">
         <v>29</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" thickBot="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" hidden="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" thickBot="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A118" s="4"/>
       <c r="B118" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6741,13 +6789,13 @@
         <v>617239</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5" thickBot="1">
+    <row r="119" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A119" s="4"/>
       <c r="B119" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6755,16 +6803,16 @@
       <c r="G119" s="4"/>
       <c r="H119" s="12"/>
       <c r="I119" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" thickBot="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6772,16 +6820,16 @@
       <c r="G120" s="4"/>
       <c r="H120" s="12"/>
       <c r="I120" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" thickBot="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6789,16 +6837,16 @@
       <c r="G121" s="4"/>
       <c r="H121" s="12"/>
       <c r="I121" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" thickBot="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6806,16 +6854,16 @@
       <c r="G122" s="4"/>
       <c r="H122" s="12"/>
       <c r="I122" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" thickBot="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6823,16 +6871,16 @@
       <c r="G123" s="4"/>
       <c r="H123" s="12"/>
       <c r="I123" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" thickBot="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -6840,16 +6888,16 @@
       <c r="G124" s="4"/>
       <c r="H124" s="12"/>
       <c r="I124" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" thickBot="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -6857,16 +6905,16 @@
       <c r="G125" s="4"/>
       <c r="H125" s="12"/>
       <c r="I125" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" thickBot="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A126" s="4"/>
       <c r="B126" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -6874,16 +6922,16 @@
       <c r="G126" s="4"/>
       <c r="H126" s="12"/>
       <c r="I126" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" thickBot="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A127" s="4"/>
       <c r="B127" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -6891,16 +6939,16 @@
       <c r="G127" s="4"/>
       <c r="H127" s="12"/>
       <c r="I127" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" thickBot="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -6908,16 +6956,16 @@
       <c r="G128" s="4"/>
       <c r="H128" s="12"/>
       <c r="I128" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" thickBot="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A129" s="4"/>
       <c r="B129" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6925,16 +6973,16 @@
       <c r="G129" s="4"/>
       <c r="H129" s="12"/>
       <c r="I129" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" thickBot="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A130" s="4"/>
       <c r="B130" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -6942,16 +6990,16 @@
       <c r="G130" s="4"/>
       <c r="H130" s="12"/>
       <c r="I130" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="16.5" thickBot="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A131" s="4"/>
       <c r="B131" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -6959,16 +7007,16 @@
       <c r="G131" s="4"/>
       <c r="H131" s="12"/>
       <c r="I131" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" thickBot="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -6976,16 +7024,16 @@
       <c r="G132" s="4"/>
       <c r="H132" s="12"/>
       <c r="I132" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" thickBot="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A133" s="4"/>
       <c r="B133" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -6993,16 +7041,16 @@
       <c r="G133" s="4"/>
       <c r="H133" s="12"/>
       <c r="I133" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" thickBot="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -7010,16 +7058,16 @@
       <c r="G134" s="4"/>
       <c r="H134" s="12"/>
       <c r="I134" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" thickBot="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A135" s="4"/>
       <c r="B135" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -7027,16 +7075,16 @@
       <c r="G135" s="4"/>
       <c r="H135" s="12"/>
       <c r="I135" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" thickBot="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A136" s="4"/>
       <c r="B136" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -7044,16 +7092,16 @@
       <c r="G136" s="4"/>
       <c r="H136" s="12"/>
       <c r="I136" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" thickBot="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A137" s="4"/>
       <c r="B137" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -7061,16 +7109,16 @@
       <c r="G137" s="4"/>
       <c r="H137" s="12"/>
       <c r="I137" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" thickBot="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A138" s="4"/>
       <c r="B138" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -7078,16 +7126,16 @@
       <c r="G138" s="4"/>
       <c r="H138" s="12"/>
       <c r="I138" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" thickBot="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A139" s="4"/>
       <c r="B139" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -7095,16 +7143,16 @@
       <c r="G139" s="4"/>
       <c r="H139" s="12"/>
       <c r="I139" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="16.5" thickBot="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A140" s="4"/>
       <c r="B140" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -7112,16 +7160,16 @@
       <c r="G140" s="4"/>
       <c r="H140" s="12"/>
       <c r="I140" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" thickBot="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A141" s="4"/>
       <c r="B141" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -7129,16 +7177,16 @@
       <c r="G141" s="4"/>
       <c r="H141" s="12"/>
       <c r="I141" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" thickBot="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A142" s="4"/>
       <c r="B142" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -7146,16 +7194,16 @@
       <c r="G142" s="4"/>
       <c r="H142" s="12"/>
       <c r="I142" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" thickBot="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A143" s="4"/>
       <c r="B143" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -7163,16 +7211,16 @@
       <c r="G143" s="4"/>
       <c r="H143" s="12"/>
       <c r="I143" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" thickBot="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A144" s="4"/>
       <c r="B144" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -7180,16 +7228,16 @@
       <c r="G144" s="4"/>
       <c r="H144" s="12"/>
       <c r="I144" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="16.5" thickBot="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A145" s="4"/>
       <c r="B145" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -7197,16 +7245,16 @@
       <c r="G145" s="4"/>
       <c r="H145" s="12"/>
       <c r="I145" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="16.5" thickBot="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -7214,16 +7262,16 @@
       <c r="G146" s="4"/>
       <c r="H146" s="12"/>
       <c r="I146" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="16.5" thickBot="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A147" s="4"/>
       <c r="B147" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -7231,16 +7279,16 @@
       <c r="G147" s="4"/>
       <c r="H147" s="12"/>
       <c r="I147" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="16.5" thickBot="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A148" s="4"/>
       <c r="B148" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -7248,16 +7296,16 @@
       <c r="G148" s="4"/>
       <c r="H148" s="12"/>
       <c r="I148" s="6" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="16.5" thickBot="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A149" s="4"/>
       <c r="B149" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -7265,16 +7313,16 @@
       <c r="G149" s="4"/>
       <c r="H149" s="12"/>
       <c r="I149" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="16.5" thickBot="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A150" s="4"/>
       <c r="B150" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -7285,51 +7333,51 @@
         <v>524435</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5" thickBot="1">
+    <row r="151" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A151" s="4"/>
       <c r="B151" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="16.5" thickBot="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="16.5" thickBot="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" hidden="1" thickBot="1">
       <c r="A153" s="4"/>
       <c r="B153" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -7337,7 +7385,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="12"/>
       <c r="I153" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75">
@@ -7756,12 +7804,13 @@
   <conditionalFormatting sqref="I69">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I193:I1048576 I1:I98 I100:I153">
+  <conditionalFormatting sqref="I193:I1048576 I100:I105 I1:I28 I30 I32:I49 I51:I60 I62:I81 I83:I87 I89:I98 I107 I111 I113:I153">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7783,208 +7832,208 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" t="s">
         <v>431</v>
       </c>
-      <c r="C1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>428</v>
-      </c>
-      <c r="F1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G3" t="s">
-        <v>480</v>
-      </c>
       <c r="H3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" t="s">
         <v>184</v>
       </c>
-      <c r="E4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G4" t="s">
-        <v>185</v>
-      </c>
       <c r="H4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G7" t="s">
         <v>195</v>
       </c>
-      <c r="E7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G7" t="s">
-        <v>196</v>
-      </c>
       <c r="H7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U10" t="str">
         <f>LEFT(P10,2)</f>
@@ -7993,22 +8042,22 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" ref="U11:U43" si="0">LEFT(P11,2)</f>
@@ -8017,19 +8066,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B12">
         <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H12">
         <v>405841</v>
@@ -8041,22 +8090,22 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="0"/>
@@ -8065,22 +8114,22 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="0"/>
@@ -8089,22 +8138,22 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="0"/>
@@ -8113,22 +8162,22 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" t="s">
+        <v>478</v>
+      </c>
+      <c r="F16" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" t="s">
         <v>178</v>
       </c>
-      <c r="E16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F16" t="s">
-        <v>416</v>
-      </c>
-      <c r="G16" t="s">
-        <v>179</v>
-      </c>
       <c r="H16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="0"/>
@@ -8137,19 +8186,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="0"/>
@@ -8158,22 +8207,22 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L18" s="3"/>
       <c r="U18" t="str">
@@ -8183,22 +8232,22 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>425</v>
+      </c>
+      <c r="F19" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" t="s">
         <v>117</v>
       </c>
-      <c r="E19" t="s">
-        <v>426</v>
-      </c>
-      <c r="F19" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
       <c r="H19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="0"/>
@@ -8207,22 +8256,22 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="0"/>
@@ -8231,22 +8280,22 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="0"/>
@@ -8255,22 +8304,22 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="0"/>
@@ -8279,22 +8328,22 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="0"/>
@@ -8303,22 +8352,22 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" t="s">
+        <v>478</v>
+      </c>
+      <c r="F24" t="s">
+        <v>395</v>
+      </c>
+      <c r="G24" t="s">
         <v>213</v>
       </c>
-      <c r="E24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F24" t="s">
-        <v>396</v>
-      </c>
-      <c r="G24" t="s">
-        <v>214</v>
-      </c>
       <c r="H24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
@@ -8327,22 +8376,22 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="0"/>
@@ -8351,22 +8400,22 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="0"/>
@@ -8375,22 +8424,22 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="0"/>
@@ -8399,22 +8448,22 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
@@ -8423,22 +8472,22 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="0"/>
@@ -8447,22 +8496,22 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="0"/>
@@ -8471,22 +8520,22 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s">
+        <v>478</v>
+      </c>
+      <c r="F31" t="s">
+        <v>395</v>
+      </c>
+      <c r="G31" t="s">
         <v>161</v>
       </c>
-      <c r="E31" t="s">
-        <v>479</v>
-      </c>
-      <c r="F31" t="s">
-        <v>396</v>
-      </c>
-      <c r="G31" t="s">
-        <v>162</v>
-      </c>
       <c r="H31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="0"/>
@@ -8495,22 +8544,22 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="0"/>
@@ -8519,22 +8568,22 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" t="s">
+        <v>478</v>
+      </c>
+      <c r="F33" t="s">
+        <v>398</v>
+      </c>
+      <c r="G33" t="s">
         <v>159</v>
       </c>
-      <c r="E33" t="s">
-        <v>479</v>
-      </c>
-      <c r="F33" t="s">
-        <v>399</v>
-      </c>
-      <c r="G33" t="s">
-        <v>160</v>
-      </c>
       <c r="H33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="0"/>
@@ -8543,22 +8592,22 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" t="s">
+        <v>478</v>
+      </c>
+      <c r="F34" t="s">
+        <v>405</v>
+      </c>
+      <c r="G34" t="s">
         <v>203</v>
       </c>
-      <c r="E34" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34" t="s">
-        <v>406</v>
-      </c>
-      <c r="G34" t="s">
-        <v>204</v>
-      </c>
       <c r="H34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="0"/>
@@ -8567,22 +8616,22 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>478</v>
+      </c>
+      <c r="F35" t="s">
+        <v>406</v>
+      </c>
+      <c r="G35" t="s">
         <v>156</v>
       </c>
-      <c r="E35" t="s">
-        <v>479</v>
-      </c>
-      <c r="F35" t="s">
-        <v>407</v>
-      </c>
-      <c r="G35" t="s">
-        <v>157</v>
-      </c>
       <c r="H35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="0"/>
@@ -8591,22 +8640,22 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="0"/>
@@ -8615,22 +8664,22 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="0"/>
@@ -8639,22 +8688,22 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F38" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
@@ -8663,22 +8712,22 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>425</v>
+      </c>
+      <c r="F39" t="s">
+        <v>398</v>
+      </c>
+      <c r="G39" t="s">
         <v>98</v>
       </c>
-      <c r="E39" t="s">
-        <v>426</v>
-      </c>
-      <c r="F39" t="s">
-        <v>399</v>
-      </c>
-      <c r="G39" t="s">
-        <v>99</v>
-      </c>
       <c r="H39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="0"/>
@@ -8687,22 +8736,22 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="0"/>
@@ -8711,22 +8760,22 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G41" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="0"/>
@@ -8735,22 +8784,22 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="0"/>
@@ -8759,22 +8808,22 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H43" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="0"/>
@@ -8783,22 +8832,22 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B44">
         <v>311</v>
       </c>
       <c r="E44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G44" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H44" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" ref="U44:U49" si="1">LEFT(P44,2)</f>
@@ -8807,22 +8856,22 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B45" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E45" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="1"/>
@@ -8831,22 +8880,22 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H46" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="1"/>
@@ -8855,22 +8904,22 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B47">
         <v>364</v>
       </c>
       <c r="E47" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="1"/>
@@ -8879,22 +8928,22 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" t="s">
+        <v>425</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" t="s">
         <v>123</v>
       </c>
-      <c r="E48" t="s">
-        <v>426</v>
-      </c>
-      <c r="F48" t="s">
-        <v>395</v>
-      </c>
-      <c r="G48" t="s">
-        <v>124</v>
-      </c>
       <c r="H48" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="1"/>
@@ -8903,22 +8952,22 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B49" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H49" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="1"/>
@@ -8927,719 +8976,719 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B50">
         <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G50" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H50" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" t="s">
+        <v>425</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" t="s">
         <v>96</v>
       </c>
-      <c r="E51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F51" t="s">
-        <v>413</v>
-      </c>
-      <c r="G51" t="s">
-        <v>97</v>
-      </c>
       <c r="H51" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B53" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H53" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B54" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G54" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H54" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G55" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="s">
+        <v>425</v>
+      </c>
+      <c r="F56" t="s">
+        <v>401</v>
+      </c>
+      <c r="G56" t="s">
         <v>115</v>
       </c>
-      <c r="E56" t="s">
-        <v>426</v>
-      </c>
-      <c r="F56" t="s">
-        <v>402</v>
-      </c>
-      <c r="G56" t="s">
-        <v>116</v>
-      </c>
       <c r="H56" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B57" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E57" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G57" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B58" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F58" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" t="s">
+        <v>425</v>
+      </c>
+      <c r="F59" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59" t="s">
         <v>134</v>
       </c>
-      <c r="E59" t="s">
-        <v>426</v>
-      </c>
-      <c r="F59" t="s">
-        <v>413</v>
-      </c>
-      <c r="G59" t="s">
-        <v>135</v>
-      </c>
       <c r="H59" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G60" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H60" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B61">
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G61" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B62" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G62" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H62" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H63" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H64" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H65" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F66" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G66" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H66" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G67" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G68" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H68" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" t="s">
+        <v>425</v>
+      </c>
+      <c r="F69" t="s">
+        <v>415</v>
+      </c>
+      <c r="G69" t="s">
         <v>103</v>
       </c>
-      <c r="E69" t="s">
-        <v>426</v>
-      </c>
-      <c r="F69" t="s">
-        <v>416</v>
-      </c>
-      <c r="G69" t="s">
-        <v>104</v>
-      </c>
       <c r="H69" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B70" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F70" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B71">
         <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F71" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G71" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H71" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G72" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H72" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" t="s">
+        <v>425</v>
+      </c>
+      <c r="F73" t="s">
+        <v>415</v>
+      </c>
+      <c r="G73" t="s">
         <v>111</v>
       </c>
-      <c r="E73" t="s">
-        <v>426</v>
-      </c>
-      <c r="F73" t="s">
-        <v>416</v>
-      </c>
-      <c r="G73" t="s">
-        <v>112</v>
-      </c>
       <c r="H73" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G74" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F75" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H75" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E76" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F76" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H76" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B77">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B78" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E78" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F78" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H78" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E79" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G79" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H79" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E80" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F80" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G80" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H80" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E81" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F81" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G81" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H81" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F82" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B83" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E83" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G83" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H83" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B84" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E84" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G84" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F85" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H85">
         <v>101212</v>
@@ -9647,139 +9696,139 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F86" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G86" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H86" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B87" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E87" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F87" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G87" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H87" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
+        <v>756</v>
+      </c>
+      <c r="F88" t="s">
+        <v>401</v>
+      </c>
+      <c r="G88" t="s">
         <v>45</v>
       </c>
-      <c r="E88" t="s">
-        <v>757</v>
-      </c>
-      <c r="F88" t="s">
-        <v>402</v>
-      </c>
-      <c r="G88" t="s">
-        <v>46</v>
-      </c>
       <c r="H88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B89" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E89" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G89" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H89" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B90" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E90" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F90" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G90" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B91">
         <v>77</v>
       </c>
       <c r="E91" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G91" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H91" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B92">
         <v>85</v>
       </c>
       <c r="E92" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F92" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G92" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H92">
         <v>405763</v>
@@ -9787,239 +9836,239 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>756</v>
+      </c>
+      <c r="F93" t="s">
+        <v>405</v>
+      </c>
+      <c r="G93" t="s">
         <v>16</v>
       </c>
-      <c r="E93" t="s">
-        <v>757</v>
-      </c>
-      <c r="F93" t="s">
-        <v>406</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
       <c r="H93" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" t="s">
+        <v>756</v>
+      </c>
+      <c r="F94" t="s">
+        <v>419</v>
+      </c>
+      <c r="G94" t="s">
         <v>43</v>
       </c>
-      <c r="E94" t="s">
-        <v>757</v>
-      </c>
-      <c r="F94" t="s">
-        <v>420</v>
-      </c>
-      <c r="G94" t="s">
-        <v>44</v>
-      </c>
       <c r="H94" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F95" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G95" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H95" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B96" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E96" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F96" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G96" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H96" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E97" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H97" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B98" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E98" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G98" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H98" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E99" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F99" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G99" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H99" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E100" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G100" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H100" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H101" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B102">
         <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F102" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G102" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H102" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B103" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E103" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F103" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H103" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H104">
         <v>101211</v>
@@ -10027,12 +10076,12 @@
     </row>
     <row r="106" spans="1:8" ht="15.75">
       <c r="H106" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
       <c r="H107" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
@@ -10040,7 +10089,7 @@
     </row>
     <row r="109" spans="1:8" ht="15.75">
       <c r="H109" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
@@ -10048,7 +10097,7 @@
     </row>
     <row r="111" spans="1:8" ht="15.75">
       <c r="H111" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
@@ -10061,157 +10110,157 @@
     </row>
     <row r="114" spans="8:8" ht="15.75">
       <c r="H114" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="115" spans="8:8" ht="15.75">
       <c r="H115" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="116" spans="8:8" ht="15.75">
       <c r="H116" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="117" spans="8:8" ht="15.75">
       <c r="H117" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="118" spans="8:8" ht="15.75">
       <c r="H118" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="119" spans="8:8" ht="15.75">
       <c r="H119" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="120" spans="8:8" ht="15.75">
       <c r="H120" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="121" spans="8:8" ht="15.75">
       <c r="H121" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="122" spans="8:8" ht="15.75">
       <c r="H122" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="8:8" ht="15.75">
       <c r="H123" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="124" spans="8:8" ht="15.75">
       <c r="H124" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="8:8" ht="15.75">
       <c r="H125" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="126" spans="8:8" ht="15.75">
       <c r="H126" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="8:8" ht="15.75">
       <c r="H127" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="128" spans="8:8" ht="15.75">
       <c r="H128" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="129" spans="8:8" ht="15.75">
       <c r="H129" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="130" spans="8:8" ht="15.75">
       <c r="H130" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="8:8" ht="15.75">
       <c r="H131" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="132" spans="8:8" ht="15.75">
       <c r="H132" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="8:8" ht="15.75">
       <c r="H133" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="8:8" ht="15.75">
       <c r="H134" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="135" spans="8:8" ht="15.75">
       <c r="H135" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="136" spans="8:8" ht="15.75">
       <c r="H136" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="137" spans="8:8" ht="15.75">
       <c r="H137" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="138" spans="8:8" ht="15.75">
       <c r="H138" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="8:8" ht="15.75">
       <c r="H139" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="140" spans="8:8" ht="15.75">
       <c r="H140" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="8:8" ht="15.75">
       <c r="H141" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="142" spans="8:8" ht="15.75">
       <c r="H142" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="143" spans="8:8" ht="15.75">
       <c r="H143" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="144" spans="8:8" ht="15.75">
       <c r="H144" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="145" spans="8:8" ht="15.75">
@@ -10221,32 +10270,32 @@
     </row>
     <row r="146" spans="8:8" ht="15.75">
       <c r="H146" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="147" spans="8:8" ht="15.75">
       <c r="H147" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148" spans="8:8" ht="15.75">
       <c r="H148" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="149" spans="8:8" ht="15.75">
       <c r="H149" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="8:8" ht="15.75">
       <c r="H150" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="151" spans="8:8" ht="15.75">
       <c r="H151" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -10276,16 +10325,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" t="s">
         <v>525</v>
       </c>
-      <c r="B1" t="s">
-        <v>526</v>
-      </c>
       <c r="C1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10294,13 +10343,13 @@
         <v>RomaniaROM🇷🇴</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10309,13 +10358,13 @@
         <v>SloveniaSLO🇸🇮</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10324,13 +10373,13 @@
         <v>DenmarkDEN🇩🇰</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10339,13 +10388,13 @@
         <v>ItalyITA🇮🇹</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10354,13 +10403,13 @@
         <v>United StatesUSA🇺🇸</v>
       </c>
       <c r="B6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10369,13 +10418,13 @@
         <v>FranceFRA🇫🇷</v>
       </c>
       <c r="B7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10384,13 +10433,13 @@
         <v>BelgiumBEL🇧🇪</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10399,13 +10448,13 @@
         <v>Great BritainGBR🇬🇧</v>
       </c>
       <c r="B9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10414,13 +10463,13 @@
         <v>PolandPOL🇵🇱</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10429,13 +10478,13 @@
         <v>CroatiaCRO🇭🇷</v>
       </c>
       <c r="B11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10444,13 +10493,13 @@
         <v>SwizerlandSUI🇨🇭</v>
       </c>
       <c r="B12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10459,13 +10508,13 @@
         <v>ArgentiniaARG🇦🇷</v>
       </c>
       <c r="B13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10474,13 +10523,13 @@
         <v>LithuaniaLTU🇱🇹</v>
       </c>
       <c r="B14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10489,13 +10538,13 @@
         <v>HungaryHUN🇭🇺</v>
       </c>
       <c r="B15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10504,13 +10553,13 @@
         <v>Czech RepublicCZE🇨🇿</v>
       </c>
       <c r="B16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10519,13 +10568,13 @@
         <v>GermanyGER🇩🇪</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -10534,13 +10583,13 @@
         <v>AustraliaAUS🇦🇺</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10549,13 +10598,13 @@
         <v>SpainESP🇪🇸</v>
       </c>
       <c r="B19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -10564,13 +10613,13 @@
         <v>SlovakiaSVK🇸🇰</v>
       </c>
       <c r="B20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10579,13 +10628,13 @@
         <v>NetherlandsNED🇳🇱</v>
       </c>
       <c r="B21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10594,13 +10643,13 @@
         <v>New ZealandNZL🇳🇿</v>
       </c>
       <c r="B22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10609,13 +10658,13 @@
         <v>FinnlandFIN🇫🇮</v>
       </c>
       <c r="B23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10624,13 +10673,13 @@
         <v>AustriaAUT🇦🇹</v>
       </c>
       <c r="B24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10639,13 +10688,13 @@
         <v>IsraelISR🇮🇱</v>
       </c>
       <c r="B25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -10654,13 +10703,13 @@
         <v>SwedenSWE🇸🇪</v>
       </c>
       <c r="B26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10669,13 +10718,13 @@
         <v>BrasilBRA🇧🇷</v>
       </c>
       <c r="B27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE93A0-9DB0-4E1B-9E22-DED2313BB919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4F46F-A66B-408F-BF9D-46500382B4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10095" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="779">
   <si>
     <t>ZJ</t>
   </si>
@@ -2372,6 +2372,9 @@
   </si>
   <si>
     <t>DDDD0F</t>
+  </si>
+  <si>
+    <t>Alternative ID</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2499,11 +2502,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2537,11 +2564,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2571,6 +2613,45 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF444444"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFDDDDDD"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDDDDDD"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFDDDDDD"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFDDDDDD"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3014,25 +3095,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:I153" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A1:I153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}">
-    <filterColumn colId="8">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:J153" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="A1:J153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I116">
     <sortCondition ref="E1:E116"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="6"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{DC0B766E-C4E1-42B9-B84A-D3019D9161F2}" name="Alternative ID" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3062,9 +3140,9 @@
     <tableColumn id="1" xr3:uid="{2C93214C-6D39-48BD-AAF6-A27D6B9C4E71}" name="Lookup">
       <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3387,10 +3465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3405,7 +3483,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>420</v>
       </c>
@@ -3433,8 +3511,11 @@
       <c r="I1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32.25" thickBot="1">
       <c r="A2" s="4">
         <v>14</v>
       </c>
@@ -3462,8 +3543,9 @@
       <c r="I2" s="8" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="4">
         <v>15</v>
       </c>
@@ -3491,8 +3573,9 @@
       <c r="I3" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="32.25" thickBot="1">
       <c r="A4" s="4">
         <v>12</v>
       </c>
@@ -3520,8 +3603,9 @@
       <c r="I4" s="8" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickBot="1">
       <c r="A5" s="4">
         <v>25</v>
       </c>
@@ -3549,8 +3633,9 @@
       <c r="I5" s="8" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="32.25" thickBot="1">
       <c r="A6" s="4">
         <v>9</v>
       </c>
@@ -3578,8 +3663,9 @@
       <c r="I6" s="8" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="32.25" thickBot="1">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -3607,8 +3693,9 @@
       <c r="I7" s="8" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="32.25" thickBot="1">
       <c r="A8" s="4">
         <v>13</v>
       </c>
@@ -3636,8 +3723,9 @@
       <c r="I8" s="10" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickBot="1">
       <c r="A9" s="4">
         <v>37</v>
       </c>
@@ -3665,8 +3753,9 @@
       <c r="I9" s="8">
         <v>440326</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickBot="1">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -3694,8 +3783,9 @@
       <c r="I10" s="8" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="4">
         <v>26</v>
       </c>
@@ -3721,8 +3811,9 @@
         <v>425</v>
       </c>
       <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="4">
         <v>34</v>
       </c>
@@ -3748,8 +3839,9 @@
         <v>425</v>
       </c>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -3777,8 +3869,9 @@
       <c r="I13" s="8" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="4">
         <v>38</v>
       </c>
@@ -3806,8 +3899,9 @@
       <c r="I14" s="11" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3835,8 +3929,9 @@
       <c r="I15" s="8" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1">
       <c r="A16" s="4">
         <v>26</v>
       </c>
@@ -3864,8 +3959,9 @@
       <c r="I16" s="8" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="32.25" thickBot="1">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -3893,8 +3989,9 @@
       <c r="I17" s="8" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="32.25" thickBot="1">
       <c r="A18" s="4">
         <v>22</v>
       </c>
@@ -3922,8 +4019,9 @@
       <c r="I18" s="8" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -3951,8 +4049,9 @@
       <c r="I19" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="4">
         <v>29</v>
       </c>
@@ -3980,8 +4079,9 @@
       <c r="I20" s="8" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="32.25" thickBot="1">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -4009,8 +4109,9 @@
       <c r="I21" s="8" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -4038,8 +4139,9 @@
       <c r="I22" s="11" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickBot="1">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -4067,8 +4169,9 @@
       <c r="I23" s="9" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickBot="1">
       <c r="A24" s="4">
         <v>28</v>
       </c>
@@ -4096,8 +4199,9 @@
       <c r="I24" s="8" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1">
       <c r="A25" s="4">
         <v>13</v>
       </c>
@@ -4125,8 +4229,9 @@
       <c r="I25" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4154,8 +4259,9 @@
       <c r="I26" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickBot="1">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -4183,8 +4289,9 @@
       <c r="I27" s="8" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickBot="1">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -4210,8 +4317,9 @@
         <v>425</v>
       </c>
       <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" thickBot="1">
       <c r="A29" s="4">
         <v>33</v>
       </c>
@@ -4239,8 +4347,9 @@
       <c r="I29" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" hidden="1" thickBot="1">
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" thickBot="1">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -4268,8 +4377,9 @@
       <c r="I30" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickBot="1">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -4297,8 +4407,9 @@
       <c r="I31" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" thickBot="1">
       <c r="A32" s="4">
         <v>24</v>
       </c>
@@ -4326,8 +4437,9 @@
       <c r="I32" s="8" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickBot="1">
       <c r="A33" s="4">
         <v>21</v>
       </c>
@@ -4355,8 +4467,9 @@
       <c r="I33" s="8" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" thickBot="1">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -4382,8 +4495,9 @@
         <v>759</v>
       </c>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" ht="32.25" thickBot="1">
       <c r="A35" s="4">
         <v>20</v>
       </c>
@@ -4411,8 +4525,9 @@
       <c r="I35" s="8" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" hidden="1" thickBot="1">
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" thickBot="1">
       <c r="A36" s="4">
         <v>39</v>
       </c>
@@ -4440,8 +4555,9 @@
       <c r="I36" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" thickBot="1">
       <c r="A37" s="4">
         <v>18</v>
       </c>
@@ -4469,8 +4585,9 @@
       <c r="I37" s="8" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" thickBot="1">
       <c r="A38" s="4">
         <v>19</v>
       </c>
@@ -4498,8 +4615,9 @@
       <c r="I38" s="9" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" ht="32.25" thickBot="1">
       <c r="A39" s="4">
         <v>21</v>
       </c>
@@ -4527,8 +4645,9 @@
       <c r="I39" s="8" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" thickBot="1">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -4556,8 +4675,9 @@
       <c r="I40" s="9" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -4585,8 +4705,9 @@
       <c r="I41" s="9" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" thickBot="1">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -4612,8 +4733,9 @@
         <v>425</v>
       </c>
       <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" ht="32.25" thickBot="1">
       <c r="A43" s="4">
         <v>24</v>
       </c>
@@ -4641,8 +4763,9 @@
       <c r="I43" s="9" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" thickBot="1">
       <c r="A44" s="4">
         <v>9</v>
       </c>
@@ -4670,8 +4793,9 @@
       <c r="I44" s="8" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" thickBot="1">
       <c r="A45" s="4">
         <v>10</v>
       </c>
@@ -4696,11 +4820,14 @@
       <c r="H45" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="J45" s="18" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+    <row r="46" spans="1:10" ht="16.5" thickBot="1">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -4728,8 +4855,9 @@
       <c r="I46" s="9" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" thickBot="1">
       <c r="A47" s="4">
         <v>6</v>
       </c>
@@ -4757,8 +4885,9 @@
       <c r="I47" s="8" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" thickBot="1">
       <c r="A48" s="4">
         <v>27</v>
       </c>
@@ -4786,8 +4915,9 @@
       <c r="I48" s="8" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" thickBot="1">
       <c r="A49" s="4">
         <v>36</v>
       </c>
@@ -4815,8 +4945,9 @@
       <c r="I49" s="11" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" thickBot="1">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -4844,8 +4975,9 @@
       <c r="I50" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" thickBot="1">
       <c r="A51" s="4">
         <v>17</v>
       </c>
@@ -4873,8 +5005,9 @@
       <c r="I51" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" thickBot="1">
       <c r="A52" s="4">
         <v>26</v>
       </c>
@@ -4902,8 +5035,9 @@
       <c r="I52" s="8" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" ht="16.5" thickBot="1">
       <c r="A53" s="4">
         <v>24</v>
       </c>
@@ -4931,8 +5065,9 @@
       <c r="I53" s="8" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" ht="32.25" thickBot="1">
       <c r="A54" s="4">
         <v>30</v>
       </c>
@@ -4960,8 +5095,9 @@
       <c r="I54" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" ht="16.5" thickBot="1">
       <c r="A55" s="4">
         <v>6</v>
       </c>
@@ -4989,8 +5125,9 @@
       <c r="I55" s="8" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" thickBot="1">
       <c r="A56" s="4">
         <v>9</v>
       </c>
@@ -5018,8 +5155,9 @@
       <c r="I56" s="11" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" ht="32.25" thickBot="1">
       <c r="A57" s="4">
         <v>28</v>
       </c>
@@ -5047,8 +5185,9 @@
       <c r="I57" s="8" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" ht="32.25" thickBot="1">
       <c r="A58" s="4">
         <v>5</v>
       </c>
@@ -5076,8 +5215,9 @@
       <c r="I58" s="8" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" thickBot="1">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -5105,8 +5245,9 @@
       <c r="I59" s="8" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="1:10" ht="16.5" thickBot="1">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -5134,8 +5275,9 @@
       <c r="I60" s="8" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" ht="32.25" thickBot="1">
       <c r="A61" s="4">
         <v>27</v>
       </c>
@@ -5163,8 +5305,9 @@
       <c r="I61" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" ht="32.25" thickBot="1">
       <c r="A62" s="4">
         <v>10</v>
       </c>
@@ -5192,8 +5335,9 @@
       <c r="I62" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="1:10" ht="16.5" thickBot="1">
       <c r="A63" s="4">
         <v>40</v>
       </c>
@@ -5221,8 +5365,9 @@
       <c r="I63" s="8" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="1:10" ht="16.5" thickBot="1">
       <c r="A64" s="4">
         <v>14</v>
       </c>
@@ -5250,8 +5395,9 @@
       <c r="I64" s="11" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" thickBot="1">
       <c r="A65" s="4">
         <v>16</v>
       </c>
@@ -5279,8 +5425,9 @@
       <c r="I65" s="8" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" thickBot="1">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -5308,8 +5455,9 @@
       <c r="I66" s="8" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" thickBot="1">
       <c r="A67" s="4">
         <v>34</v>
       </c>
@@ -5337,8 +5485,9 @@
       <c r="I67" s="8" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="1:10" ht="32.25" thickBot="1">
       <c r="A68" s="4">
         <v>12</v>
       </c>
@@ -5366,8 +5515,9 @@
       <c r="I68" s="8" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" thickBot="1">
       <c r="A69" s="4">
         <v>21</v>
       </c>
@@ -5395,8 +5545,9 @@
       <c r="I69" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" thickBot="1">
       <c r="A70" s="4">
         <v>18</v>
       </c>
@@ -5424,8 +5575,9 @@
       <c r="I70" s="8" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J70" s="15"/>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" thickBot="1">
       <c r="A71" s="4">
         <v>35</v>
       </c>
@@ -5453,8 +5605,9 @@
       <c r="I71" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J71" s="15"/>
+    </row>
+    <row r="72" spans="1:10" ht="32.25" thickBot="1">
       <c r="A72" s="4">
         <v>11</v>
       </c>
@@ -5482,8 +5635,9 @@
       <c r="I72" s="8" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J72" s="15"/>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" thickBot="1">
       <c r="A73" s="4">
         <v>36</v>
       </c>
@@ -5511,8 +5665,9 @@
       <c r="I73" s="8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" thickBot="1">
       <c r="A74" s="4">
         <v>20</v>
       </c>
@@ -5540,8 +5695,9 @@
       <c r="I74" s="8" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J74" s="15"/>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" thickBot="1">
       <c r="A75" s="4">
         <v>32</v>
       </c>
@@ -5569,8 +5725,9 @@
       <c r="I75" s="8" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J75" s="15"/>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" thickBot="1">
       <c r="A76" s="4">
         <v>20</v>
       </c>
@@ -5598,8 +5755,9 @@
       <c r="I76" s="11" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J76" s="15"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" thickBot="1">
       <c r="A77" s="4">
         <v>22</v>
       </c>
@@ -5627,8 +5785,9 @@
       <c r="I77" s="8" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J77" s="15"/>
+    </row>
+    <row r="78" spans="1:10" ht="32.25" thickBot="1">
       <c r="A78" s="4">
         <v>4</v>
       </c>
@@ -5656,8 +5815,9 @@
       <c r="I78" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J78" s="15"/>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" thickBot="1">
       <c r="A79" s="4">
         <v>7</v>
       </c>
@@ -5685,8 +5845,9 @@
       <c r="I79" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J79" s="15"/>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" thickBot="1">
       <c r="A80" s="4">
         <v>6</v>
       </c>
@@ -5712,8 +5873,9 @@
         <v>758</v>
       </c>
       <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="1:10" ht="32.25" thickBot="1">
       <c r="A81" s="4">
         <v>33</v>
       </c>
@@ -5741,8 +5903,9 @@
       <c r="I81" s="8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" thickBot="1">
       <c r="A82" s="4">
         <v>4</v>
       </c>
@@ -5770,8 +5933,9 @@
       <c r="I82" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J82" s="15"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" thickBot="1">
       <c r="A83" s="4">
         <v>22</v>
       </c>
@@ -5799,8 +5963,9 @@
       <c r="I83" s="8" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J83" s="15"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" thickBot="1">
       <c r="A84" s="4">
         <v>17</v>
       </c>
@@ -5828,8 +5993,9 @@
       <c r="I84" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" thickBot="1">
       <c r="A85" s="4">
         <v>23</v>
       </c>
@@ -5857,8 +6023,9 @@
       <c r="I85" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" thickBot="1">
       <c r="A86" s="4">
         <v>27</v>
       </c>
@@ -5886,8 +6053,9 @@
       <c r="I86" s="8" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" thickBot="1">
       <c r="A87" s="4">
         <v>34</v>
       </c>
@@ -5915,8 +6083,9 @@
       <c r="I87" s="8" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" thickBot="1">
       <c r="A88" s="4">
         <v>18</v>
       </c>
@@ -5944,8 +6113,9 @@
       <c r="I88" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" thickBot="1">
       <c r="A89" s="4">
         <v>23</v>
       </c>
@@ -5973,8 +6143,9 @@
       <c r="I89" s="8" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" thickBot="1">
       <c r="A90" s="4">
         <v>31</v>
       </c>
@@ -6002,8 +6173,9 @@
       <c r="I90" s="8">
         <v>484977</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="1:10" ht="32.25" thickBot="1">
       <c r="A91" s="4">
         <v>38</v>
       </c>
@@ -6031,8 +6203,9 @@
       <c r="I91" s="8">
         <v>485222</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J91" s="15"/>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" thickBot="1">
       <c r="A92" s="4">
         <v>30</v>
       </c>
@@ -6060,8 +6233,9 @@
       <c r="I92" s="8" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" thickBot="1">
       <c r="A93" s="4">
         <v>35</v>
       </c>
@@ -6089,8 +6263,9 @@
       <c r="I93" s="8" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" thickBot="1">
       <c r="A94" s="4">
         <v>17</v>
       </c>
@@ -6118,8 +6293,9 @@
       <c r="I94" s="14" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" thickBot="1">
       <c r="A95" s="4">
         <v>33</v>
       </c>
@@ -6147,8 +6323,9 @@
       <c r="I95" s="8" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="1:10" ht="32.25" thickBot="1">
       <c r="A96" s="4">
         <v>32</v>
       </c>
@@ -6176,8 +6353,9 @@
       <c r="I96" s="8" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" ht="32.25" thickBot="1">
       <c r="A97" s="4">
         <v>11</v>
       </c>
@@ -6205,8 +6383,9 @@
       <c r="I97" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" thickBot="1">
       <c r="A98" s="4">
         <v>42</v>
       </c>
@@ -6234,8 +6413,9 @@
       <c r="I98" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" hidden="1" thickBot="1">
+      <c r="J98" s="15"/>
+    </row>
+    <row r="99" spans="1:10" ht="18.75" thickBot="1">
       <c r="A99" s="4">
         <v>2</v>
       </c>
@@ -6263,8 +6443,9 @@
       <c r="I99" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J99" s="15"/>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" thickBot="1">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -6292,8 +6473,9 @@
       <c r="I100" s="8" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" thickBot="1">
       <c r="A101" s="4">
         <v>12</v>
       </c>
@@ -6319,8 +6501,9 @@
         <v>759</v>
       </c>
       <c r="I101" s="9"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" thickBot="1">
       <c r="A102" s="4">
         <v>35</v>
       </c>
@@ -6348,8 +6531,9 @@
       <c r="I102" s="8">
         <v>101211</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" thickBot="1">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -6377,8 +6561,9 @@
       <c r="I103" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" thickBot="1">
       <c r="A104" s="4">
         <v>30</v>
       </c>
@@ -6406,8 +6591,9 @@
       <c r="I104" s="8" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" thickBot="1">
       <c r="A105" s="4">
         <v>28</v>
       </c>
@@ -6433,8 +6619,9 @@
         <v>758</v>
       </c>
       <c r="I105" s="9"/>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" thickBot="1">
       <c r="A106" s="4">
         <v>32</v>
       </c>
@@ -6462,8 +6649,9 @@
       <c r="I106" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="1:10" ht="32.25" thickBot="1">
       <c r="A107" s="4">
         <v>31</v>
       </c>
@@ -6491,8 +6679,9 @@
       <c r="I107" s="8" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J107" s="15"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" thickBot="1">
       <c r="A108" s="4">
         <v>2</v>
       </c>
@@ -6520,8 +6709,9 @@
       <c r="I108" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J108" s="15"/>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" thickBot="1">
       <c r="A109" s="4">
         <v>37</v>
       </c>
@@ -6549,8 +6739,9 @@
       <c r="I109" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J109" s="15"/>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" thickBot="1">
       <c r="A110" s="4">
         <v>29</v>
       </c>
@@ -6578,8 +6769,9 @@
       <c r="I110" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J110" s="15"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" thickBot="1">
       <c r="A111" s="4">
         <v>4</v>
       </c>
@@ -6607,8 +6799,9 @@
       <c r="I111" s="8" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J111" s="15"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" thickBot="1">
       <c r="A112" s="4">
         <v>7</v>
       </c>
@@ -6636,8 +6829,9 @@
       <c r="I112" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J112" s="15"/>
+    </row>
+    <row r="113" spans="1:10" ht="32.25" thickBot="1">
       <c r="A113" s="4">
         <v>5</v>
       </c>
@@ -6665,8 +6859,9 @@
       <c r="I113" s="8" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J113" s="15"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" thickBot="1">
       <c r="A114" s="4">
         <v>16</v>
       </c>
@@ -6694,8 +6889,9 @@
       <c r="I114" s="8" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J114" s="15"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" thickBot="1">
       <c r="A115" s="4">
         <v>13</v>
       </c>
@@ -6723,8 +6919,9 @@
       <c r="I115" s="8" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="32.25" hidden="1" thickBot="1">
+      <c r="J115" s="15"/>
+    </row>
+    <row r="116" spans="1:10" ht="32.25" thickBot="1">
       <c r="A116" s="4">
         <v>29</v>
       </c>
@@ -6752,8 +6949,9 @@
       <c r="I116" s="8" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.75" hidden="1">
+      <c r="J116" s="15"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" thickBot="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5" t="s">
         <v>761</v>
@@ -6771,8 +6969,9 @@
       <c r="I117" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J117" s="15"/>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" thickBot="1">
       <c r="A118" s="4"/>
       <c r="B118" s="5" t="s">
         <v>761</v>
@@ -6788,8 +6987,9 @@
       <c r="I118" s="6">
         <v>617239</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J118" s="15"/>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" thickBot="1">
       <c r="A119" s="4"/>
       <c r="B119" s="5" t="s">
         <v>761</v>
@@ -6805,8 +7005,9 @@
       <c r="I119" s="6" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J119" s="15"/>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" thickBot="1">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
         <v>761</v>
@@ -6822,8 +7023,9 @@
       <c r="I120" s="6" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J120" s="15"/>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" thickBot="1">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
         <v>761</v>
@@ -6839,8 +7041,9 @@
       <c r="I121" s="6" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J121" s="15"/>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" thickBot="1">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>761</v>
@@ -6856,8 +7059,9 @@
       <c r="I122" s="6" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J122" s="15"/>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" thickBot="1">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>761</v>
@@ -6873,8 +7077,9 @@
       <c r="I123" s="6" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J123" s="15"/>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" thickBot="1">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
         <v>761</v>
@@ -6890,8 +7095,9 @@
       <c r="I124" s="6" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J124" s="15"/>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" thickBot="1">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
         <v>761</v>
@@ -6907,8 +7113,9 @@
       <c r="I125" s="6" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J125" s="15"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" thickBot="1">
       <c r="A126" s="4"/>
       <c r="B126" s="5" t="s">
         <v>761</v>
@@ -6924,8 +7131,9 @@
       <c r="I126" s="6" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J126" s="15"/>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" thickBot="1">
       <c r="A127" s="4"/>
       <c r="B127" s="5" t="s">
         <v>761</v>
@@ -6941,8 +7149,9 @@
       <c r="I127" s="6" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" thickBot="1">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
         <v>761</v>
@@ -6958,8 +7167,9 @@
       <c r="I128" s="6" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J128" s="15"/>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" thickBot="1">
       <c r="A129" s="4"/>
       <c r="B129" s="5" t="s">
         <v>761</v>
@@ -6975,8 +7185,9 @@
       <c r="I129" s="6" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J129" s="15"/>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" thickBot="1">
       <c r="A130" s="4"/>
       <c r="B130" s="5" t="s">
         <v>761</v>
@@ -6992,8 +7203,9 @@
       <c r="I130" s="6" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J130" s="15"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" thickBot="1">
       <c r="A131" s="4"/>
       <c r="B131" s="5" t="s">
         <v>761</v>
@@ -7009,8 +7221,9 @@
       <c r="I131" s="6" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J131" s="15"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" thickBot="1">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
         <v>761</v>
@@ -7026,8 +7239,9 @@
       <c r="I132" s="6" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J132" s="15"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" thickBot="1">
       <c r="A133" s="4"/>
       <c r="B133" s="5" t="s">
         <v>761</v>
@@ -7043,8 +7257,9 @@
       <c r="I133" s="6" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J133" s="15"/>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" thickBot="1">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
         <v>761</v>
@@ -7060,8 +7275,9 @@
       <c r="I134" s="6" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J134" s="15"/>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" thickBot="1">
       <c r="A135" s="4"/>
       <c r="B135" s="5" t="s">
         <v>761</v>
@@ -7077,8 +7293,9 @@
       <c r="I135" s="6" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J135" s="15"/>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" thickBot="1">
       <c r="A136" s="4"/>
       <c r="B136" s="5" t="s">
         <v>761</v>
@@ -7094,8 +7311,9 @@
       <c r="I136" s="6" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J136" s="15"/>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" thickBot="1">
       <c r="A137" s="4"/>
       <c r="B137" s="5" t="s">
         <v>761</v>
@@ -7111,8 +7329,9 @@
       <c r="I137" s="6" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J137" s="15"/>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" thickBot="1">
       <c r="A138" s="4"/>
       <c r="B138" s="5" t="s">
         <v>761</v>
@@ -7128,8 +7347,9 @@
       <c r="I138" s="6" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J138" s="15"/>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" thickBot="1">
       <c r="A139" s="4"/>
       <c r="B139" s="5" t="s">
         <v>761</v>
@@ -7145,8 +7365,9 @@
       <c r="I139" s="6" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J139" s="15"/>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" thickBot="1">
       <c r="A140" s="4"/>
       <c r="B140" s="5" t="s">
         <v>761</v>
@@ -7162,8 +7383,9 @@
       <c r="I140" s="6" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J140" s="15"/>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" thickBot="1">
       <c r="A141" s="4"/>
       <c r="B141" s="5" t="s">
         <v>761</v>
@@ -7179,8 +7401,9 @@
       <c r="I141" s="6" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J141" s="15"/>
+    </row>
+    <row r="142" spans="1:10" ht="16.5" thickBot="1">
       <c r="A142" s="4"/>
       <c r="B142" s="5" t="s">
         <v>761</v>
@@ -7196,8 +7419,9 @@
       <c r="I142" s="6" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J142" s="15"/>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" thickBot="1">
       <c r="A143" s="4"/>
       <c r="B143" s="5" t="s">
         <v>761</v>
@@ -7213,8 +7437,9 @@
       <c r="I143" s="6" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J143" s="15"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" thickBot="1">
       <c r="A144" s="4"/>
       <c r="B144" s="5" t="s">
         <v>761</v>
@@ -7230,8 +7455,9 @@
       <c r="I144" s="6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J144" s="15"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" thickBot="1">
       <c r="A145" s="4"/>
       <c r="B145" s="5" t="s">
         <v>761</v>
@@ -7247,8 +7473,9 @@
       <c r="I145" s="6" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J145" s="15"/>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" thickBot="1">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
         <v>761</v>
@@ -7264,8 +7491,9 @@
       <c r="I146" s="6" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J146" s="15"/>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" thickBot="1">
       <c r="A147" s="4"/>
       <c r="B147" s="5" t="s">
         <v>761</v>
@@ -7281,8 +7509,9 @@
       <c r="I147" s="6" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J147" s="15"/>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" thickBot="1">
       <c r="A148" s="4"/>
       <c r="B148" s="5" t="s">
         <v>761</v>
@@ -7298,8 +7527,9 @@
       <c r="I148" s="6" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J148" s="15"/>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" thickBot="1">
       <c r="A149" s="4"/>
       <c r="B149" s="5" t="s">
         <v>761</v>
@@ -7315,8 +7545,9 @@
       <c r="I149" s="6" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J149" s="15"/>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" thickBot="1">
       <c r="A150" s="4"/>
       <c r="B150" s="5" t="s">
         <v>761</v>
@@ -7332,8 +7563,9 @@
       <c r="I150" s="6">
         <v>524435</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J150" s="15"/>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" thickBot="1">
       <c r="A151" s="4"/>
       <c r="B151" s="5" t="s">
         <v>761</v>
@@ -7351,8 +7583,9 @@
       <c r="I151" s="6" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J151" s="15"/>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" thickBot="1">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
         <v>761</v>
@@ -7370,8 +7603,9 @@
       <c r="I152" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="16.5" hidden="1" thickBot="1">
+      <c r="J152" s="15"/>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" thickBot="1">
       <c r="A153" s="4"/>
       <c r="B153" s="5" t="s">
         <v>761</v>
@@ -7387,8 +7621,9 @@
       <c r="I153" s="6" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="15.75">
+      <c r="J153" s="17"/>
+    </row>
+    <row r="154" spans="1:10" ht="15.75">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -7398,7 +7633,7 @@
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:10" ht="15.75">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -7408,7 +7643,7 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:10" ht="15.75">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -7418,7 +7653,7 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:10" ht="15.75">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -7428,7 +7663,7 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:10" ht="15.75">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -7438,7 +7673,7 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:10" ht="15.75">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -7448,7 +7683,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:10" ht="15.75">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -7804,7 +8039,7 @@
   <conditionalFormatting sqref="I69">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I193:I1048576 I100:I105 I1:I28 I30 I32:I49 I51:I60 I62:I81 I83:I87 I89:I98 I107 I111 I113:I153">
+  <conditionalFormatting sqref="J45 I193:I1048576 I100:I105 I1:I28 I30 I32:I44 I46:I49 I51:I60 I62:I81 I83:I87 I89:I98 I107 I111 I113:I153">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFD1935-D87D-4634-9190-38CDAACD908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B944E1B-C7C2-4FE5-9165-D5E71E0AB327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="28680" yWindow="-10095" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="791">
   <si>
     <t>ZJ</t>
   </si>
@@ -2408,6 +2408,9 @@
   </si>
   <si>
     <t>CA3770</t>
+  </si>
+  <si>
+    <t>4DE92A</t>
   </si>
 </sst>
 </file>
@@ -2572,77 +2575,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3154,22 +3097,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A1:J151" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I117">
     <sortCondition ref="E1:E117"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{DC0B766E-C4E1-42B9-B84A-D3019D9161F2}" name="Alternative ID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{DC0B766E-C4E1-42B9-B84A-D3019D9161F2}" name="Alternative ID" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3199,9 +3142,9 @@
     <tableColumn id="1" xr3:uid="{2C93214C-6D39-48BD-AAF6-A27D6B9C4E71}" name="Lookup">
       <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3526,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
   <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3932,7 +3875,7 @@
       <c r="I13" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="3">
@@ -3962,7 +3905,7 @@
       <c r="I14" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1">
       <c r="A15" s="3">
@@ -4926,7 +4869,7 @@
       <c r="I46" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="13" t="s">
         <v>782</v>
       </c>
     </row>
@@ -5110,7 +5053,7 @@
       <c r="I52" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J52" s="13"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="16.5" thickBot="1">
       <c r="A53" s="3">
@@ -6198,7 +6141,7 @@
       <c r="I88" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J88" s="13" t="s">
         <v>783</v>
       </c>
     </row>
@@ -6532,7 +6475,7 @@
       <c r="I99" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="J99" s="14" t="s">
+      <c r="J99" s="13" t="s">
         <v>769</v>
       </c>
     </row>
@@ -6564,7 +6507,7 @@
       <c r="I100" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="J100" s="14" t="s">
+      <c r="J100" s="13" t="s">
         <v>786</v>
       </c>
     </row>
@@ -6623,10 +6566,12 @@
       <c r="H102" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" t="s">
+        <v>790</v>
+      </c>
+      <c r="J102" s="14">
         <v>101212</v>
       </c>
-      <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" thickBot="1">
       <c r="A103" s="3">
@@ -6806,7 +6751,7 @@
       <c r="I108" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="J108" s="14" t="s">
+      <c r="J108" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -8105,11 +8050,11 @@
       <c r="I192" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1 I152:I1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I191:I1048576 I1">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1 I152:I1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8123,7 +8068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D3A2B-B8F5-4A4C-A0B8-D793DC2E0E9A}">
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -10605,7 +10550,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B944E1B-C7C2-4FE5-9165-D5E71E0AB327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717154AC-D428-40EB-AC09-D926834D48DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10095" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="792">
   <si>
     <t>ZJ</t>
   </si>
@@ -2411,6 +2411,9 @@
   </si>
   <si>
     <t>4DE92A</t>
+  </si>
+  <si>
+    <t>4DEACE</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3473,7 @@
   <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K2" sqref="K2:K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6569,7 +6572,7 @@
       <c r="I102" t="s">
         <v>790</v>
       </c>
-      <c r="J102" s="14">
+      <c r="J102" s="3">
         <v>101212</v>
       </c>
     </row>
@@ -6598,10 +6601,12 @@
       <c r="H103" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="J103" s="3">
         <v>101211</v>
       </c>
-      <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" thickBot="1">
       <c r="A104" s="3">

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717154AC-D428-40EB-AC09-D926834D48DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326E49DB-8872-4037-9A2B-0C3252B3D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="28680" yWindow="-10095" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="795">
   <si>
     <t>ZJ</t>
   </si>
@@ -2414,6 +2414,15 @@
   </si>
   <si>
     <t>4DEACE</t>
+  </si>
+  <si>
+    <t>5ADD1E</t>
+  </si>
+  <si>
+    <t>40751C</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -2546,7 +2555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2584,11 +2593,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2618,6 +2634,45 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF444444"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFDDDDDD"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDDDDDD"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFDDDDDD"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFDDDDDD"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3100,22 +3155,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A1:J151" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:K151" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:K151" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I117">
     <sortCondition ref="E1:E117"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{DC0B766E-C4E1-42B9-B84A-D3019D9161F2}" name="Alternative ID" dataDxfId="6"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{DC0B766E-C4E1-42B9-B84A-D3019D9161F2}" name="Alternative ID" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{7EE8605D-AE2C-4F1C-9CF2-34609C6AAE7F}" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3145,9 +3201,9 @@
     <tableColumn id="1" xr3:uid="{2C93214C-6D39-48BD-AAF6-A27D6B9C4E71}" name="Lookup">
       <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3470,10 +3526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K151"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3488,7 +3544,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>419</v>
       </c>
@@ -3519,8 +3575,11 @@
       <c r="J1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32.25" thickBot="1">
       <c r="A2" s="3">
         <v>14</v>
       </c>
@@ -3549,8 +3608,9 @@
         <v>525</v>
       </c>
       <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="3">
         <v>15</v>
       </c>
@@ -3579,8 +3639,9 @@
         <v>527</v>
       </c>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" thickBot="1">
       <c r="A4" s="3">
         <v>12</v>
       </c>
@@ -3609,8 +3670,9 @@
         <v>589</v>
       </c>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="3">
         <v>25</v>
       </c>
@@ -3639,8 +3701,9 @@
         <v>452</v>
       </c>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -3669,8 +3732,9 @@
         <v>608</v>
       </c>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="32.25" thickBot="1">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -3699,8 +3763,9 @@
         <v>623</v>
       </c>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" thickBot="1">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -3729,8 +3794,9 @@
         <v>587</v>
       </c>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1">
       <c r="A9" s="3">
         <v>37</v>
       </c>
@@ -3759,8 +3825,9 @@
         <v>440326</v>
       </c>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -3789,8 +3856,9 @@
         <v>607</v>
       </c>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1">
       <c r="A11" s="3">
         <v>26</v>
       </c>
@@ -3815,12 +3883,17 @@
       <c r="H11" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K11" s="14" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="A12" s="3">
         <v>34</v>
       </c>
@@ -3848,9 +3921,10 @@
       <c r="I12" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -3879,8 +3953,9 @@
         <v>588</v>
       </c>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="3">
         <v>38</v>
       </c>
@@ -3909,8 +3984,9 @@
         <v>446</v>
       </c>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3939,8 +4015,9 @@
         <v>611</v>
       </c>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickBot="1">
       <c r="A16" s="3">
         <v>26</v>
       </c>
@@ -3969,8 +4046,9 @@
         <v>624</v>
       </c>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="32.25" thickBot="1">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3999,8 +4077,9 @@
         <v>532</v>
       </c>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="32.25" thickBot="1">
       <c r="A18" s="3">
         <v>22</v>
       </c>
@@ -4029,8 +4108,9 @@
         <v>533</v>
       </c>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickBot="1">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -4059,8 +4139,9 @@
         <v>447</v>
       </c>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickBot="1">
       <c r="A20" s="3">
         <v>29</v>
       </c>
@@ -4089,8 +4170,9 @@
         <v>625</v>
       </c>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="32.25" thickBot="1">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -4119,8 +4201,9 @@
         <v>610</v>
       </c>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" thickBot="1">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -4151,8 +4234,9 @@
       <c r="J22" s="7" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" thickBot="1">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -4181,8 +4265,9 @@
         <v>626</v>
       </c>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" thickBot="1">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -4211,8 +4296,9 @@
         <v>613</v>
       </c>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" thickBot="1">
       <c r="A25" s="3">
         <v>13</v>
       </c>
@@ -4241,8 +4327,9 @@
         <v>552</v>
       </c>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4271,8 +4358,9 @@
         <v>551</v>
       </c>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" thickBot="1">
       <c r="A27" s="3">
         <v>8</v>
       </c>
@@ -4301,8 +4389,9 @@
         <v>609</v>
       </c>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" thickBot="1">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4331,8 +4420,9 @@
         <v>670</v>
       </c>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" thickBot="1">
       <c r="A29" s="3">
         <v>33</v>
       </c>
@@ -4361,8 +4451,9 @@
         <v>669</v>
       </c>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" thickBot="1">
       <c r="A30" s="3">
         <v>7</v>
       </c>
@@ -4391,8 +4482,9 @@
         <v>434</v>
       </c>
       <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" thickBot="1">
       <c r="A31" s="3">
         <v>23</v>
       </c>
@@ -4421,8 +4513,9 @@
         <v>772</v>
       </c>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" thickBot="1">
       <c r="A32" s="3">
         <v>24</v>
       </c>
@@ -4451,8 +4544,9 @@
         <v>458</v>
       </c>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickBot="1">
       <c r="A33" s="3">
         <v>21</v>
       </c>
@@ -4481,8 +4575,9 @@
         <v>614</v>
       </c>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickBot="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -4511,8 +4606,9 @@
         <v>785</v>
       </c>
       <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" ht="32.25" thickBot="1">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -4541,8 +4637,9 @@
         <v>539</v>
       </c>
       <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" thickBot="1">
       <c r="A36" s="3">
         <v>39</v>
       </c>
@@ -4571,8 +4668,9 @@
         <v>756</v>
       </c>
       <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickBot="1">
       <c r="A37" s="3">
         <v>18</v>
       </c>
@@ -4601,8 +4699,9 @@
         <v>597</v>
       </c>
       <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1">
       <c r="A38" s="3">
         <v>19</v>
       </c>
@@ -4631,8 +4730,9 @@
         <v>599</v>
       </c>
       <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="32.25" thickBot="1">
       <c r="A39" s="3">
         <v>21</v>
       </c>
@@ -4661,8 +4761,9 @@
         <v>593</v>
       </c>
       <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickBot="1">
       <c r="A40" s="3">
         <v>11</v>
       </c>
@@ -4691,8 +4792,9 @@
         <v>618</v>
       </c>
       <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickBot="1">
       <c r="A41" s="3">
         <v>25</v>
       </c>
@@ -4721,8 +4823,9 @@
         <v>628</v>
       </c>
       <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" thickBot="1">
       <c r="A42" s="3">
         <v>3</v>
       </c>
@@ -4751,8 +4854,9 @@
         <v>778</v>
       </c>
       <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" ht="32.25" thickBot="1">
       <c r="A43" s="3">
         <v>24</v>
       </c>
@@ -4781,8 +4885,9 @@
         <v>535</v>
       </c>
       <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" thickBot="1">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -4811,8 +4916,9 @@
         <v>439</v>
       </c>
       <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" thickBot="1">
       <c r="A45" s="3">
         <v>10</v>
       </c>
@@ -4843,8 +4949,9 @@
       <c r="J45" s="8" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" thickBot="1">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -4875,8 +4982,9 @@
       <c r="J46" s="13" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickBot="1">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -4905,8 +5013,9 @@
         <v>630</v>
       </c>
       <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" thickBot="1">
       <c r="A48" s="3">
         <v>27</v>
       </c>
@@ -4935,8 +5044,9 @@
         <v>529</v>
       </c>
       <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" thickBot="1">
       <c r="A49" s="3">
         <v>36</v>
       </c>
@@ -4967,8 +5077,9 @@
       <c r="J49" s="8" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" thickBot="1">
       <c r="A50" s="3">
         <v>41</v>
       </c>
@@ -4997,8 +5108,9 @@
         <v>675</v>
       </c>
       <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" thickBot="1">
       <c r="A51" s="3">
         <v>17</v>
       </c>
@@ -5027,8 +5139,9 @@
         <v>450</v>
       </c>
       <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" thickBot="1">
       <c r="A52" s="3">
         <v>26</v>
       </c>
@@ -5057,8 +5170,9 @@
         <v>591</v>
       </c>
       <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" thickBot="1">
       <c r="A53" s="3">
         <v>24</v>
       </c>
@@ -5089,8 +5203,9 @@
       <c r="J53" s="12" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" ht="32.25" thickBot="1">
       <c r="A54" s="3">
         <v>30</v>
       </c>
@@ -5119,8 +5234,9 @@
         <v>616</v>
       </c>
       <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" thickBot="1">
       <c r="A55" s="3">
         <v>6</v>
       </c>
@@ -5149,8 +5265,9 @@
         <v>537</v>
       </c>
       <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" thickBot="1">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -5181,8 +5298,9 @@
       <c r="J56" s="8" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="1:11" ht="32.25" thickBot="1">
       <c r="A57" s="3">
         <v>28</v>
       </c>
@@ -5211,8 +5329,9 @@
         <v>538</v>
       </c>
       <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="1:11" ht="32.25" thickBot="1">
       <c r="A58" s="3">
         <v>5</v>
       </c>
@@ -5241,8 +5360,9 @@
         <v>473</v>
       </c>
       <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" thickBot="1">
       <c r="A59" s="3">
         <v>8</v>
       </c>
@@ -5271,8 +5391,9 @@
         <v>592</v>
       </c>
       <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" thickBot="1">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -5301,8 +5422,9 @@
         <v>617</v>
       </c>
       <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:11" ht="32.25" thickBot="1">
       <c r="A61" s="3">
         <v>27</v>
       </c>
@@ -5331,8 +5453,9 @@
         <v>773</v>
       </c>
       <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="1:11" ht="32.25" thickBot="1">
       <c r="A62" s="3">
         <v>10</v>
       </c>
@@ -5361,8 +5484,9 @@
         <v>541</v>
       </c>
       <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" thickBot="1">
       <c r="A63" s="3">
         <v>40</v>
       </c>
@@ -5391,8 +5515,9 @@
         <v>540</v>
       </c>
       <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" thickBot="1">
       <c r="A64" s="3">
         <v>14</v>
       </c>
@@ -5423,8 +5548,9 @@
       <c r="J64" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" thickBot="1">
       <c r="A65" s="3">
         <v>16</v>
       </c>
@@ -5453,8 +5579,9 @@
         <v>595</v>
       </c>
       <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" thickBot="1">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -5483,8 +5610,9 @@
         <v>619</v>
       </c>
       <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" thickBot="1">
       <c r="A67" s="3">
         <v>34</v>
       </c>
@@ -5513,8 +5641,9 @@
         <v>632</v>
       </c>
       <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:11" ht="32.25" thickBot="1">
       <c r="A68" s="3">
         <v>12</v>
       </c>
@@ -5543,8 +5672,9 @@
         <v>534</v>
       </c>
       <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" thickBot="1">
       <c r="A69" s="3">
         <v>21</v>
       </c>
@@ -5573,8 +5703,9 @@
         <v>453</v>
       </c>
       <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" thickBot="1">
       <c r="A70" s="3">
         <v>18</v>
       </c>
@@ -5603,8 +5734,9 @@
         <v>633</v>
       </c>
       <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" thickBot="1">
       <c r="A71" s="3">
         <v>35</v>
       </c>
@@ -5633,8 +5765,9 @@
         <v>547</v>
       </c>
       <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="1:11" ht="32.25" thickBot="1">
       <c r="A72" s="3">
         <v>11</v>
       </c>
@@ -5663,8 +5796,9 @@
         <v>596</v>
       </c>
       <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" thickBot="1">
       <c r="A73" s="3">
         <v>36</v>
       </c>
@@ -5693,8 +5827,9 @@
         <v>476</v>
       </c>
       <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" thickBot="1">
       <c r="A74" s="3">
         <v>20</v>
       </c>
@@ -5723,8 +5858,9 @@
         <v>771</v>
       </c>
       <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" thickBot="1">
       <c r="A75" s="3">
         <v>32</v>
       </c>
@@ -5753,8 +5889,9 @@
         <v>634</v>
       </c>
       <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K75" s="14"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" thickBot="1">
       <c r="A76" s="3">
         <v>20</v>
       </c>
@@ -5783,8 +5920,9 @@
         <v>598</v>
       </c>
       <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" thickBot="1">
       <c r="A77" s="3">
         <v>22</v>
       </c>
@@ -5813,8 +5951,9 @@
         <v>600</v>
       </c>
       <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K77" s="14"/>
+    </row>
+    <row r="78" spans="1:11" ht="32.25" thickBot="1">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -5843,8 +5982,9 @@
         <v>546</v>
       </c>
       <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K78" s="14"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" thickBot="1">
       <c r="A79" s="3">
         <v>7</v>
       </c>
@@ -5873,8 +6013,9 @@
         <v>542</v>
       </c>
       <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K79" s="14"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" thickBot="1">
       <c r="A80" s="3">
         <v>6</v>
       </c>
@@ -5903,8 +6044,9 @@
         <v>788</v>
       </c>
       <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K80" s="14"/>
+    </row>
+    <row r="81" spans="1:11" ht="32.25" thickBot="1">
       <c r="A81" s="3">
         <v>33</v>
       </c>
@@ -5933,8 +6075,9 @@
         <v>474</v>
       </c>
       <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K81" s="14"/>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" thickBot="1">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -5963,8 +6106,9 @@
         <v>774</v>
       </c>
       <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K82" s="14"/>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" thickBot="1">
       <c r="A83" s="3">
         <v>22</v>
       </c>
@@ -5993,8 +6137,9 @@
         <v>531</v>
       </c>
       <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K83" s="14"/>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" thickBot="1">
       <c r="A84" s="3">
         <v>17</v>
       </c>
@@ -6023,8 +6168,9 @@
         <v>543</v>
       </c>
       <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K84" s="14"/>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" thickBot="1">
       <c r="A85" s="3">
         <v>23</v>
       </c>
@@ -6055,8 +6201,9 @@
       <c r="J85" s="7" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K85" s="14"/>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" thickBot="1">
       <c r="A86" s="3">
         <v>27</v>
       </c>
@@ -6085,8 +6232,9 @@
         <v>469</v>
       </c>
       <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" thickBot="1">
       <c r="A87" s="3">
         <v>34</v>
       </c>
@@ -6115,8 +6263,9 @@
         <v>603</v>
       </c>
       <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" thickBot="1">
       <c r="A88" s="3">
         <v>18</v>
       </c>
@@ -6147,8 +6296,9 @@
       <c r="J88" s="13" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K88" s="14"/>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" thickBot="1">
       <c r="A89" s="3">
         <v>23</v>
       </c>
@@ -6177,8 +6327,9 @@
         <v>530</v>
       </c>
       <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K89" s="14"/>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" thickBot="1">
       <c r="A90" s="3">
         <v>31</v>
       </c>
@@ -6207,8 +6358,9 @@
         <v>484977</v>
       </c>
       <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K90" s="14"/>
+    </row>
+    <row r="91" spans="1:11" ht="32.25" thickBot="1">
       <c r="A91" s="3">
         <v>38</v>
       </c>
@@ -6237,8 +6389,9 @@
         <v>485222</v>
       </c>
       <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K91" s="14"/>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" thickBot="1">
       <c r="A92" s="3">
         <v>30</v>
       </c>
@@ -6267,8 +6420,9 @@
         <v>604</v>
       </c>
       <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K92" s="14"/>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" thickBot="1">
       <c r="A93" s="3">
         <v>35</v>
       </c>
@@ -6297,8 +6451,9 @@
         <v>601</v>
       </c>
       <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K93" s="14"/>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" thickBot="1">
       <c r="A94" s="3">
         <v>17</v>
       </c>
@@ -6329,8 +6484,9 @@
       <c r="J94" s="8" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K94" s="14"/>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" thickBot="1">
       <c r="A95" s="3">
         <v>33</v>
       </c>
@@ -6359,8 +6515,9 @@
         <v>635</v>
       </c>
       <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K95" s="14"/>
+    </row>
+    <row r="96" spans="1:11" ht="32.25" thickBot="1">
       <c r="A96" s="3">
         <v>32</v>
       </c>
@@ -6389,8 +6546,9 @@
         <v>526</v>
       </c>
       <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K96" s="14"/>
+    </row>
+    <row r="97" spans="1:11" ht="32.25" thickBot="1">
       <c r="A97" s="3">
         <v>11</v>
       </c>
@@ -6419,8 +6577,9 @@
         <v>549</v>
       </c>
       <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K97" s="14"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" thickBot="1">
       <c r="A98" s="3">
         <v>42</v>
       </c>
@@ -6449,8 +6608,9 @@
         <v>548</v>
       </c>
       <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K98" s="14"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" thickBot="1">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -6481,8 +6641,9 @@
       <c r="J99" s="13" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K99" s="14"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" thickBot="1">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -6513,8 +6674,9 @@
       <c r="J100" s="13" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K100" s="14"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" thickBot="1">
       <c r="A101" s="3">
         <v>3</v>
       </c>
@@ -6543,8 +6705,9 @@
         <v>605</v>
       </c>
       <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K101" s="14"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" thickBot="1">
       <c r="A102" s="3">
         <v>12</v>
       </c>
@@ -6575,8 +6738,9 @@
       <c r="J102" s="3">
         <v>101212</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K102" s="14"/>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" thickBot="1">
       <c r="A103" s="3">
         <v>35</v>
       </c>
@@ -6601,14 +6765,15 @@
       <c r="H103" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I103" s="14" t="s">
+      <c r="I103" s="3" t="s">
         <v>791</v>
       </c>
       <c r="J103" s="3">
         <v>101211</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K103" s="14"/>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" thickBot="1">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -6637,8 +6802,9 @@
         <v>545</v>
       </c>
       <c r="J104" s="3"/>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K104" s="14"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" thickBot="1">
       <c r="A105" s="3">
         <v>30</v>
       </c>
@@ -6667,8 +6833,9 @@
         <v>585</v>
       </c>
       <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K105" s="14"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" thickBot="1">
       <c r="A106" s="3">
         <v>28</v>
       </c>
@@ -6697,8 +6864,9 @@
         <v>461</v>
       </c>
       <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K106" s="14"/>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" thickBot="1">
       <c r="A107" s="3">
         <v>32</v>
       </c>
@@ -6727,8 +6895,9 @@
         <v>472</v>
       </c>
       <c r="J107" s="3"/>
-    </row>
-    <row r="108" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K107" s="14"/>
+    </row>
+    <row r="108" spans="1:11" ht="32.25" thickBot="1">
       <c r="A108" s="3">
         <v>31</v>
       </c>
@@ -6759,8 +6928,9 @@
       <c r="J108" s="13" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K108" s="14"/>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" thickBot="1">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -6789,8 +6959,9 @@
         <v>636</v>
       </c>
       <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K109" s="14"/>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" thickBot="1">
       <c r="A110" s="3">
         <v>37</v>
       </c>
@@ -6819,8 +6990,9 @@
         <v>775</v>
       </c>
       <c r="J110" s="3"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K110" s="14"/>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" thickBot="1">
       <c r="A111" s="3">
         <v>29</v>
       </c>
@@ -6849,8 +7021,9 @@
         <v>776</v>
       </c>
       <c r="J111" s="3"/>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K111" s="14"/>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" thickBot="1">
       <c r="A112" s="3">
         <v>4</v>
       </c>
@@ -6879,8 +7052,9 @@
         <v>435</v>
       </c>
       <c r="J112" s="3"/>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K112" s="14"/>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" thickBot="1">
       <c r="A113" s="3">
         <v>7</v>
       </c>
@@ -6909,8 +7083,9 @@
         <v>714</v>
       </c>
       <c r="J113" s="3"/>
-    </row>
-    <row r="114" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K113" s="14"/>
+    </row>
+    <row r="114" spans="1:11" ht="32.25" thickBot="1">
       <c r="A114" s="3">
         <v>5</v>
       </c>
@@ -6939,8 +7114,9 @@
         <v>586</v>
       </c>
       <c r="J114" s="3"/>
-    </row>
-    <row r="115" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K114" s="14"/>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" thickBot="1">
       <c r="A115" s="3">
         <v>16</v>
       </c>
@@ -6969,8 +7145,9 @@
         <v>564</v>
       </c>
       <c r="J115" s="3"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K115" s="14"/>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" thickBot="1">
       <c r="A116" s="3">
         <v>13</v>
       </c>
@@ -6999,8 +7176,9 @@
         <v>621</v>
       </c>
       <c r="J116" s="3"/>
-    </row>
-    <row r="117" spans="1:10" ht="32.25" thickBot="1">
+      <c r="K116" s="14"/>
+    </row>
+    <row r="117" spans="1:11" ht="32.25" thickBot="1">
       <c r="A117" s="3">
         <v>29</v>
       </c>
@@ -7029,8 +7207,9 @@
         <v>622</v>
       </c>
       <c r="J117" s="3"/>
-    </row>
-    <row r="118" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K117" s="14"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" thickBot="1">
       <c r="A118" s="3"/>
       <c r="B118" s="4" t="s">
         <v>760</v>
@@ -7047,8 +7226,9 @@
         <v>617239</v>
       </c>
       <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K118" s="14"/>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" thickBot="1">
       <c r="A119" s="3"/>
       <c r="B119" s="4" t="s">
         <v>760</v>
@@ -7065,8 +7245,9 @@
         <v>553</v>
       </c>
       <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K119" s="14"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" thickBot="1">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
         <v>760</v>
@@ -7083,8 +7264,9 @@
         <v>554</v>
       </c>
       <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K120" s="14"/>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" thickBot="1">
       <c r="A121" s="3"/>
       <c r="B121" s="4" t="s">
         <v>760</v>
@@ -7101,8 +7283,9 @@
         <v>555</v>
       </c>
       <c r="J121" s="3"/>
-    </row>
-    <row r="122" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K121" s="14"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" thickBot="1">
       <c r="A122" s="3"/>
       <c r="B122" s="4" t="s">
         <v>760</v>
@@ -7119,8 +7302,9 @@
         <v>556</v>
       </c>
       <c r="J122" s="3"/>
-    </row>
-    <row r="123" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K122" s="14"/>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" thickBot="1">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
         <v>760</v>
@@ -7137,8 +7321,9 @@
         <v>557</v>
       </c>
       <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K123" s="14"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" thickBot="1">
       <c r="A124" s="3"/>
       <c r="B124" s="4" t="s">
         <v>760</v>
@@ -7155,8 +7340,9 @@
         <v>558</v>
       </c>
       <c r="J124" s="3"/>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K124" s="14"/>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" thickBot="1">
       <c r="A125" s="3"/>
       <c r="B125" s="4" t="s">
         <v>760</v>
@@ -7173,8 +7359,9 @@
         <v>559</v>
       </c>
       <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K125" s="14"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" thickBot="1">
       <c r="A126" s="3"/>
       <c r="B126" s="4" t="s">
         <v>760</v>
@@ -7191,8 +7378,9 @@
         <v>560</v>
       </c>
       <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K126" s="14"/>
+    </row>
+    <row r="127" spans="1:11" ht="16.5" thickBot="1">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
         <v>760</v>
@@ -7209,8 +7397,9 @@
         <v>561</v>
       </c>
       <c r="J127" s="3"/>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K127" s="14"/>
+    </row>
+    <row r="128" spans="1:11" ht="16.5" thickBot="1">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
         <v>760</v>
@@ -7227,8 +7416,9 @@
         <v>562</v>
       </c>
       <c r="J128" s="3"/>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K128" s="14"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" thickBot="1">
       <c r="A129" s="3"/>
       <c r="B129" s="4" t="s">
         <v>760</v>
@@ -7245,8 +7435,9 @@
         <v>563</v>
       </c>
       <c r="J129" s="3"/>
-    </row>
-    <row r="130" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K129" s="14"/>
+    </row>
+    <row r="130" spans="1:11" ht="16.5" thickBot="1">
       <c r="A130" s="3"/>
       <c r="B130" s="4" t="s">
         <v>760</v>
@@ -7263,8 +7454,9 @@
         <v>565</v>
       </c>
       <c r="J130" s="3"/>
-    </row>
-    <row r="131" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K130" s="14"/>
+    </row>
+    <row r="131" spans="1:11" ht="16.5" thickBot="1">
       <c r="A131" s="3"/>
       <c r="B131" s="4" t="s">
         <v>760</v>
@@ -7281,8 +7473,9 @@
         <v>566</v>
       </c>
       <c r="J131" s="3"/>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K131" s="14"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" thickBot="1">
       <c r="A132" s="3"/>
       <c r="B132" s="4" t="s">
         <v>760</v>
@@ -7299,8 +7492,9 @@
         <v>567</v>
       </c>
       <c r="J132" s="3"/>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K132" s="14"/>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" thickBot="1">
       <c r="A133" s="3"/>
       <c r="B133" s="4" t="s">
         <v>760</v>
@@ -7317,8 +7511,9 @@
         <v>568</v>
       </c>
       <c r="J133" s="3"/>
-    </row>
-    <row r="134" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K133" s="14"/>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" thickBot="1">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
         <v>760</v>
@@ -7335,8 +7530,9 @@
         <v>569</v>
       </c>
       <c r="J134" s="3"/>
-    </row>
-    <row r="135" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K134" s="14"/>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" thickBot="1">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
         <v>760</v>
@@ -7353,8 +7549,9 @@
         <v>570</v>
       </c>
       <c r="J135" s="3"/>
-    </row>
-    <row r="136" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K135" s="14"/>
+    </row>
+    <row r="136" spans="1:11" ht="16.5" thickBot="1">
       <c r="A136" s="3"/>
       <c r="B136" s="4" t="s">
         <v>760</v>
@@ -7371,8 +7568,9 @@
         <v>571</v>
       </c>
       <c r="J136" s="3"/>
-    </row>
-    <row r="137" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K136" s="14"/>
+    </row>
+    <row r="137" spans="1:11" ht="16.5" thickBot="1">
       <c r="A137" s="3"/>
       <c r="B137" s="4" t="s">
         <v>760</v>
@@ -7389,8 +7587,9 @@
         <v>572</v>
       </c>
       <c r="J137" s="3"/>
-    </row>
-    <row r="138" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K137" s="14"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" thickBot="1">
       <c r="A138" s="3"/>
       <c r="B138" s="4" t="s">
         <v>760</v>
@@ -7407,8 +7606,9 @@
         <v>573</v>
       </c>
       <c r="J138" s="3"/>
-    </row>
-    <row r="139" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K138" s="14"/>
+    </row>
+    <row r="139" spans="1:11" ht="16.5" thickBot="1">
       <c r="A139" s="3"/>
       <c r="B139" s="4" t="s">
         <v>760</v>
@@ -7425,8 +7625,9 @@
         <v>574</v>
       </c>
       <c r="J139" s="3"/>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K139" s="14"/>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" thickBot="1">
       <c r="A140" s="3"/>
       <c r="B140" s="4" t="s">
         <v>760</v>
@@ -7443,8 +7644,9 @@
         <v>575</v>
       </c>
       <c r="J140" s="3"/>
-    </row>
-    <row r="141" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K140" s="14"/>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" thickBot="1">
       <c r="A141" s="3"/>
       <c r="B141" s="4" t="s">
         <v>760</v>
@@ -7461,8 +7663,9 @@
         <v>576</v>
       </c>
       <c r="J141" s="3"/>
-    </row>
-    <row r="142" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K141" s="14"/>
+    </row>
+    <row r="142" spans="1:11" ht="16.5" thickBot="1">
       <c r="A142" s="3"/>
       <c r="B142" s="4" t="s">
         <v>760</v>
@@ -7479,8 +7682,9 @@
         <v>577</v>
       </c>
       <c r="J142" s="3"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K142" s="14"/>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" thickBot="1">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
         <v>760</v>
@@ -7497,8 +7701,9 @@
         <v>578</v>
       </c>
       <c r="J143" s="3"/>
-    </row>
-    <row r="144" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K143" s="14"/>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" thickBot="1">
       <c r="A144" s="3"/>
       <c r="B144" s="4" t="s">
         <v>760</v>
@@ -7515,8 +7720,9 @@
         <v>579</v>
       </c>
       <c r="J144" s="3"/>
-    </row>
-    <row r="145" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K144" s="14"/>
+    </row>
+    <row r="145" spans="1:11" ht="16.5" thickBot="1">
       <c r="A145" s="3"/>
       <c r="B145" s="4" t="s">
         <v>760</v>
@@ -7533,8 +7739,9 @@
         <v>580</v>
       </c>
       <c r="J145" s="3"/>
-    </row>
-    <row r="146" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K145" s="14"/>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" thickBot="1">
       <c r="A146" s="3"/>
       <c r="B146" s="4" t="s">
         <v>760</v>
@@ -7551,8 +7758,9 @@
         <v>581</v>
       </c>
       <c r="J146" s="3"/>
-    </row>
-    <row r="147" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K146" s="14"/>
+    </row>
+    <row r="147" spans="1:11" ht="16.5" thickBot="1">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
         <v>760</v>
@@ -7569,8 +7777,9 @@
         <v>582</v>
       </c>
       <c r="J147" s="3"/>
-    </row>
-    <row r="148" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K147" s="14"/>
+    </row>
+    <row r="148" spans="1:11" ht="16.5" thickBot="1">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
         <v>760</v>
@@ -7587,8 +7796,9 @@
         <v>583</v>
       </c>
       <c r="J148" s="3"/>
-    </row>
-    <row r="149" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K148" s="14"/>
+    </row>
+    <row r="149" spans="1:11" ht="16.5" thickBot="1">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
         <v>760</v>
@@ -7605,8 +7815,9 @@
         <v>584</v>
       </c>
       <c r="J149" s="3"/>
-    </row>
-    <row r="150" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K149" s="14"/>
+    </row>
+    <row r="150" spans="1:11" ht="16.5" thickBot="1">
       <c r="A150" s="3"/>
       <c r="B150" s="4" t="s">
         <v>760</v>
@@ -7623,8 +7834,9 @@
         <v>524435</v>
       </c>
       <c r="J150" s="3"/>
-    </row>
-    <row r="151" spans="1:10" ht="16.5" thickBot="1">
+      <c r="K150" s="14"/>
+    </row>
+    <row r="151" spans="1:11" ht="16.5" thickBot="1">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
         <v>760</v>
@@ -7641,8 +7853,9 @@
         <v>606</v>
       </c>
       <c r="J151" s="4"/>
-    </row>
-    <row r="152" spans="1:10" ht="15.75">
+      <c r="K151" s="16"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -7652,7 +7865,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:10" ht="15.75">
+    <row r="153" spans="1:11" ht="15.75">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -7662,7 +7875,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:10" ht="15.75">
+    <row r="154" spans="1:11" ht="15.75">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -7672,7 +7885,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:10" ht="15.75">
+    <row r="155" spans="1:11" ht="15.75">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -7682,7 +7895,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75">
+    <row r="156" spans="1:11" ht="15.75">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -7692,7 +7905,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:10" ht="15.75">
+    <row r="157" spans="1:11" ht="15.75">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -7702,7 +7915,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:10" ht="15.75">
+    <row r="158" spans="1:11" ht="15.75">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -7712,7 +7925,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:10" ht="15.75">
+    <row r="159" spans="1:11" ht="15.75">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -7722,7 +7935,7 @@
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:10" ht="15.75">
+    <row r="160" spans="1:11" ht="15.75">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326E49DB-8872-4037-9A2B-0C3252B3D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD6C23-D0DE-4594-A49E-8E62E7887F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10095" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="29190" yWindow="-9585" windowWidth="21600" windowHeight="11385" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="797">
   <si>
     <t>ZJ</t>
   </si>
@@ -2423,6 +2423,12 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>5AD6AD</t>
+  </si>
+  <si>
+    <t>3EEE8D</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2590,16 +2596,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2634,45 +2634,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFDDDDDD"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFDDDDDD"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFDDDDDD"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFDDDDDD"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2745,6 +2706,45 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF444444"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFDDDDDD"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDDDDDD"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFDDDDDD"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFDDDDDD"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3155,8 +3155,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:K151" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:K151" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:K154" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:K154" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I117">
     <sortCondition ref="E1:E117"/>
   </sortState>
@@ -3171,7 +3171,7 @@
     <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="9"/>
     <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{DC0B766E-C4E1-42B9-B84A-D3019D9161F2}" name="Alternative ID" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{7EE8605D-AE2C-4F1C-9CF2-34609C6AAE7F}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{7EE8605D-AE2C-4F1C-9CF2-34609C6AAE7F}" name="Column1" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3201,9 +3201,9 @@
     <tableColumn id="1" xr3:uid="{2C93214C-6D39-48BD-AAF6-A27D6B9C4E71}" name="Lookup">
       <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3526,10 +3526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:K192"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3608,7 +3608,7 @@
         <v>525</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="3">
@@ -3639,7 +3639,7 @@
         <v>527</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="32.25" thickBot="1">
       <c r="A4" s="3">
@@ -3670,7 +3670,7 @@
         <v>589</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="3">
@@ -3701,7 +3701,7 @@
         <v>452</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="3">
@@ -3732,7 +3732,7 @@
         <v>608</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="32.25" thickBot="1">
       <c r="A7" s="3">
@@ -3763,7 +3763,7 @@
         <v>623</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" thickBot="1">
       <c r="A8" s="3">
@@ -3794,7 +3794,7 @@
         <v>587</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1">
       <c r="A9" s="3">
@@ -3825,7 +3825,7 @@
         <v>440326</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1">
       <c r="A10" s="3">
@@ -3856,7 +3856,7 @@
         <v>607</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1">
       <c r="A11" s="3">
@@ -3883,13 +3883,13 @@
       <c r="H11" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>792</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="3" t="s">
         <v>793</v>
       </c>
     </row>
@@ -3921,8 +3921,8 @@
       <c r="I12" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1">
       <c r="A13" s="3">
@@ -3953,7 +3953,7 @@
         <v>588</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="3">
@@ -3984,7 +3984,7 @@
         <v>446</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1">
       <c r="A15" s="3">
@@ -4015,7 +4015,7 @@
         <v>611</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickBot="1">
       <c r="A16" s="3">
@@ -4046,7 +4046,7 @@
         <v>624</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="32.25" thickBot="1">
       <c r="A17" s="3">
@@ -4077,7 +4077,7 @@
         <v>532</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="32.25" thickBot="1">
       <c r="A18" s="3">
@@ -4108,7 +4108,7 @@
         <v>533</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickBot="1">
       <c r="A19" s="3">
@@ -4139,7 +4139,7 @@
         <v>447</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1">
       <c r="A20" s="3">
@@ -4170,7 +4170,7 @@
         <v>625</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="32.25" thickBot="1">
       <c r="A21" s="3">
@@ -4201,7 +4201,7 @@
         <v>610</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1">
       <c r="A22" s="3">
@@ -4234,7 +4234,7 @@
       <c r="J22" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickBot="1">
       <c r="A23" s="3">
@@ -4265,7 +4265,7 @@
         <v>626</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickBot="1">
       <c r="A24" s="3">
@@ -4296,7 +4296,7 @@
         <v>613</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickBot="1">
       <c r="A25" s="3">
@@ -4327,7 +4327,7 @@
         <v>552</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickBot="1">
       <c r="A26" s="3">
@@ -4358,7 +4358,7 @@
         <v>551</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1">
       <c r="A27" s="3">
@@ -4389,7 +4389,7 @@
         <v>609</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" thickBot="1">
       <c r="A28" s="3">
@@ -4420,7 +4420,7 @@
         <v>670</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickBot="1">
       <c r="A29" s="3">
@@ -4451,7 +4451,7 @@
         <v>669</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickBot="1">
       <c r="A30" s="3">
@@ -4482,7 +4482,7 @@
         <v>434</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickBot="1">
       <c r="A31" s="3">
@@ -4513,7 +4513,7 @@
         <v>772</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickBot="1">
       <c r="A32" s="3">
@@ -4544,7 +4544,7 @@
         <v>458</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1">
       <c r="A33" s="3">
@@ -4575,7 +4575,7 @@
         <v>614</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickBot="1">
       <c r="A34" s="3">
@@ -4606,7 +4606,7 @@
         <v>785</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="32.25" thickBot="1">
       <c r="A35" s="3">
@@ -4637,7 +4637,7 @@
         <v>539</v>
       </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1">
       <c r="A36" s="3">
@@ -4668,7 +4668,7 @@
         <v>756</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="14"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1">
       <c r="A37" s="3">
@@ -4699,7 +4699,7 @@
         <v>597</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1">
       <c r="A38" s="3">
@@ -4730,7 +4730,7 @@
         <v>599</v>
       </c>
       <c r="J38" s="3"/>
-      <c r="K38" s="14"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="32.25" thickBot="1">
       <c r="A39" s="3">
@@ -4761,7 +4761,7 @@
         <v>593</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickBot="1">
       <c r="A40" s="3">
@@ -4792,7 +4792,7 @@
         <v>618</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickBot="1">
       <c r="A41" s="3">
@@ -4823,7 +4823,7 @@
         <v>628</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="14"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickBot="1">
       <c r="A42" s="3">
@@ -4854,7 +4854,7 @@
         <v>778</v>
       </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="14"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="32.25" thickBot="1">
       <c r="A43" s="3">
@@ -4885,7 +4885,7 @@
         <v>535</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickBot="1">
       <c r="A44" s="3">
@@ -4916,7 +4916,7 @@
         <v>439</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="14"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
       <c r="A45" s="3">
@@ -4949,7 +4949,7 @@
       <c r="J45" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="K45" s="14"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickBot="1">
       <c r="A46" s="3">
@@ -4982,7 +4982,7 @@
       <c r="J46" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="K46" s="14"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1">
       <c r="A47" s="3">
@@ -5013,7 +5013,7 @@
         <v>630</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="14"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickBot="1">
       <c r="A48" s="3">
@@ -5044,7 +5044,7 @@
         <v>529</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="14"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickBot="1">
       <c r="A49" s="3">
@@ -5077,7 +5077,7 @@
       <c r="J49" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="K49" s="14"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1">
       <c r="A50" s="3">
@@ -5108,7 +5108,7 @@
         <v>675</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="14"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" thickBot="1">
       <c r="A51" s="3">
@@ -5139,7 +5139,7 @@
         <v>450</v>
       </c>
       <c r="J51" s="3"/>
-      <c r="K51" s="14"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" thickBot="1">
       <c r="A52" s="3">
@@ -5170,7 +5170,7 @@
         <v>591</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="14"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" thickBot="1">
       <c r="A53" s="3">
@@ -5203,7 +5203,7 @@
       <c r="J53" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="K53" s="14"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="32.25" thickBot="1">
       <c r="A54" s="3">
@@ -5234,7 +5234,7 @@
         <v>616</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="14"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" thickBot="1">
       <c r="A55" s="3">
@@ -5265,7 +5265,7 @@
         <v>537</v>
       </c>
       <c r="J55" s="3"/>
-      <c r="K55" s="14"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" thickBot="1">
       <c r="A56" s="3">
@@ -5298,7 +5298,7 @@
       <c r="J56" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" ht="32.25" thickBot="1">
       <c r="A57" s="3">
@@ -5329,7 +5329,7 @@
         <v>538</v>
       </c>
       <c r="J57" s="3"/>
-      <c r="K57" s="14"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" ht="32.25" thickBot="1">
       <c r="A58" s="3">
@@ -5360,7 +5360,7 @@
         <v>473</v>
       </c>
       <c r="J58" s="3"/>
-      <c r="K58" s="14"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" thickBot="1">
       <c r="A59" s="3">
@@ -5391,7 +5391,7 @@
         <v>592</v>
       </c>
       <c r="J59" s="3"/>
-      <c r="K59" s="14"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickBot="1">
       <c r="A60" s="3">
@@ -5422,7 +5422,7 @@
         <v>617</v>
       </c>
       <c r="J60" s="3"/>
-      <c r="K60" s="14"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" ht="32.25" thickBot="1">
       <c r="A61" s="3">
@@ -5453,7 +5453,7 @@
         <v>773</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="14"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" ht="32.25" thickBot="1">
       <c r="A62" s="3">
@@ -5484,7 +5484,7 @@
         <v>541</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="K62" s="14"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" thickBot="1">
       <c r="A63" s="3">
@@ -5515,7 +5515,7 @@
         <v>540</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="14"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" thickBot="1">
       <c r="A64" s="3">
@@ -5548,7 +5548,7 @@
       <c r="J64" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="K64" s="14"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" thickBot="1">
       <c r="A65" s="3">
@@ -5579,7 +5579,7 @@
         <v>595</v>
       </c>
       <c r="J65" s="3"/>
-      <c r="K65" s="14"/>
+      <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" thickBot="1">
       <c r="A66" s="3">
@@ -5610,7 +5610,7 @@
         <v>619</v>
       </c>
       <c r="J66" s="3"/>
-      <c r="K66" s="14"/>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" thickBot="1">
       <c r="A67" s="3">
@@ -5641,7 +5641,7 @@
         <v>632</v>
       </c>
       <c r="J67" s="3"/>
-      <c r="K67" s="14"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" ht="32.25" thickBot="1">
       <c r="A68" s="3">
@@ -5672,7 +5672,7 @@
         <v>534</v>
       </c>
       <c r="J68" s="3"/>
-      <c r="K68" s="14"/>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" thickBot="1">
       <c r="A69" s="3">
@@ -5703,7 +5703,7 @@
         <v>453</v>
       </c>
       <c r="J69" s="3"/>
-      <c r="K69" s="14"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" thickBot="1">
       <c r="A70" s="3">
@@ -5734,7 +5734,7 @@
         <v>633</v>
       </c>
       <c r="J70" s="3"/>
-      <c r="K70" s="14"/>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" thickBot="1">
       <c r="A71" s="3">
@@ -5765,7 +5765,7 @@
         <v>547</v>
       </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="14"/>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11" ht="32.25" thickBot="1">
       <c r="A72" s="3">
@@ -5796,7 +5796,7 @@
         <v>596</v>
       </c>
       <c r="J72" s="3"/>
-      <c r="K72" s="14"/>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" thickBot="1">
       <c r="A73" s="3">
@@ -5827,7 +5827,7 @@
         <v>476</v>
       </c>
       <c r="J73" s="3"/>
-      <c r="K73" s="14"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" thickBot="1">
       <c r="A74" s="3">
@@ -5858,7 +5858,7 @@
         <v>771</v>
       </c>
       <c r="J74" s="3"/>
-      <c r="K74" s="14"/>
+      <c r="K74" s="3"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" thickBot="1">
       <c r="A75" s="3">
@@ -5889,7 +5889,7 @@
         <v>634</v>
       </c>
       <c r="J75" s="3"/>
-      <c r="K75" s="14"/>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" thickBot="1">
       <c r="A76" s="3">
@@ -5920,7 +5920,7 @@
         <v>598</v>
       </c>
       <c r="J76" s="3"/>
-      <c r="K76" s="14"/>
+      <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" thickBot="1">
       <c r="A77" s="3">
@@ -5951,7 +5951,7 @@
         <v>600</v>
       </c>
       <c r="J77" s="3"/>
-      <c r="K77" s="14"/>
+      <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" ht="32.25" thickBot="1">
       <c r="A78" s="3">
@@ -5982,7 +5982,7 @@
         <v>546</v>
       </c>
       <c r="J78" s="3"/>
-      <c r="K78" s="14"/>
+      <c r="K78" s="3"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" thickBot="1">
       <c r="A79" s="3">
@@ -6013,7 +6013,7 @@
         <v>542</v>
       </c>
       <c r="J79" s="3"/>
-      <c r="K79" s="14"/>
+      <c r="K79" s="3"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" thickBot="1">
       <c r="A80" s="3">
@@ -6044,7 +6044,7 @@
         <v>788</v>
       </c>
       <c r="J80" s="3"/>
-      <c r="K80" s="14"/>
+      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:11" ht="32.25" thickBot="1">
       <c r="A81" s="3">
@@ -6075,7 +6075,7 @@
         <v>474</v>
       </c>
       <c r="J81" s="3"/>
-      <c r="K81" s="14"/>
+      <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" thickBot="1">
       <c r="A82" s="3">
@@ -6106,7 +6106,7 @@
         <v>774</v>
       </c>
       <c r="J82" s="3"/>
-      <c r="K82" s="14"/>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" thickBot="1">
       <c r="A83" s="3">
@@ -6137,7 +6137,7 @@
         <v>531</v>
       </c>
       <c r="J83" s="3"/>
-      <c r="K83" s="14"/>
+      <c r="K83" s="3"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" thickBot="1">
       <c r="A84" s="3">
@@ -6168,7 +6168,7 @@
         <v>543</v>
       </c>
       <c r="J84" s="3"/>
-      <c r="K84" s="14"/>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" thickBot="1">
       <c r="A85" s="3">
@@ -6201,7 +6201,7 @@
       <c r="J85" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K85" s="14"/>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" thickBot="1">
       <c r="A86" s="3">
@@ -6232,7 +6232,7 @@
         <v>469</v>
       </c>
       <c r="J86" s="3"/>
-      <c r="K86" s="14"/>
+      <c r="K86" s="3"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" thickBot="1">
       <c r="A87" s="3">
@@ -6263,7 +6263,7 @@
         <v>603</v>
       </c>
       <c r="J87" s="3"/>
-      <c r="K87" s="14"/>
+      <c r="K87" s="3"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" thickBot="1">
       <c r="A88" s="3">
@@ -6296,7 +6296,7 @@
       <c r="J88" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="K88" s="14"/>
+      <c r="K88" s="3"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1">
       <c r="A89" s="3">
@@ -6327,7 +6327,7 @@
         <v>530</v>
       </c>
       <c r="J89" s="3"/>
-      <c r="K89" s="14"/>
+      <c r="K89" s="3"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickBot="1">
       <c r="A90" s="3">
@@ -6358,7 +6358,7 @@
         <v>484977</v>
       </c>
       <c r="J90" s="3"/>
-      <c r="K90" s="14"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:11" ht="32.25" thickBot="1">
       <c r="A91" s="3">
@@ -6389,7 +6389,7 @@
         <v>485222</v>
       </c>
       <c r="J91" s="3"/>
-      <c r="K91" s="14"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:11" ht="16.5" thickBot="1">
       <c r="A92" s="3">
@@ -6420,7 +6420,7 @@
         <v>604</v>
       </c>
       <c r="J92" s="3"/>
-      <c r="K92" s="14"/>
+      <c r="K92" s="3"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" thickBot="1">
       <c r="A93" s="3">
@@ -6451,7 +6451,7 @@
         <v>601</v>
       </c>
       <c r="J93" s="3"/>
-      <c r="K93" s="14"/>
+      <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" thickBot="1">
       <c r="A94" s="3">
@@ -6484,7 +6484,7 @@
       <c r="J94" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="K94" s="14"/>
+      <c r="K94" s="3"/>
     </row>
     <row r="95" spans="1:11" ht="16.5" thickBot="1">
       <c r="A95" s="3">
@@ -6515,7 +6515,7 @@
         <v>635</v>
       </c>
       <c r="J95" s="3"/>
-      <c r="K95" s="14"/>
+      <c r="K95" s="3"/>
     </row>
     <row r="96" spans="1:11" ht="32.25" thickBot="1">
       <c r="A96" s="3">
@@ -6546,7 +6546,7 @@
         <v>526</v>
       </c>
       <c r="J96" s="3"/>
-      <c r="K96" s="14"/>
+      <c r="K96" s="3"/>
     </row>
     <row r="97" spans="1:11" ht="32.25" thickBot="1">
       <c r="A97" s="3">
@@ -6577,7 +6577,7 @@
         <v>549</v>
       </c>
       <c r="J97" s="3"/>
-      <c r="K97" s="14"/>
+      <c r="K97" s="3"/>
     </row>
     <row r="98" spans="1:11" ht="16.5" thickBot="1">
       <c r="A98" s="3">
@@ -6608,7 +6608,7 @@
         <v>548</v>
       </c>
       <c r="J98" s="3"/>
-      <c r="K98" s="14"/>
+      <c r="K98" s="3"/>
     </row>
     <row r="99" spans="1:11" ht="16.5" thickBot="1">
       <c r="A99" s="3">
@@ -6641,7 +6641,7 @@
       <c r="J99" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="K99" s="14"/>
+      <c r="K99" s="3"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" thickBot="1">
       <c r="A100" s="3">
@@ -6674,7 +6674,7 @@
       <c r="J100" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="K100" s="14"/>
+      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" thickBot="1">
       <c r="A101" s="3">
@@ -6705,7 +6705,7 @@
         <v>605</v>
       </c>
       <c r="J101" s="3"/>
-      <c r="K101" s="14"/>
+      <c r="K101" s="3"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1">
       <c r="A102" s="3">
@@ -6738,7 +6738,7 @@
       <c r="J102" s="3">
         <v>101212</v>
       </c>
-      <c r="K102" s="14"/>
+      <c r="K102" s="3"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" thickBot="1">
       <c r="A103" s="3">
@@ -6771,7 +6771,7 @@
       <c r="J103" s="3">
         <v>101211</v>
       </c>
-      <c r="K103" s="14"/>
+      <c r="K103" s="3"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" thickBot="1">
       <c r="A104" s="3">
@@ -6802,7 +6802,7 @@
         <v>545</v>
       </c>
       <c r="J104" s="3"/>
-      <c r="K104" s="14"/>
+      <c r="K104" s="3"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" thickBot="1">
       <c r="A105" s="3">
@@ -6833,7 +6833,7 @@
         <v>585</v>
       </c>
       <c r="J105" s="3"/>
-      <c r="K105" s="14"/>
+      <c r="K105" s="3"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" thickBot="1">
       <c r="A106" s="3">
@@ -6864,7 +6864,7 @@
         <v>461</v>
       </c>
       <c r="J106" s="3"/>
-      <c r="K106" s="14"/>
+      <c r="K106" s="3"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" thickBot="1">
       <c r="A107" s="3">
@@ -6895,7 +6895,7 @@
         <v>472</v>
       </c>
       <c r="J107" s="3"/>
-      <c r="K107" s="14"/>
+      <c r="K107" s="3"/>
     </row>
     <row r="108" spans="1:11" ht="32.25" thickBot="1">
       <c r="A108" s="3">
@@ -6928,7 +6928,7 @@
       <c r="J108" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="K108" s="14"/>
+      <c r="K108" s="3"/>
     </row>
     <row r="109" spans="1:11" ht="16.5" thickBot="1">
       <c r="A109" s="3">
@@ -6959,7 +6959,7 @@
         <v>636</v>
       </c>
       <c r="J109" s="3"/>
-      <c r="K109" s="14"/>
+      <c r="K109" s="3"/>
     </row>
     <row r="110" spans="1:11" ht="16.5" thickBot="1">
       <c r="A110" s="3">
@@ -6990,7 +6990,7 @@
         <v>775</v>
       </c>
       <c r="J110" s="3"/>
-      <c r="K110" s="14"/>
+      <c r="K110" s="3"/>
     </row>
     <row r="111" spans="1:11" ht="16.5" thickBot="1">
       <c r="A111" s="3">
@@ -7021,7 +7021,7 @@
         <v>776</v>
       </c>
       <c r="J111" s="3"/>
-      <c r="K111" s="14"/>
+      <c r="K111" s="3"/>
     </row>
     <row r="112" spans="1:11" ht="16.5" thickBot="1">
       <c r="A112" s="3">
@@ -7052,7 +7052,7 @@
         <v>435</v>
       </c>
       <c r="J112" s="3"/>
-      <c r="K112" s="14"/>
+      <c r="K112" s="3"/>
     </row>
     <row r="113" spans="1:11" ht="16.5" thickBot="1">
       <c r="A113" s="3">
@@ -7083,7 +7083,7 @@
         <v>714</v>
       </c>
       <c r="J113" s="3"/>
-      <c r="K113" s="14"/>
+      <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11" ht="32.25" thickBot="1">
       <c r="A114" s="3">
@@ -7114,7 +7114,7 @@
         <v>586</v>
       </c>
       <c r="J114" s="3"/>
-      <c r="K114" s="14"/>
+      <c r="K114" s="3"/>
     </row>
     <row r="115" spans="1:11" ht="16.5" thickBot="1">
       <c r="A115" s="3">
@@ -7145,7 +7145,7 @@
         <v>564</v>
       </c>
       <c r="J115" s="3"/>
-      <c r="K115" s="14"/>
+      <c r="K115" s="3"/>
     </row>
     <row r="116" spans="1:11" ht="16.5" thickBot="1">
       <c r="A116" s="3">
@@ -7176,7 +7176,7 @@
         <v>621</v>
       </c>
       <c r="J116" s="3"/>
-      <c r="K116" s="14"/>
+      <c r="K116" s="3"/>
     </row>
     <row r="117" spans="1:11" ht="32.25" thickBot="1">
       <c r="A117" s="3">
@@ -7207,64 +7207,74 @@
         <v>622</v>
       </c>
       <c r="J117" s="3"/>
-      <c r="K117" s="14"/>
+      <c r="K117" s="3"/>
     </row>
     <row r="118" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A118" s="3"/>
-      <c r="B118" s="4" t="s">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="3">
-        <v>617239</v>
-      </c>
-      <c r="J118" s="3"/>
-      <c r="K118" s="14"/>
+      <c r="D118" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A119" s="3"/>
-      <c r="B119" s="4" t="s">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="J119" s="3"/>
-      <c r="K119" s="14"/>
+      <c r="D119" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
     </row>
     <row r="120" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A120" s="3"/>
-      <c r="B120" s="4" t="s">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="J120" s="3"/>
-      <c r="K120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I120" s="15">
+        <v>111111</v>
+      </c>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
     </row>
     <row r="121" spans="1:11" ht="16.5" thickBot="1">
       <c r="A121" s="3"/>
@@ -7279,11 +7289,11 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="3" t="s">
-        <v>555</v>
+      <c r="I121" s="3">
+        <v>617239</v>
       </c>
       <c r="J121" s="3"/>
-      <c r="K121" s="14"/>
+      <c r="K121" s="3"/>
     </row>
     <row r="122" spans="1:11" ht="16.5" thickBot="1">
       <c r="A122" s="3"/>
@@ -7299,10 +7309,10 @@
       <c r="G122" s="3"/>
       <c r="H122" s="9"/>
       <c r="I122" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J122" s="3"/>
-      <c r="K122" s="14"/>
+      <c r="K122" s="3"/>
     </row>
     <row r="123" spans="1:11" ht="16.5" thickBot="1">
       <c r="A123" s="3"/>
@@ -7318,10 +7328,10 @@
       <c r="G123" s="3"/>
       <c r="H123" s="9"/>
       <c r="I123" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J123" s="3"/>
-      <c r="K123" s="14"/>
+      <c r="K123" s="3"/>
     </row>
     <row r="124" spans="1:11" ht="16.5" thickBot="1">
       <c r="A124" s="3"/>
@@ -7337,10 +7347,10 @@
       <c r="G124" s="3"/>
       <c r="H124" s="9"/>
       <c r="I124" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J124" s="3"/>
-      <c r="K124" s="14"/>
+      <c r="K124" s="3"/>
     </row>
     <row r="125" spans="1:11" ht="16.5" thickBot="1">
       <c r="A125" s="3"/>
@@ -7356,10 +7366,10 @@
       <c r="G125" s="3"/>
       <c r="H125" s="9"/>
       <c r="I125" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J125" s="3"/>
-      <c r="K125" s="14"/>
+      <c r="K125" s="3"/>
     </row>
     <row r="126" spans="1:11" ht="16.5" thickBot="1">
       <c r="A126" s="3"/>
@@ -7375,10 +7385,10 @@
       <c r="G126" s="3"/>
       <c r="H126" s="9"/>
       <c r="I126" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J126" s="3"/>
-      <c r="K126" s="14"/>
+      <c r="K126" s="3"/>
     </row>
     <row r="127" spans="1:11" ht="16.5" thickBot="1">
       <c r="A127" s="3"/>
@@ -7394,10 +7404,10 @@
       <c r="G127" s="3"/>
       <c r="H127" s="9"/>
       <c r="I127" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J127" s="3"/>
-      <c r="K127" s="14"/>
+      <c r="K127" s="3"/>
     </row>
     <row r="128" spans="1:11" ht="16.5" thickBot="1">
       <c r="A128" s="3"/>
@@ -7413,10 +7423,10 @@
       <c r="G128" s="3"/>
       <c r="H128" s="9"/>
       <c r="I128" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J128" s="3"/>
-      <c r="K128" s="14"/>
+      <c r="K128" s="3"/>
     </row>
     <row r="129" spans="1:11" ht="16.5" thickBot="1">
       <c r="A129" s="3"/>
@@ -7432,10 +7442,10 @@
       <c r="G129" s="3"/>
       <c r="H129" s="9"/>
       <c r="I129" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J129" s="3"/>
-      <c r="K129" s="14"/>
+      <c r="K129" s="3"/>
     </row>
     <row r="130" spans="1:11" ht="16.5" thickBot="1">
       <c r="A130" s="3"/>
@@ -7451,10 +7461,10 @@
       <c r="G130" s="3"/>
       <c r="H130" s="9"/>
       <c r="I130" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J130" s="3"/>
-      <c r="K130" s="14"/>
+      <c r="K130" s="3"/>
     </row>
     <row r="131" spans="1:11" ht="16.5" thickBot="1">
       <c r="A131" s="3"/>
@@ -7470,10 +7480,10 @@
       <c r="G131" s="3"/>
       <c r="H131" s="9"/>
       <c r="I131" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J131" s="3"/>
-      <c r="K131" s="14"/>
+      <c r="K131" s="3"/>
     </row>
     <row r="132" spans="1:11" ht="16.5" thickBot="1">
       <c r="A132" s="3"/>
@@ -7489,10 +7499,10 @@
       <c r="G132" s="3"/>
       <c r="H132" s="9"/>
       <c r="I132" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J132" s="3"/>
-      <c r="K132" s="14"/>
+      <c r="K132" s="3"/>
     </row>
     <row r="133" spans="1:11" ht="16.5" thickBot="1">
       <c r="A133" s="3"/>
@@ -7508,10 +7518,10 @@
       <c r="G133" s="3"/>
       <c r="H133" s="9"/>
       <c r="I133" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J133" s="3"/>
-      <c r="K133" s="14"/>
+      <c r="K133" s="3"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" thickBot="1">
       <c r="A134" s="3"/>
@@ -7527,10 +7537,10 @@
       <c r="G134" s="3"/>
       <c r="H134" s="9"/>
       <c r="I134" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J134" s="3"/>
-      <c r="K134" s="14"/>
+      <c r="K134" s="3"/>
     </row>
     <row r="135" spans="1:11" ht="16.5" thickBot="1">
       <c r="A135" s="3"/>
@@ -7546,10 +7556,10 @@
       <c r="G135" s="3"/>
       <c r="H135" s="9"/>
       <c r="I135" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J135" s="3"/>
-      <c r="K135" s="14"/>
+      <c r="K135" s="3"/>
     </row>
     <row r="136" spans="1:11" ht="16.5" thickBot="1">
       <c r="A136" s="3"/>
@@ -7565,10 +7575,10 @@
       <c r="G136" s="3"/>
       <c r="H136" s="9"/>
       <c r="I136" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J136" s="3"/>
-      <c r="K136" s="14"/>
+      <c r="K136" s="3"/>
     </row>
     <row r="137" spans="1:11" ht="16.5" thickBot="1">
       <c r="A137" s="3"/>
@@ -7584,10 +7594,10 @@
       <c r="G137" s="3"/>
       <c r="H137" s="9"/>
       <c r="I137" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J137" s="3"/>
-      <c r="K137" s="14"/>
+      <c r="K137" s="3"/>
     </row>
     <row r="138" spans="1:11" ht="16.5" thickBot="1">
       <c r="A138" s="3"/>
@@ -7603,10 +7613,10 @@
       <c r="G138" s="3"/>
       <c r="H138" s="9"/>
       <c r="I138" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J138" s="3"/>
-      <c r="K138" s="14"/>
+      <c r="K138" s="3"/>
     </row>
     <row r="139" spans="1:11" ht="16.5" thickBot="1">
       <c r="A139" s="3"/>
@@ -7622,10 +7632,10 @@
       <c r="G139" s="3"/>
       <c r="H139" s="9"/>
       <c r="I139" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J139" s="3"/>
-      <c r="K139" s="14"/>
+      <c r="K139" s="3"/>
     </row>
     <row r="140" spans="1:11" ht="16.5" thickBot="1">
       <c r="A140" s="3"/>
@@ -7641,10 +7651,10 @@
       <c r="G140" s="3"/>
       <c r="H140" s="9"/>
       <c r="I140" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J140" s="3"/>
-      <c r="K140" s="14"/>
+      <c r="K140" s="3"/>
     </row>
     <row r="141" spans="1:11" ht="16.5" thickBot="1">
       <c r="A141" s="3"/>
@@ -7660,10 +7670,10 @@
       <c r="G141" s="3"/>
       <c r="H141" s="9"/>
       <c r="I141" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J141" s="3"/>
-      <c r="K141" s="14"/>
+      <c r="K141" s="3"/>
     </row>
     <row r="142" spans="1:11" ht="16.5" thickBot="1">
       <c r="A142" s="3"/>
@@ -7679,10 +7689,10 @@
       <c r="G142" s="3"/>
       <c r="H142" s="9"/>
       <c r="I142" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J142" s="3"/>
-      <c r="K142" s="14"/>
+      <c r="K142" s="3"/>
     </row>
     <row r="143" spans="1:11" ht="16.5" thickBot="1">
       <c r="A143" s="3"/>
@@ -7698,10 +7708,10 @@
       <c r="G143" s="3"/>
       <c r="H143" s="9"/>
       <c r="I143" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J143" s="3"/>
-      <c r="K143" s="14"/>
+      <c r="K143" s="3"/>
     </row>
     <row r="144" spans="1:11" ht="16.5" thickBot="1">
       <c r="A144" s="3"/>
@@ -7717,10 +7727,10 @@
       <c r="G144" s="3"/>
       <c r="H144" s="9"/>
       <c r="I144" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J144" s="3"/>
-      <c r="K144" s="14"/>
+      <c r="K144" s="3"/>
     </row>
     <row r="145" spans="1:11" ht="16.5" thickBot="1">
       <c r="A145" s="3"/>
@@ -7736,10 +7746,10 @@
       <c r="G145" s="3"/>
       <c r="H145" s="9"/>
       <c r="I145" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J145" s="3"/>
-      <c r="K145" s="14"/>
+      <c r="K145" s="3"/>
     </row>
     <row r="146" spans="1:11" ht="16.5" thickBot="1">
       <c r="A146" s="3"/>
@@ -7755,10 +7765,10 @@
       <c r="G146" s="3"/>
       <c r="H146" s="9"/>
       <c r="I146" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J146" s="3"/>
-      <c r="K146" s="14"/>
+      <c r="K146" s="3"/>
     </row>
     <row r="147" spans="1:11" ht="16.5" thickBot="1">
       <c r="A147" s="3"/>
@@ -7774,10 +7784,10 @@
       <c r="G147" s="3"/>
       <c r="H147" s="9"/>
       <c r="I147" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J147" s="3"/>
-      <c r="K147" s="14"/>
+      <c r="K147" s="3"/>
     </row>
     <row r="148" spans="1:11" ht="16.5" thickBot="1">
       <c r="A148" s="3"/>
@@ -7793,10 +7803,10 @@
       <c r="G148" s="3"/>
       <c r="H148" s="9"/>
       <c r="I148" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J148" s="3"/>
-      <c r="K148" s="14"/>
+      <c r="K148" s="3"/>
     </row>
     <row r="149" spans="1:11" ht="16.5" thickBot="1">
       <c r="A149" s="3"/>
@@ -7812,10 +7822,10 @@
       <c r="G149" s="3"/>
       <c r="H149" s="9"/>
       <c r="I149" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="J149" s="3"/>
-      <c r="K149" s="14"/>
+      <c r="K149" s="3"/>
     </row>
     <row r="150" spans="1:11" ht="16.5" thickBot="1">
       <c r="A150" s="3"/>
@@ -7830,11 +7840,11 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="9"/>
-      <c r="I150" s="3">
-        <v>524435</v>
+      <c r="I150" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="J150" s="3"/>
-      <c r="K150" s="14"/>
+      <c r="K150" s="3"/>
     </row>
     <row r="151" spans="1:11" ht="16.5" thickBot="1">
       <c r="A151" s="3"/>
@@ -7850,40 +7860,67 @@
       <c r="G151" s="3"/>
       <c r="H151" s="9"/>
       <c r="I151" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A152" s="3"/>
+      <c r="B152" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A153" s="3"/>
+      <c r="B153" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="3">
+        <v>524435</v>
+      </c>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A154" s="3"/>
+      <c r="B154" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="J151" s="4"/>
-      <c r="K151" s="16"/>
-    </row>
-    <row r="152" spans="1:11" ht="15.75">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="1:11" ht="15.75">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-    </row>
-    <row r="154" spans="1:11" ht="15.75">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
     </row>
     <row r="155" spans="1:11" ht="15.75">
       <c r="A155" s="6"/>
@@ -8105,7 +8142,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -8115,7 +8152,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -8125,7 +8162,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -8135,7 +8172,7 @@
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -8145,7 +8182,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:8" ht="15.75">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -8155,7 +8192,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -8165,7 +8202,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -8175,7 +8212,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -8185,7 +8222,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -8195,7 +8232,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -8205,7 +8242,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -8215,7 +8252,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -8225,7 +8262,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:8" ht="15.75">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -8235,7 +8272,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -8245,7 +8282,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -8254,9 +8291,8 @@
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
-      <c r="I191" s="5"/>
-    </row>
-    <row r="192" spans="1:9" ht="15.75">
+    </row>
+    <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -8265,13 +8301,44 @@
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
-      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" ht="15.75">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" ht="15.75">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" ht="15.75">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1 I152:I1048576">
+  <conditionalFormatting sqref="I155:I1048576 I1">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I191:I1048576 I1">
+  <conditionalFormatting sqref="I194:I1048576 I1">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD6C23-D0DE-4594-A49E-8E62E7887F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B2F28-8D22-4D61-9C24-4FEDD3661882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="-9585" windowWidth="21600" windowHeight="11385" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="797">
   <si>
     <t>ZJ</t>
   </si>
@@ -2561,7 +2561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2597,9 +2597,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3155,8 +3152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:K154" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:K154" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:K153" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:K153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I117">
     <sortCondition ref="E1:E117"/>
   </sortState>
@@ -3526,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7210,71 +7207,73 @@
       <c r="K117" s="3"/>
     </row>
     <row r="118" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15" t="s">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D118" s="15" t="s">
+      <c r="D118" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
+      <c r="E118" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I118" s="15" t="s">
+      <c r="I118" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D119" s="15" t="s">
+      <c r="D119" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
+      <c r="E119" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I119" s="15" t="s">
+      <c r="I119" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
     </row>
     <row r="120" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="I120" s="15">
-        <v>111111</v>
-      </c>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="3">
+        <v>617239</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
     </row>
     <row r="121" spans="1:11" ht="16.5" thickBot="1">
       <c r="A121" s="3"/>
@@ -7289,8 +7288,8 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="3">
-        <v>617239</v>
+      <c r="I121" s="3" t="s">
+        <v>553</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -7309,7 +7308,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="9"/>
       <c r="I122" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -7328,7 +7327,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="9"/>
       <c r="I123" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -7347,7 +7346,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="9"/>
       <c r="I124" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -7366,7 +7365,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="9"/>
       <c r="I125" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -7385,7 +7384,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="9"/>
       <c r="I126" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -7404,7 +7403,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="9"/>
       <c r="I127" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -7423,7 +7422,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="9"/>
       <c r="I128" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -7442,7 +7441,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="9"/>
       <c r="I129" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -7461,7 +7460,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="9"/>
       <c r="I130" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -7480,7 +7479,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="9"/>
       <c r="I131" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -7499,7 +7498,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="9"/>
       <c r="I132" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -7518,7 +7517,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="9"/>
       <c r="I133" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -7537,7 +7536,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="9"/>
       <c r="I134" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -7556,7 +7555,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="9"/>
       <c r="I135" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -7575,7 +7574,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="9"/>
       <c r="I136" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -7594,7 +7593,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="9"/>
       <c r="I137" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -7613,7 +7612,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="9"/>
       <c r="I138" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -7632,7 +7631,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="9"/>
       <c r="I139" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -7651,7 +7650,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="9"/>
       <c r="I140" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -7670,7 +7669,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="9"/>
       <c r="I141" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -7689,7 +7688,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="9"/>
       <c r="I142" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -7708,7 +7707,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="9"/>
       <c r="I143" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -7727,7 +7726,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="9"/>
       <c r="I144" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -7746,7 +7745,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="9"/>
       <c r="I145" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -7765,7 +7764,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="9"/>
       <c r="I146" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -7784,7 +7783,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="9"/>
       <c r="I147" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -7803,7 +7802,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="9"/>
       <c r="I148" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -7822,7 +7821,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="9"/>
       <c r="I149" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -7841,7 +7840,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="9"/>
       <c r="I150" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -7860,7 +7859,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="9"/>
       <c r="I151" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -7878,8 +7877,8 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="3" t="s">
-        <v>584</v>
+      <c r="I152" s="3">
+        <v>524435</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -7897,30 +7896,21 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="9"/>
-      <c r="I153" s="3">
-        <v>524435</v>
-      </c>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A154" s="3"/>
-      <c r="B154" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="3" t="s">
+      <c r="I153" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:11" ht="15.75">
       <c r="A155" s="6"/>
@@ -8311,6 +8301,7 @@
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
+      <c r="I193" s="5"/>
     </row>
     <row r="194" spans="1:9" ht="15.75">
       <c r="A194" s="6"/>
@@ -8323,22 +8314,11 @@
       <c r="H194" s="6"/>
       <c r="I194" s="5"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I155:I1048576 I1">
+  <conditionalFormatting sqref="I154:I1048576 I1">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I194:I1048576 I1">
+  <conditionalFormatting sqref="I193:I1048576 I1">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B2F28-8D22-4D61-9C24-4FEDD3661882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE81D8-69D8-45EE-8DA8-41A23809A440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="30840" yWindow="-7485" windowWidth="21600" windowHeight="11385" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="797">
   <si>
     <t>ZJ</t>
   </si>
@@ -2561,7 +2561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2597,6 +2597,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3525,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5603,10 +5606,12 @@
       <c r="H66" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" thickBot="1">
@@ -5634,10 +5639,12 @@
       <c r="H67" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" ht="32.25" thickBot="1">

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE81D8-69D8-45EE-8DA8-41A23809A440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C082ABF-9754-47C0-A3B5-36C081ADA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30840" yWindow="-7485" windowWidth="21600" windowHeight="11385" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="797">
   <si>
     <t>ZJ</t>
   </si>
@@ -3155,8 +3155,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:K153" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:K153" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:K151" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:K151" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I117">
     <sortCondition ref="E1:E117"/>
   </sortState>
@@ -3526,10 +3526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:J67"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7215,50 +7215,38 @@
     </row>
     <row r="118" spans="1:11" ht="16.5" thickBot="1">
       <c r="A118" s="3"/>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>795</v>
+      <c r="H118" s="9"/>
+      <c r="I118" s="3">
+        <v>617239</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" thickBot="1">
       <c r="A119" s="3"/>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="3" t="s">
-        <v>758</v>
-      </c>
+      <c r="H119" s="9"/>
       <c r="I119" s="3" t="s">
-        <v>796</v>
+        <v>553</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -7276,8 +7264,8 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="3">
-        <v>617239</v>
+      <c r="I120" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -7296,7 +7284,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="9"/>
       <c r="I121" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -7315,7 +7303,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="9"/>
       <c r="I122" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -7334,7 +7322,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="9"/>
       <c r="I123" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -7353,7 +7341,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="9"/>
       <c r="I124" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -7372,7 +7360,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="9"/>
       <c r="I125" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -7391,7 +7379,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="9"/>
       <c r="I126" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -7410,7 +7398,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="9"/>
       <c r="I127" s="3" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -7429,7 +7417,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="9"/>
       <c r="I128" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -7448,7 +7436,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="9"/>
       <c r="I129" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -7467,7 +7455,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="9"/>
       <c r="I130" s="3" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -7486,7 +7474,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="9"/>
       <c r="I131" s="3" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -7505,7 +7493,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="9"/>
       <c r="I132" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -7524,7 +7512,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="9"/>
       <c r="I133" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -7543,7 +7531,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="9"/>
       <c r="I134" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -7562,7 +7550,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="9"/>
       <c r="I135" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -7581,7 +7569,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="9"/>
       <c r="I136" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -7600,7 +7588,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="9"/>
       <c r="I137" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -7619,7 +7607,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="9"/>
       <c r="I138" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -7638,7 +7626,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="9"/>
       <c r="I139" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -7657,7 +7645,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="9"/>
       <c r="I140" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -7676,7 +7664,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="9"/>
       <c r="I141" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -7695,7 +7683,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="9"/>
       <c r="I142" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -7714,7 +7702,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="9"/>
       <c r="I143" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -7733,7 +7721,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="9"/>
       <c r="I144" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -7752,7 +7740,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="9"/>
       <c r="I145" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -7771,7 +7759,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="9"/>
       <c r="I146" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -7790,7 +7778,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="9"/>
       <c r="I147" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -7809,7 +7797,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="9"/>
       <c r="I148" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -7828,7 +7816,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="9"/>
       <c r="I149" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -7846,8 +7834,8 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="9"/>
-      <c r="I150" s="3" t="s">
-        <v>583</v>
+      <c r="I150" s="3">
+        <v>524435</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -7866,48 +7854,30 @@
       <c r="G151" s="3"/>
       <c r="H151" s="9"/>
       <c r="I151" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A152" s="3"/>
-      <c r="B152" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="3">
-        <v>524435</v>
-      </c>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A153" s="3"/>
-      <c r="B153" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.75">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:11" ht="15.75">
       <c r="A154" s="6"/>
@@ -8139,7 +8109,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" ht="15.75">
+    <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -8149,7 +8119,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75">
+    <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -8159,7 +8129,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75">
+    <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -8169,7 +8139,7 @@
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" ht="15.75">
+    <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -8179,7 +8149,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75">
+    <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -8189,7 +8159,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" ht="15.75">
+    <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -8199,7 +8169,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75">
+    <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -8209,7 +8179,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" ht="15.75">
+    <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -8219,7 +8189,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" ht="15.75">
+    <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -8229,7 +8199,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" ht="15.75">
+    <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -8239,7 +8209,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" ht="15.75">
+    <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -8249,7 +8219,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" ht="15.75">
+    <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -8259,7 +8229,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" ht="15.75">
+    <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -8269,7 +8239,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" ht="15.75">
+    <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -8279,7 +8249,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" spans="1:8" ht="15.75">
+    <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -8288,8 +8258,9 @@
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:8" ht="15.75">
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="1:9" ht="15.75">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -8298,34 +8269,13 @@
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:9" ht="15.75">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="5"/>
-    </row>
-    <row r="194" spans="1:9" ht="15.75">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="5"/>
+      <c r="I192" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I154:I1048576 I1">
+  <conditionalFormatting sqref="I152:I1048576 I1">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I193:I1048576 I1">
+  <conditionalFormatting sqref="I191:I1048576 I1">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C082ABF-9754-47C0-A3B5-36C081ADA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF6C8E1-C752-4EA7-AB99-13AD0050763F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="-7485" windowWidth="21600" windowHeight="11385" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="797">
   <si>
     <t>ZJ</t>
   </si>
@@ -2561,7 +2561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2599,6 +2599,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3528,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
   <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:XFD119"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6327,10 +6330,12 @@
       <c r="H89" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I89" t="s">
         <v>530</v>
       </c>
-      <c r="J89" s="3"/>
+      <c r="J89" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="K89" s="3"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickBot="1">
@@ -6736,13 +6741,13 @@
       <c r="H102" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="3">
+        <v>101212</v>
+      </c>
+      <c r="J102" s="16"/>
+      <c r="K102" t="s">
         <v>790</v>
       </c>
-      <c r="J102" s="3">
-        <v>101212</v>
-      </c>
-      <c r="K102" s="3"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" thickBot="1">
       <c r="A103" s="3">
@@ -6769,13 +6774,13 @@
       <c r="H103" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="I103" s="3">
+        <v>101211</v>
+      </c>
+      <c r="J103" s="16"/>
+      <c r="K103" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="J103" s="3">
-        <v>101211</v>
-      </c>
-      <c r="K103" s="3"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" thickBot="1">
       <c r="A104" s="3">

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="348">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">9B</t>
   </si>
   <si>
-    <t xml:space="preserve">3E7F9C</t>
+    <t xml:space="preserve">DDEA6A</t>
   </si>
   <si>
     <t xml:space="preserve">Gael PISCHEDDA</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">7T</t>
   </si>
   <si>
-    <t xml:space="preserve">ADDEF7</t>
+    <t xml:space="preserve">ADF133</t>
   </si>
   <si>
     <t xml:space="preserve">Roland Veronyák</t>
@@ -517,10 +517,10 @@
     <t xml:space="preserve">47A7FF</t>
   </si>
   <si>
-    <t xml:space="preserve">Filip Durda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kraków</t>
+    <t xml:space="preserve">Julia Walowska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kramks</t>
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
@@ -529,21 +529,6 @@
     <t xml:space="preserve">🇵🇱</t>
   </si>
   <si>
-    <t xml:space="preserve">Politechnika Rzeszowska - AOS Bezmiechowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP-3677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDEAF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia Walowska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kramks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aeroklub Ostrowski</t>
   </si>
   <si>
@@ -754,6 +739,9 @@
     <t xml:space="preserve">AU</t>
   </si>
   <si>
+    <t xml:space="preserve">D028C8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michaela Rendlova</t>
   </si>
   <si>
@@ -766,6 +754,9 @@
     <t xml:space="preserve">W8</t>
   </si>
   <si>
+    <t xml:space="preserve">D02B97</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lasse Edslev</t>
   </si>
   <si>
@@ -844,6 +835,9 @@
     <t xml:space="preserve">S2</t>
   </si>
   <si>
+    <t xml:space="preserve">DDEB0D</t>
+  </si>
+  <si>
     <t xml:space="preserve">François-Xavier Poisson</t>
   </si>
   <si>
@@ -859,6 +853,9 @@
     <t xml:space="preserve">ET</t>
   </si>
   <si>
+    <t xml:space="preserve">DDF12C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patrick Benoist</t>
   </si>
   <si>
@@ -934,7 +931,7 @@
     <t xml:space="preserve">HUN</t>
   </si>
   <si>
-    <t xml:space="preserve">006569</t>
+    <t xml:space="preserve">D00165</t>
   </si>
   <si>
     <t xml:space="preserve">Noud Kaaij</t>
@@ -1374,8 +1371,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
@@ -2144,27 +2141,31 @@
       <c r="G22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="I22" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="K22" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>167</v>
@@ -2173,307 +2174,305 @@
         <v>168</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>16</v>
+      <c r="H24" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="K27" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>227</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K31" s="4"/>
+      <c r="K31" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -2497,16 +2496,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -2515,130 +2514,136 @@
         <v>14</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K34" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>42</v>
@@ -2647,33 +2652,31 @@
         <v>43</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K37" s="4" t="s">
         <v>269</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>42</v>
@@ -2682,60 +2685,66 @@
         <v>43</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K39" s="3"/>
+        <v>280</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>65</v>
@@ -2744,33 +2753,33 @@
         <v>66</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>65</v>
@@ -2779,103 +2788,103 @@
         <v>66</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>135</v>
@@ -2884,68 +2893,68 @@
         <v>136</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>167</v>
@@ -2954,33 +2963,33 @@
         <v>168</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>167</v>
@@ -2989,126 +2998,92 @@
         <v>168</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J50" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="349">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -559,7 +559,7 @@
     <t xml:space="preserve">X56</t>
   </si>
   <si>
-    <t xml:space="preserve">DDE279</t>
+    <t xml:space="preserve">DDE1DC</t>
   </si>
   <si>
     <t xml:space="preserve">Viktória Divoková</t>
@@ -622,6 +622,9 @@
     <t xml:space="preserve">LX</t>
   </si>
   <si>
+    <t xml:space="preserve">DD9E29</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manon Kuttel</t>
   </si>
   <si>
@@ -1063,7 +1066,7 @@
     <t xml:space="preserve">302</t>
   </si>
   <si>
-    <t xml:space="preserve">D02E5E</t>
+    <t xml:space="preserve">D0333C</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2290,7 +2293,9 @@
       <c r="J26" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
@@ -2300,31 +2305,31 @@
         <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>184</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2335,31 +2340,31 @@
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>161</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2370,31 +2375,31 @@
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2405,26 +2410,26 @@
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -2433,13 +2438,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -2448,17 +2453,17 @@
         <v>14</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2466,10 +2471,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>12</v>
@@ -2481,17 +2486,17 @@
         <v>14</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2499,13 +2504,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -2514,17 +2519,17 @@
         <v>14</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2532,34 +2537,34 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2567,34 +2572,34 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2602,13 +2607,13 @@
         <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>42</v>
@@ -2617,19 +2622,19 @@
         <v>43</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2637,13 +2642,13 @@
         <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>42</v>
@@ -2652,17 +2657,17 @@
         <v>43</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2670,13 +2675,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>42</v>
@@ -2685,17 +2690,17 @@
         <v>43</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2703,13 +2708,13 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>65</v>
@@ -2718,19 +2723,19 @@
         <v>66</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2738,13 +2743,13 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>65</v>
@@ -2753,19 +2758,19 @@
         <v>66</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2773,13 +2778,13 @@
         <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>65</v>
@@ -2788,19 +2793,19 @@
         <v>66</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2808,13 +2813,13 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>88</v>
@@ -2823,19 +2828,19 @@
         <v>89</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2843,13 +2848,13 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>135</v>
@@ -2858,19 +2863,19 @@
         <v>136</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2878,13 +2883,13 @@
         <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>135</v>
@@ -2893,19 +2898,19 @@
         <v>136</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2913,13 +2918,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>167</v>
@@ -2928,19 +2933,19 @@
         <v>168</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2948,13 +2953,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>167</v>
@@ -2963,19 +2968,19 @@
         <v>168</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2983,13 +2988,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>167</v>
@@ -2998,19 +3003,19 @@
         <v>168</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3018,34 +3023,34 @@
         <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3053,34 +3058,34 @@
         <v>51</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -20,47 +20,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="262">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">COMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glider</t>
+  </si>
+  <si>
     <t xml:space="preserve">Class</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP</t>
-  </si>
-  <si>
     <t xml:space="preserve">FlarmID</t>
   </si>
   <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michaela Křížová</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostrov nad Oslavou</t>
-  </si>
-  <si>
     <t xml:space="preserve">Czechia</t>
   </si>
   <si>
@@ -73,54 +67,39 @@
     <t xml:space="preserve">ASW 20</t>
   </si>
   <si>
-    <t xml:space="preserve">OK-7787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3</t>
-  </si>
-  <si>
     <t xml:space="preserve">D0291F</t>
   </si>
   <si>
+    <t xml:space="preserve">CX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vít Mořkovský</t>
   </si>
   <si>
     <t xml:space="preserve">Polička</t>
   </si>
   <si>
-    <t xml:space="preserve">OK-7779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CX</t>
-  </si>
-  <si>
     <t xml:space="preserve">D01C39</t>
   </si>
   <si>
+    <t xml:space="preserve">NW</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jan Šťastný</t>
   </si>
   <si>
-    <t xml:space="preserve">Brno - Bystrc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Medlánky</t>
   </si>
   <si>
-    <t xml:space="preserve">OK-1623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NW</t>
-  </si>
-  <si>
     <t xml:space="preserve">D00CE4</t>
   </si>
   <si>
+    <t xml:space="preserve">KT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kim Toppari</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyvinkää</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
@@ -133,21 +112,15 @@
     <t xml:space="preserve">LS 7 neo</t>
   </si>
   <si>
-    <t xml:space="preserve">OH-1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KT</t>
-  </si>
-  <si>
     <t xml:space="preserve">D00D2F</t>
   </si>
   <si>
+    <t xml:space="preserve">VL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nicolas Caudrelier</t>
   </si>
   <si>
-    <t xml:space="preserve">La Tour de Salvagny</t>
-  </si>
-  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -160,63 +133,45 @@
     <t xml:space="preserve">ASW20</t>
   </si>
   <si>
-    <t xml:space="preserve">F-CNVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VL</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDAFEE</t>
   </si>
   <si>
+    <t xml:space="preserve">9B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nicolas Douchet</t>
   </si>
   <si>
-    <t xml:space="preserve">Béthencourt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cambrai Planeur Aéroclub</t>
   </si>
   <si>
     <t xml:space="preserve">LS 3a</t>
   </si>
   <si>
-    <t xml:space="preserve">D-8006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9B</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDEA6A</t>
   </si>
   <si>
+    <t xml:space="preserve">E10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gael PISCHEDDA</t>
   </si>
   <si>
-    <t xml:space="preserve">Le Puy St Reparade</t>
-  </si>
-  <si>
     <t xml:space="preserve">AAVA Vinon</t>
   </si>
   <si>
     <t xml:space="preserve">Ls4</t>
   </si>
   <si>
-    <t xml:space="preserve">F-CPVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E10</t>
-  </si>
-  <si>
     <t xml:space="preserve">DD8609</t>
   </si>
   <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jens Kammerer</t>
   </si>
   <si>
-    <t xml:space="preserve">Gondelsheim</t>
-  </si>
-  <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
@@ -229,63 +184,45 @@
     <t xml:space="preserve">DG300WL</t>
   </si>
   <si>
-    <t xml:space="preserve">D-1872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDE252</t>
   </si>
   <si>
+    <t xml:space="preserve">V7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Felix Kries</t>
   </si>
   <si>
-    <t xml:space="preserve">Neubiberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aero-Club Pirmasens</t>
   </si>
   <si>
     <t xml:space="preserve">LS4 wl</t>
   </si>
   <si>
-    <t xml:space="preserve">D-3442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V7</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDE2DB</t>
   </si>
   <si>
+    <t xml:space="preserve">3N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goormann Maximilian</t>
   </si>
   <si>
-    <t xml:space="preserve">Waldrach</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSV Neumagen-Dhron</t>
   </si>
   <si>
     <t xml:space="preserve">DG300 Neo</t>
   </si>
   <si>
-    <t xml:space="preserve">D-3353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3N</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDDFDC</t>
   </si>
   <si>
+    <t xml:space="preserve">RH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hadi Barna</t>
   </si>
   <si>
-    <t xml:space="preserve">Pécs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hungary</t>
   </si>
   <si>
@@ -298,63 +235,45 @@
     <t xml:space="preserve">ASW-20</t>
   </si>
   <si>
-    <t xml:space="preserve">D-3155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH</t>
-  </si>
-  <si>
     <t xml:space="preserve">D02A02</t>
   </si>
   <si>
+    <t xml:space="preserve">7T</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molnár Géza</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecser</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alföldi Repülő és Vitorlásklub SE</t>
   </si>
   <si>
     <t xml:space="preserve">LS3</t>
   </si>
   <si>
-    <t xml:space="preserve">D-2805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7T</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADF133</t>
   </si>
   <si>
+    <t xml:space="preserve">NY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roland Veronyák</t>
   </si>
   <si>
-    <t xml:space="preserve">Nyíregyháza</t>
-  </si>
-  <si>
     <t xml:space="preserve">Albatrosz Vitorlázórepülő Egyesület</t>
   </si>
   <si>
     <t xml:space="preserve">Asw 20</t>
   </si>
   <si>
-    <t xml:space="preserve">HA-4045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NY</t>
-  </si>
-  <si>
     <t xml:space="preserve">D012B6</t>
   </si>
   <si>
+    <t xml:space="preserve">5I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alessandro Bassalti</t>
   </si>
   <si>
-    <t xml:space="preserve">Milano</t>
-  </si>
-  <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
@@ -367,36 +286,27 @@
     <t xml:space="preserve">Discus</t>
   </si>
   <si>
-    <t xml:space="preserve">D-8592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5I</t>
-  </si>
-  <si>
     <t xml:space="preserve">DD9FD9</t>
   </si>
   <si>
+    <t xml:space="preserve">RB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andrea Paganin</t>
   </si>
   <si>
-    <t xml:space="preserve">Sedico</t>
-  </si>
-  <si>
     <t xml:space="preserve">Belluno "A. dell'Oro"</t>
   </si>
   <si>
     <t xml:space="preserve">ASW 24</t>
   </si>
   <si>
-    <t xml:space="preserve">D-0396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDDEE7</t>
   </si>
   <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jules Mathay</t>
   </si>
   <si>
@@ -412,21 +322,15 @@
     <t xml:space="preserve">LS4 b</t>
   </si>
   <si>
-    <t xml:space="preserve">LX-CLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
     <t xml:space="preserve">DD84FD</t>
   </si>
   <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jasper Jansen</t>
   </si>
   <si>
-    <t xml:space="preserve">Delft</t>
-  </si>
-  <si>
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
@@ -439,42 +343,30 @@
     <t xml:space="preserve">LS4a</t>
   </si>
   <si>
-    <t xml:space="preserve">PH-1632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
     <t xml:space="preserve">485D93</t>
   </si>
   <si>
+    <t xml:space="preserve">S4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lars van Breemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Huijbergen</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Brabantse Aero Club</t>
   </si>
   <si>
     <t xml:space="preserve">LS4b neo</t>
   </si>
   <si>
-    <t xml:space="preserve">PH-1588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S4</t>
-  </si>
-  <si>
     <t xml:space="preserve">485DB0</t>
   </si>
   <si>
+    <t xml:space="preserve">FB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frida Bjørø</t>
   </si>
   <si>
-    <t xml:space="preserve">Os</t>
-  </si>
-  <si>
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
@@ -487,42 +379,30 @@
     <t xml:space="preserve">LS4</t>
   </si>
   <si>
-    <t xml:space="preserve">LN-GFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB</t>
-  </si>
-  <si>
     <t xml:space="preserve">47BB9E</t>
   </si>
   <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nikolai Pontoppidan</t>
   </si>
   <si>
-    <t xml:space="preserve">Hagavik</t>
-  </si>
-  <si>
     <t xml:space="preserve">Os Aero Klubb</t>
   </si>
   <si>
     <t xml:space="preserve">LS 4</t>
   </si>
   <si>
-    <t xml:space="preserve">LN-GNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
     <t xml:space="preserve">47A7FF</t>
   </si>
   <si>
+    <t xml:space="preserve">AN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julia Walowska</t>
   </si>
   <si>
-    <t xml:space="preserve">Kramks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
@@ -535,102 +415,75 @@
     <t xml:space="preserve">LS-3</t>
   </si>
   <si>
-    <t xml:space="preserve">SP-4395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDD244</t>
   </si>
   <si>
+    <t xml:space="preserve">X56</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jan Wojewoda</t>
   </si>
   <si>
-    <t xml:space="preserve">Rumia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aeroklub Nadwiślański</t>
   </si>
   <si>
-    <t xml:space="preserve">SP-3219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X56</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDE1DC</t>
   </si>
   <si>
+    <t xml:space="preserve">3D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viktória Divoková</t>
   </si>
   <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🇸🇰</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spišská Nová Ves</t>
   </si>
   <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🇸🇰</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discus b</t>
   </si>
   <si>
-    <t xml:space="preserve">OM-0371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDF058</t>
   </si>
   <si>
+    <t xml:space="preserve">AK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antonio Rudolf Kalik</t>
   </si>
   <si>
-    <t xml:space="preserve">Trenčín</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aeroklub Dubnica nad Váhom</t>
   </si>
   <si>
-    <t xml:space="preserve">OM-0304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK</t>
-  </si>
-  <si>
     <t xml:space="preserve">DD89A3</t>
   </si>
   <si>
+    <t xml:space="preserve">LX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michaela Šoltysová</t>
   </si>
   <si>
-    <t xml:space="preserve">Prešov</t>
-  </si>
-  <si>
     <t xml:space="preserve">SGC Martin</t>
   </si>
   <si>
     <t xml:space="preserve">Std. Cirrus WL</t>
   </si>
   <si>
-    <t xml:space="preserve">OM-7472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LX</t>
-  </si>
-  <si>
     <t xml:space="preserve">DD9E29</t>
   </si>
   <si>
+    <t xml:space="preserve">LH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manon Kuttel</t>
   </si>
   <si>
-    <t xml:space="preserve">Montricher</t>
-  </si>
-  <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
@@ -640,39 +493,27 @@
     <t xml:space="preserve">GVVVM</t>
   </si>
   <si>
-    <t xml:space="preserve">HB-3108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH</t>
-  </si>
-  <si>
     <t xml:space="preserve">4B50CB</t>
   </si>
   <si>
+    <t xml:space="preserve">WG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matteo Merk</t>
   </si>
   <si>
-    <t xml:space="preserve">Dübendorf</t>
-  </si>
-  <si>
     <t xml:space="preserve">SG Winterthur</t>
   </si>
   <si>
-    <t xml:space="preserve">HB-1673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WG</t>
-  </si>
-  <si>
     <t xml:space="preserve">4B4B30</t>
   </si>
   <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
     <t xml:space="preserve">George Downing</t>
   </si>
   <si>
-    <t xml:space="preserve">Gosport</t>
-  </si>
-  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
@@ -685,21 +526,15 @@
     <t xml:space="preserve">Asw20</t>
   </si>
   <si>
-    <t xml:space="preserve">G-chzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212</t>
-  </si>
-  <si>
     <t xml:space="preserve">D01309</t>
   </si>
   <si>
+    <t xml:space="preserve">X11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kengo Matsumoto</t>
   </si>
   <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
@@ -709,27 +544,27 @@
     <t xml:space="preserve">Samurai Ninja Gliding</t>
   </si>
   <si>
-    <t xml:space="preserve">X11</t>
+    <t xml:space="preserve">EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomáš Hynek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dvůr Králové nad Labem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS-8</t>
   </si>
   <si>
     <t xml:space="preserve">Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomáš Hynek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dvůr Králové nad Labem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU</t>
-  </si>
-  <si>
     <t xml:space="preserve">D0018B</t>
   </si>
   <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lukáš Kříž</t>
   </si>
   <si>
@@ -739,33 +574,27 @@
     <t xml:space="preserve">LS8</t>
   </si>
   <si>
-    <t xml:space="preserve">AU</t>
-  </si>
-  <si>
     <t xml:space="preserve">D028C8</t>
   </si>
   <si>
+    <t xml:space="preserve">W8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michaela Rendlova</t>
   </si>
   <si>
-    <t xml:space="preserve">Zbraslavice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Touzim</t>
   </si>
   <si>
-    <t xml:space="preserve">W8</t>
-  </si>
-  <si>
     <t xml:space="preserve">D02B97</t>
   </si>
   <si>
+    <t xml:space="preserve">LE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lasse Edslev</t>
   </si>
   <si>
-    <t xml:space="preserve">Aarhus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
@@ -778,292 +607,202 @@
     <t xml:space="preserve">LS8 neo</t>
   </si>
   <si>
-    <t xml:space="preserve">OY-LXE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE</t>
-  </si>
-  <si>
     <t xml:space="preserve">D02C3E</t>
   </si>
   <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jacob Bøgelund Lassen</t>
   </si>
   <si>
-    <t xml:space="preserve">Herning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Herning Svæveflyveklub</t>
   </si>
   <si>
     <t xml:space="preserve">Discus 2a</t>
   </si>
   <si>
-    <t xml:space="preserve">D-5928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
     <t xml:space="preserve">DF0E33</t>
   </si>
   <si>
+    <t xml:space="preserve">2E</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clément DE PECHY</t>
   </si>
   <si>
-    <t xml:space="preserve">Bruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Planeurs d'Ille-et-Vilaine</t>
   </si>
   <si>
-    <t xml:space="preserve">D-4376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2E</t>
-  </si>
-  <si>
     <t xml:space="preserve">3EF1AF</t>
   </si>
   <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Theo Napoleon</t>
   </si>
   <si>
-    <t xml:space="preserve">DIGNE LES BAINS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avcasa St Auban</t>
   </si>
   <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDEB0D</t>
   </si>
   <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
     <t xml:space="preserve">François-Xavier Poisson</t>
   </si>
   <si>
-    <t xml:space="preserve">Guigneville</t>
-  </si>
-  <si>
     <t xml:space="preserve">Association aéronautique du val d'Essonne</t>
   </si>
   <si>
     <t xml:space="preserve">Discus2A</t>
   </si>
   <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDF12C</t>
   </si>
   <si>
+    <t xml:space="preserve">PB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patrick Benoist</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinzberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSC Burg Feuerstein</t>
   </si>
   <si>
     <t xml:space="preserve">Ls8-T Neo</t>
   </si>
   <si>
-    <t xml:space="preserve">D-KLWH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB</t>
-  </si>
-  <si>
     <t xml:space="preserve">DF1273</t>
   </si>
   <si>
+    <t xml:space="preserve">FJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuno Ferreira</t>
   </si>
   <si>
-    <t xml:space="preserve">Mainz</t>
-  </si>
-  <si>
     <t xml:space="preserve">AeC Bad Nauheim</t>
   </si>
   <si>
-    <t xml:space="preserve">D-0169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ</t>
-  </si>
-  <si>
     <t xml:space="preserve">DF17A7</t>
   </si>
   <si>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paul Schwarz</t>
   </si>
   <si>
-    <t xml:space="preserve">Kirchheim</t>
-  </si>
-  <si>
     <t xml:space="preserve">Luftsporting Aalen</t>
   </si>
   <si>
     <t xml:space="preserve">LS8 Neo</t>
   </si>
   <si>
-    <t xml:space="preserve">D-2857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A8</t>
-  </si>
-  <si>
     <t xml:space="preserve">DD859A</t>
   </si>
   <si>
+    <t xml:space="preserve">HUN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Máté Mészáros</t>
   </si>
   <si>
-    <t xml:space="preserve">Budapest</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hungarian Vintage Glider Club</t>
   </si>
   <si>
-    <t xml:space="preserve">D-6322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUN</t>
-  </si>
-  <si>
     <t xml:space="preserve">D00165</t>
   </si>
   <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
     <t xml:space="preserve">Noud Kaaij</t>
   </si>
   <si>
-    <t xml:space="preserve">Tilburg</t>
-  </si>
-  <si>
     <t xml:space="preserve">VEZC</t>
   </si>
   <si>
     <t xml:space="preserve">LS8-e Neo</t>
   </si>
   <si>
-    <t xml:space="preserve">D-KHIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
     <t xml:space="preserve">D004CA</t>
   </si>
   <si>
+    <t xml:space="preserve">VNE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niels van Nieuwland</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotterdam</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLC Illustrious</t>
   </si>
   <si>
     <t xml:space="preserve">LS8Neo</t>
   </si>
   <si>
-    <t xml:space="preserve">PH-1686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNE</t>
-  </si>
-  <si>
     <t xml:space="preserve">485F92</t>
   </si>
   <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maciej Kowalski</t>
   </si>
   <si>
-    <t xml:space="preserve">Gdynia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kielecki</t>
   </si>
   <si>
-    <t xml:space="preserve">SP-4106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDEE69</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tomasz Kurowski</t>
   </si>
   <si>
-    <t xml:space="preserve">Wieliczka</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aeroklub Krakowski</t>
   </si>
   <si>
-    <t xml:space="preserve">SP-4105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">E75198</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antoni Zawirski</t>
   </si>
   <si>
-    <t xml:space="preserve">Leszno</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aeroklub Leszczyński</t>
   </si>
   <si>
-    <t xml:space="preserve">SP-3665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT</t>
-  </si>
-  <si>
     <t xml:space="preserve">D02AAE</t>
   </si>
   <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oscar Butlin</t>
   </si>
   <si>
-    <t xml:space="preserve">Bedfordshire</t>
-  </si>
-  <si>
     <t xml:space="preserve">London gliding Club</t>
   </si>
   <si>
-    <t xml:space="preserve">G-DSVN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
     <t xml:space="preserve">D02958</t>
   </si>
   <si>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oliver Ramsay</t>
   </si>
   <si>
-    <t xml:space="preserve">Brackley</t>
-  </si>
-  <si>
     <t xml:space="preserve">Banbury GC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-CJMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302</t>
   </si>
   <si>
     <t xml:space="preserve">D0333C</t>
@@ -1372,19 +1111,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="8.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1415,116 +1155,92 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1532,34 +1248,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1567,34 +1277,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1602,34 +1306,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1637,34 +1335,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1672,34 +1364,28 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1707,34 +1393,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1742,34 +1422,28 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1777,34 +1451,28 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1812,34 +1480,28 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1847,34 +1509,28 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1882,34 +1538,28 @@
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1917,34 +1567,28 @@
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1952,34 +1596,28 @@
         <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1987,34 +1625,28 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2022,34 +1654,28 @@
         <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2057,34 +1683,28 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2092,104 +1712,86 @@
         <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
+      <c r="B22" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>6</v>
+      <c r="B23" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2197,34 +1799,28 @@
         <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2232,34 +1828,28 @@
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2267,34 +1857,28 @@
         <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2302,34 +1886,28 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2337,34 +1915,28 @@
         <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2372,34 +1944,28 @@
         <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2407,129 +1973,113 @@
         <v>49</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>230</v>
+      <c r="B31" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>230</v>
+      <c r="B32" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>240</v>
+        <v>178</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>230</v>
+      <c r="B33" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>245</v>
+        <v>178</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2537,34 +2087,28 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2572,34 +2116,28 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>261</v>
+        <v>178</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2607,100 +2145,86 @@
         <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>230</v>
+      <c r="B37" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>272</v>
+        <v>207</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>230</v>
+      <c r="B38" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>278</v>
+        <v>211</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2708,34 +2232,28 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2743,34 +2261,28 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2778,34 +2290,28 @@
         <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2813,34 +2319,28 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="G42" s="4" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>276</v>
+        <v>178</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2848,34 +2348,28 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>311</v>
+        <v>178</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2883,34 +2377,28 @@
         <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>313</v>
+        <v>103</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2918,34 +2406,28 @@
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>320</v>
+        <v>127</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2953,34 +2435,28 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>326</v>
+        <v>127</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2988,34 +2464,28 @@
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3023,34 +2493,28 @@
         <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>339</v>
+        <v>183</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3058,34 +2522,28 @@
         <v>51</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>344</v>
+        <v>164</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>345</v>
+        <v>183</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>348</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -646,7 +646,7 @@
     <t xml:space="preserve">Avcasa St Auban</t>
   </si>
   <si>
-    <t xml:space="preserve">DDEB0D</t>
+    <t xml:space="preserve">DD96AC</t>
   </si>
   <si>
     <t xml:space="preserve">ET</t>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="173">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ventus 2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renn</t>
   </si>
   <si>
     <t xml:space="preserve">D02CD6</t>
@@ -653,7 +656,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,8 +851,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,10 +919,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -927,28 +930,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -956,28 +959,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -985,28 +988,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1014,28 +1017,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1043,28 +1046,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1072,28 +1075,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1101,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -1128,28 +1131,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1157,28 +1160,28 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1186,28 +1189,28 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1215,25 +1218,25 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -1242,25 +1245,25 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -1269,28 +1272,28 @@
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1298,28 +1301,28 @@
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1327,28 +1330,28 @@
         <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1356,28 +1359,28 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1385,28 +1388,28 @@
         <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1414,31 +1417,31 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="0" t="s">
         <v>86</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1446,28 +1449,28 @@
         <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1478,25 +1481,25 @@
         <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1504,28 +1507,28 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1533,31 +1536,31 @@
         <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="0" t="s">
         <v>103</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1565,10 +1568,10 @@
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
@@ -1583,10 +1586,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1594,25 +1597,25 @@
         <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -1621,25 +1624,25 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I27" s="4"/>
     </row>
@@ -1648,25 +1651,25 @@
         <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -1675,25 +1678,25 @@
         <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -1702,25 +1705,25 @@
         <v>49</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I30" s="4"/>
     </row>
@@ -1729,25 +1732,25 @@
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -1756,28 +1759,28 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1785,25 +1788,25 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I33" s="3"/>
     </row>
@@ -1812,25 +1815,25 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I34" s="4"/>
     </row>
@@ -1839,28 +1842,28 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1868,25 +1871,25 @@
         <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I36" s="4"/>
     </row>
@@ -1895,25 +1898,25 @@
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="3"/>
     </row>
@@ -1922,25 +1925,25 @@
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I38" s="3"/>
     </row>
@@ -1949,28 +1952,28 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1978,28 +1981,28 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2007,25 +2010,25 @@
         <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I41" s="4"/>
     </row>
@@ -2034,25 +2037,25 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I42" s="4"/>
     </row>
@@ -2061,25 +2064,25 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I43" s="3"/>
     </row>
@@ -2088,25 +2091,25 @@
         <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I44" s="4"/>
     </row>
@@ -2115,25 +2118,25 @@
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I45" s="4"/>
     </row>
@@ -2142,25 +2145,25 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I46" s="4"/>
     </row>
@@ -2224,786 +2227,786 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>171</v>
+      <c r="D46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="174">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">Henrik Bieler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3EF053</t>
   </si>
   <si>
     <t xml:space="preserve">DD9CF0</t>
@@ -852,7 +855,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1588,8 +1591,11 @@
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="0" t="s">
         <v>107</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1597,10 +1603,10 @@
         <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
@@ -1612,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>14</v>
@@ -1624,10 +1630,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>28</v>
@@ -1639,10 +1645,10 @@
         <v>28</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I27" s="4"/>
     </row>
@@ -1651,10 +1657,10 @@
         <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>98</v>
@@ -1666,10 +1672,10 @@
         <v>98</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -1678,10 +1684,10 @@
         <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>98</v>
@@ -1693,10 +1699,10 @@
         <v>98</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -1705,10 +1711,10 @@
         <v>49</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>37</v>
@@ -1720,10 +1726,10 @@
         <v>37</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I30" s="4"/>
     </row>
@@ -1732,10 +1738,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>28</v>
@@ -1750,7 +1756,7 @@
         <v>91</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -1759,16 +1765,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>18</v>
@@ -1777,10 +1783,10 @@
         <v>91</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1788,10 +1794,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>28</v>
@@ -1803,10 +1809,10 @@
         <v>28</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I33" s="3"/>
     </row>
@@ -1815,10 +1821,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>62</v>
@@ -1830,10 +1836,10 @@
         <v>62</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I34" s="4"/>
     </row>
@@ -1842,28 +1848,28 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1871,25 +1877,25 @@
         <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I36" s="4"/>
     </row>
@@ -1898,16 +1904,16 @@
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>18</v>
@@ -1916,7 +1922,7 @@
         <v>91</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I37" s="3"/>
     </row>
@@ -1925,10 +1931,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>62</v>
@@ -1940,10 +1946,10 @@
         <v>62</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I38" s="3"/>
     </row>
@@ -1952,28 +1958,28 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1981,28 +1987,28 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2010,10 +2016,10 @@
         <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
@@ -2028,7 +2034,7 @@
         <v>91</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I41" s="4"/>
     </row>
@@ -2037,10 +2043,10 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>18</v>
@@ -2055,7 +2061,7 @@
         <v>91</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I42" s="4"/>
     </row>
@@ -2064,10 +2070,10 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>62</v>
@@ -2079,10 +2085,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I43" s="3"/>
     </row>
@@ -2091,10 +2097,10 @@
         <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>28</v>
@@ -2106,10 +2112,10 @@
         <v>28</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I44" s="4"/>
     </row>
@@ -2118,10 +2124,10 @@
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>28</v>
@@ -2133,10 +2139,10 @@
         <v>28</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I45" s="4"/>
     </row>
@@ -2145,10 +2151,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>37</v>
@@ -2163,7 +2169,7 @@
         <v>91</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I46" s="4"/>
     </row>
@@ -2229,7 +2235,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2241,7 +2247,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,7 +2264,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,7 +2281,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,7 +2298,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2315,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,7 +2332,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,7 +2349,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,7 +2366,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,7 +2383,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2400,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,7 +2434,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,7 +2451,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,7 +2468,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,7 +2485,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2502,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,7 +2536,7 @@
         <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2570,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,7 +2587,7 @@
         <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,7 +2604,7 @@
         <v>94</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,7 +2621,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,7 +2638,7 @@
         <v>102</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,100 +2655,100 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -2751,15 +2757,15 @@
         <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
@@ -2768,83 +2774,83 @@
         <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2853,24 +2859,24 @@
         <v>91</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,41 +2884,41 @@
         <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>18</v>
@@ -2921,15 +2927,15 @@
         <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -2938,66 +2944,66 @@
         <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>37</v>
@@ -3006,7 +3012,7 @@
         <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="190">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">FlarmID</t>
   </si>
   <si>
+    <t xml:space="preserve">confirmed</t>
+  </si>
+  <si>
     <t xml:space="preserve">GI</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t xml:space="preserve">3EE3C7</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">LS</t>
   </si>
   <si>
@@ -380,6 +386,12 @@
     <t xml:space="preserve">ASW 28</t>
   </si>
   <si>
+    <t xml:space="preserve">DD8204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2</t>
   </si>
   <si>
@@ -389,6 +401,12 @@
     <t xml:space="preserve">Discus b WL</t>
   </si>
   <si>
+    <t xml:space="preserve">DD82B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ECBC9</t>
+  </si>
+  <si>
     <t xml:space="preserve">8A</t>
   </si>
   <si>
@@ -398,12 +416,21 @@
     <t xml:space="preserve">Discus 2b</t>
   </si>
   <si>
+    <t xml:space="preserve">DF1597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDFA01</t>
+  </si>
+  <si>
     <t xml:space="preserve">XO</t>
   </si>
   <si>
     <t xml:space="preserve">Alexander Scheuble</t>
   </si>
   <si>
+    <t xml:space="preserve">8FFF2F</t>
+  </si>
+  <si>
     <t xml:space="preserve">TM</t>
   </si>
   <si>
@@ -431,6 +458,9 @@
     <t xml:space="preserve">Marcus Sagewitz</t>
   </si>
   <si>
+    <t xml:space="preserve">3EFEC8</t>
+  </si>
+  <si>
     <t xml:space="preserve">XN</t>
   </si>
   <si>
@@ -443,6 +473,9 @@
     <t xml:space="preserve">Discus 2a</t>
   </si>
   <si>
+    <t xml:space="preserve">D00CFE</t>
+  </si>
+  <si>
     <t xml:space="preserve">DDEFA8</t>
   </si>
   <si>
@@ -458,6 +491,9 @@
     <t xml:space="preserve">Discus 2cFES</t>
   </si>
   <si>
+    <t xml:space="preserve">DF1219</t>
+  </si>
+  <si>
     <t xml:space="preserve">GP</t>
   </si>
   <si>
@@ -473,6 +509,9 @@
     <t xml:space="preserve">LS 8</t>
   </si>
   <si>
+    <t xml:space="preserve">3F015C</t>
+  </si>
+  <si>
     <t xml:space="preserve">88</t>
   </si>
   <si>
@@ -506,6 +545,9 @@
     <t xml:space="preserve">Stefan Göldner</t>
   </si>
   <si>
+    <t xml:space="preserve">DF0C70</t>
+  </si>
+  <si>
     <t xml:space="preserve">AF</t>
   </si>
   <si>
@@ -515,6 +557,9 @@
     <t xml:space="preserve">LS 7 neo</t>
   </si>
   <si>
+    <t xml:space="preserve">3EEDD9</t>
+  </si>
+  <si>
     <t xml:space="preserve">YP</t>
   </si>
   <si>
@@ -531,6 +576,9 @@
   </si>
   <si>
     <t xml:space="preserve">Frederic Backhaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D021F1</t>
   </si>
   <si>
     <t xml:space="preserve">CN</t>
@@ -852,10 +900,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -898,34 +946,37 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -933,28 +984,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -962,28 +1013,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -991,28 +1045,31 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1020,28 +1077,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1049,28 +1106,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1078,28 +1135,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1107,25 +1164,25 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -1134,28 +1191,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1163,28 +1220,28 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1192,28 +1249,28 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1221,25 +1278,25 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -1248,25 +1305,25 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -1275,28 +1332,28 @@
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1304,28 +1361,31 @@
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1333,28 +1393,28 @@
         <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1362,28 +1422,31 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1391,28 +1454,28 @@
         <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1420,31 +1483,31 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1452,28 +1515,28 @@
         <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1484,25 +1547,25 @@
         <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1510,28 +1573,28 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1539,31 +1602,31 @@
         <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1571,31 +1634,31 @@
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1603,25 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -1630,25 +1693,25 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I27" s="4"/>
     </row>
@@ -1657,136 +1720,168 @@
         <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>49</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1794,25 +1889,25 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I33" s="3"/>
     </row>
@@ -1821,55 +1916,63 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1877,52 +1980,57 @@
         <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I37" s="3"/>
     </row>
@@ -1931,55 +2039,63 @@
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1987,28 +2103,28 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2016,25 +2132,25 @@
         <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I41" s="4"/>
     </row>
@@ -2043,79 +2159,89 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I44" s="4"/>
     </row>
@@ -2124,25 +2250,25 @@
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I45" s="4"/>
     </row>
@@ -2151,27 +2277,32 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
@@ -2235,7 +2366,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2247,347 +2378,347 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,288 +2726,288 @@
         <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,135 +3015,135 @@
         <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
